--- a/BackTest/2020-01-21 BackTest AOA.xlsx
+++ b/BackTest/2020-01-21 BackTest AOA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M278"/>
+  <dimension ref="A1:M279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.852</v>
+        <v>1.821</v>
       </c>
       <c r="C2" t="n">
-        <v>1.822</v>
+        <v>1.821</v>
       </c>
       <c r="D2" t="n">
-        <v>1.852</v>
+        <v>1.821</v>
       </c>
       <c r="E2" t="n">
-        <v>1.822</v>
+        <v>1.821</v>
       </c>
       <c r="F2" t="n">
-        <v>802444</v>
+        <v>546998</v>
       </c>
       <c r="G2" t="n">
-        <v>1.822499999999999</v>
+        <v>1.822449999999999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>1.822</v>
       </c>
       <c r="F3" t="n">
-        <v>2898800</v>
+        <v>802444</v>
       </c>
       <c r="G3" t="n">
-        <v>1.822316666666665</v>
+        <v>1.822499999999999</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>1.852</v>
       </c>
       <c r="C4" t="n">
-        <v>1.852</v>
+        <v>1.822</v>
       </c>
       <c r="D4" t="n">
         <v>1.852</v>
       </c>
       <c r="E4" t="n">
-        <v>1.852</v>
+        <v>1.822</v>
       </c>
       <c r="F4" t="n">
-        <v>223969</v>
+        <v>2898800</v>
       </c>
       <c r="G4" t="n">
-        <v>1.823199999999999</v>
+        <v>1.822316666666665</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.824</v>
+        <v>1.852</v>
       </c>
       <c r="C5" t="n">
-        <v>1.824</v>
+        <v>1.852</v>
       </c>
       <c r="D5" t="n">
         <v>1.852</v>
       </c>
       <c r="E5" t="n">
-        <v>1.824</v>
+        <v>1.852</v>
       </c>
       <c r="F5" t="n">
-        <v>3511872</v>
+        <v>223969</v>
       </c>
       <c r="G5" t="n">
-        <v>1.823583333333332</v>
+        <v>1.823199999999999</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.853</v>
+        <v>1.824</v>
       </c>
       <c r="C6" t="n">
-        <v>1.853</v>
+        <v>1.824</v>
       </c>
       <c r="D6" t="n">
-        <v>1.853</v>
+        <v>1.852</v>
       </c>
       <c r="E6" t="n">
-        <v>1.853</v>
+        <v>1.824</v>
       </c>
       <c r="F6" t="n">
-        <v>429358.5302</v>
+        <v>3511872</v>
       </c>
       <c r="G6" t="n">
-        <v>1.824099999999999</v>
+        <v>1.823583333333332</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.852</v>
+        <v>1.853</v>
       </c>
       <c r="C7" t="n">
-        <v>1.852</v>
+        <v>1.853</v>
       </c>
       <c r="D7" t="n">
-        <v>1.852</v>
+        <v>1.853</v>
       </c>
       <c r="E7" t="n">
-        <v>1.852</v>
+        <v>1.853</v>
       </c>
       <c r="F7" t="n">
-        <v>204050</v>
+        <v>429358.5302</v>
       </c>
       <c r="G7" t="n">
-        <v>1.824899999999999</v>
+        <v>1.824099999999999</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.83</v>
+        <v>1.852</v>
       </c>
       <c r="C8" t="n">
         <v>1.852</v>
@@ -652,13 +652,13 @@
         <v>1.852</v>
       </c>
       <c r="E8" t="n">
-        <v>1.827</v>
+        <v>1.852</v>
       </c>
       <c r="F8" t="n">
-        <v>419502</v>
+        <v>204050</v>
       </c>
       <c r="G8" t="n">
-        <v>1.825699999999999</v>
+        <v>1.824899999999999</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="C9" t="n">
-        <v>1.84</v>
+        <v>1.852</v>
       </c>
       <c r="D9" t="n">
-        <v>1.84</v>
+        <v>1.852</v>
       </c>
       <c r="E9" t="n">
-        <v>1.84</v>
+        <v>1.827</v>
       </c>
       <c r="F9" t="n">
-        <v>19472.8039</v>
+        <v>419502</v>
       </c>
       <c r="G9" t="n">
-        <v>1.826266666666665</v>
+        <v>1.825699999999999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>1.84</v>
       </c>
       <c r="C10" t="n">
-        <v>1.852</v>
+        <v>1.84</v>
       </c>
       <c r="D10" t="n">
-        <v>1.852</v>
+        <v>1.84</v>
       </c>
       <c r="E10" t="n">
-        <v>1.832</v>
+        <v>1.84</v>
       </c>
       <c r="F10" t="n">
-        <v>936628.1714</v>
+        <v>19472.8039</v>
       </c>
       <c r="G10" t="n">
-        <v>1.827016666666665</v>
+        <v>1.826266666666665</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,10 +748,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.832</v>
+        <v>1.84</v>
       </c>
       <c r="C11" t="n">
-        <v>1.832</v>
+        <v>1.852</v>
       </c>
       <c r="D11" t="n">
         <v>1.852</v>
@@ -760,10 +760,10 @@
         <v>1.832</v>
       </c>
       <c r="F11" t="n">
-        <v>2608311</v>
+        <v>936628.1714</v>
       </c>
       <c r="G11" t="n">
-        <v>1.827433333333332</v>
+        <v>1.827016666666665</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.852</v>
+        <v>1.832</v>
       </c>
       <c r="C12" t="n">
-        <v>1.852</v>
+        <v>1.832</v>
       </c>
       <c r="D12" t="n">
         <v>1.852</v>
@@ -795,10 +795,10 @@
         <v>1.832</v>
       </c>
       <c r="F12" t="n">
-        <v>924243</v>
+        <v>2608311</v>
       </c>
       <c r="G12" t="n">
-        <v>1.828299999999999</v>
+        <v>1.827433333333332</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,10 +818,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.832</v>
+        <v>1.852</v>
       </c>
       <c r="C13" t="n">
-        <v>1.832</v>
+        <v>1.852</v>
       </c>
       <c r="D13" t="n">
         <v>1.852</v>
@@ -830,10 +830,10 @@
         <v>1.832</v>
       </c>
       <c r="F13" t="n">
-        <v>2724873</v>
+        <v>924243</v>
       </c>
       <c r="G13" t="n">
-        <v>1.828816666666665</v>
+        <v>1.828299999999999</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,10 +853,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.852</v>
+        <v>1.832</v>
       </c>
       <c r="C14" t="n">
-        <v>1.852</v>
+        <v>1.832</v>
       </c>
       <c r="D14" t="n">
         <v>1.852</v>
@@ -865,10 +865,10 @@
         <v>1.832</v>
       </c>
       <c r="F14" t="n">
-        <v>2287061</v>
+        <v>2724873</v>
       </c>
       <c r="G14" t="n">
-        <v>1.829666666666665</v>
+        <v>1.828816666666665</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,10 +888,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.832</v>
+        <v>1.852</v>
       </c>
       <c r="C15" t="n">
-        <v>1.832</v>
+        <v>1.852</v>
       </c>
       <c r="D15" t="n">
         <v>1.852</v>
@@ -900,10 +900,10 @@
         <v>1.832</v>
       </c>
       <c r="F15" t="n">
-        <v>1910513</v>
+        <v>2287061</v>
       </c>
       <c r="G15" t="n">
-        <v>1.830183333333332</v>
+        <v>1.829666666666665</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.831</v>
+        <v>1.832</v>
       </c>
       <c r="C16" t="n">
-        <v>1.831</v>
+        <v>1.832</v>
       </c>
       <c r="D16" t="n">
-        <v>1.831</v>
+        <v>1.852</v>
       </c>
       <c r="E16" t="n">
-        <v>1.831</v>
+        <v>1.832</v>
       </c>
       <c r="F16" t="n">
-        <v>181531.5429</v>
+        <v>1910513</v>
       </c>
       <c r="G16" t="n">
-        <v>1.830633333333332</v>
+        <v>1.830183333333332</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>1.831</v>
       </c>
       <c r="F17" t="n">
-        <v>268650.4191</v>
+        <v>181531.5429</v>
       </c>
       <c r="G17" t="n">
-        <v>1.830583333333332</v>
+        <v>1.830633333333332</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.852</v>
+        <v>1.831</v>
       </c>
       <c r="C18" t="n">
-        <v>1.852</v>
+        <v>1.831</v>
       </c>
       <c r="D18" t="n">
-        <v>1.852</v>
+        <v>1.831</v>
       </c>
       <c r="E18" t="n">
-        <v>1.852</v>
+        <v>1.831</v>
       </c>
       <c r="F18" t="n">
-        <v>234429</v>
+        <v>268650.4191</v>
       </c>
       <c r="G18" t="n">
-        <v>1.830816666666665</v>
+        <v>1.830583333333332</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.831</v>
+        <v>1.852</v>
       </c>
       <c r="C19" t="n">
-        <v>1.832</v>
+        <v>1.852</v>
       </c>
       <c r="D19" t="n">
         <v>1.852</v>
       </c>
       <c r="E19" t="n">
-        <v>1.831</v>
+        <v>1.852</v>
       </c>
       <c r="F19" t="n">
-        <v>3302391</v>
+        <v>234429</v>
       </c>
       <c r="G19" t="n">
-        <v>1.830716666666665</v>
+        <v>1.830816666666665</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.852</v>
+        <v>1.831</v>
       </c>
       <c r="C20" t="n">
-        <v>1.852</v>
+        <v>1.832</v>
       </c>
       <c r="D20" t="n">
         <v>1.852</v>
       </c>
       <c r="E20" t="n">
-        <v>1.832</v>
+        <v>1.831</v>
       </c>
       <c r="F20" t="n">
-        <v>836183</v>
+        <v>3302391</v>
       </c>
       <c r="G20" t="n">
-        <v>1.831249999999999</v>
+        <v>1.830716666666665</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>1.852</v>
       </c>
       <c r="C21" t="n">
-        <v>1.832</v>
+        <v>1.852</v>
       </c>
       <c r="D21" t="n">
         <v>1.852</v>
@@ -1110,10 +1110,10 @@
         <v>1.832</v>
       </c>
       <c r="F21" t="n">
-        <v>2667851</v>
+        <v>836183</v>
       </c>
       <c r="G21" t="n">
-        <v>1.831449999999999</v>
+        <v>1.831249999999999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>1.852</v>
       </c>
       <c r="C22" t="n">
-        <v>1.852</v>
+        <v>1.832</v>
       </c>
       <c r="D22" t="n">
         <v>1.852</v>
@@ -1145,10 +1145,10 @@
         <v>1.832</v>
       </c>
       <c r="F22" t="n">
-        <v>2355078</v>
+        <v>2667851</v>
       </c>
       <c r="G22" t="n">
-        <v>1.831983333333332</v>
+        <v>1.831449999999999</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,10 +1168,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.832</v>
+        <v>1.852</v>
       </c>
       <c r="C23" t="n">
-        <v>1.832</v>
+        <v>1.852</v>
       </c>
       <c r="D23" t="n">
         <v>1.852</v>
@@ -1180,10 +1180,10 @@
         <v>1.832</v>
       </c>
       <c r="F23" t="n">
-        <v>1334762</v>
+        <v>2355078</v>
       </c>
       <c r="G23" t="n">
-        <v>1.832183333333332</v>
+        <v>1.831983333333332</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.853</v>
+        <v>1.832</v>
       </c>
       <c r="C24" t="n">
-        <v>1.853</v>
+        <v>1.832</v>
       </c>
       <c r="D24" t="n">
-        <v>1.853</v>
+        <v>1.852</v>
       </c>
       <c r="E24" t="n">
-        <v>1.853</v>
+        <v>1.832</v>
       </c>
       <c r="F24" t="n">
-        <v>270</v>
+        <v>1334762</v>
       </c>
       <c r="G24" t="n">
-        <v>1.832749999999999</v>
+        <v>1.832183333333332</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.852</v>
+        <v>1.853</v>
       </c>
       <c r="C25" t="n">
-        <v>1.852</v>
+        <v>1.853</v>
       </c>
       <c r="D25" t="n">
-        <v>1.852</v>
+        <v>1.853</v>
       </c>
       <c r="E25" t="n">
-        <v>1.852</v>
+        <v>1.853</v>
       </c>
       <c r="F25" t="n">
         <v>270</v>
       </c>
       <c r="G25" t="n">
-        <v>1.833316666666666</v>
+        <v>1.832749999999999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.853</v>
+        <v>1.852</v>
       </c>
       <c r="C26" t="n">
-        <v>1.853</v>
+        <v>1.852</v>
       </c>
       <c r="D26" t="n">
-        <v>1.853</v>
+        <v>1.852</v>
       </c>
       <c r="E26" t="n">
-        <v>1.853</v>
+        <v>1.852</v>
       </c>
       <c r="F26" t="n">
         <v>270</v>
       </c>
       <c r="G26" t="n">
-        <v>1.834016666666666</v>
+        <v>1.833316666666666</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.852</v>
+        <v>1.853</v>
       </c>
       <c r="C27" t="n">
-        <v>1.852</v>
+        <v>1.853</v>
       </c>
       <c r="D27" t="n">
-        <v>1.852</v>
+        <v>1.853</v>
       </c>
       <c r="E27" t="n">
-        <v>1.852</v>
+        <v>1.853</v>
       </c>
       <c r="F27" t="n">
         <v>270</v>
       </c>
       <c r="G27" t="n">
-        <v>1.834683333333332</v>
+        <v>1.834016666666666</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.853</v>
+        <v>1.852</v>
       </c>
       <c r="C28" t="n">
-        <v>1.832</v>
+        <v>1.852</v>
       </c>
       <c r="D28" t="n">
-        <v>1.853</v>
+        <v>1.852</v>
       </c>
       <c r="E28" t="n">
-        <v>1.832</v>
+        <v>1.852</v>
       </c>
       <c r="F28" t="n">
-        <v>3018416</v>
+        <v>270</v>
       </c>
       <c r="G28" t="n">
-        <v>1.834983333333332</v>
+        <v>1.834683333333332</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.852</v>
+        <v>1.853</v>
       </c>
       <c r="C29" t="n">
         <v>1.832</v>
       </c>
       <c r="D29" t="n">
-        <v>1.852</v>
+        <v>1.853</v>
       </c>
       <c r="E29" t="n">
         <v>1.832</v>
       </c>
       <c r="F29" t="n">
-        <v>601410</v>
+        <v>3018416</v>
       </c>
       <c r="G29" t="n">
-        <v>1.835283333333332</v>
+        <v>1.834983333333332</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.853</v>
+        <v>1.852</v>
       </c>
       <c r="C30" t="n">
-        <v>1.853</v>
+        <v>1.832</v>
       </c>
       <c r="D30" t="n">
-        <v>1.853</v>
+        <v>1.852</v>
       </c>
       <c r="E30" t="n">
-        <v>1.853</v>
+        <v>1.832</v>
       </c>
       <c r="F30" t="n">
-        <v>270</v>
+        <v>601410</v>
       </c>
       <c r="G30" t="n">
-        <v>1.835899999999999</v>
+        <v>1.835283333333332</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.852</v>
+        <v>1.853</v>
       </c>
       <c r="C31" t="n">
-        <v>1.852</v>
+        <v>1.853</v>
       </c>
       <c r="D31" t="n">
-        <v>1.852</v>
+        <v>1.853</v>
       </c>
       <c r="E31" t="n">
-        <v>1.852</v>
+        <v>1.853</v>
       </c>
       <c r="F31" t="n">
         <v>270</v>
       </c>
       <c r="G31" t="n">
-        <v>1.836499999999999</v>
+        <v>1.835899999999999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.85</v>
+        <v>1.852</v>
       </c>
       <c r="C32" t="n">
-        <v>1.833</v>
+        <v>1.852</v>
       </c>
       <c r="D32" t="n">
-        <v>1.85</v>
+        <v>1.852</v>
       </c>
       <c r="E32" t="n">
-        <v>1.833</v>
+        <v>1.852</v>
       </c>
       <c r="F32" t="n">
-        <v>1448136</v>
+        <v>270</v>
       </c>
       <c r="G32" t="n">
-        <v>1.836416666666665</v>
+        <v>1.836499999999999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>1.833</v>
       </c>
       <c r="F33" t="n">
-        <v>2450570</v>
+        <v>1448136</v>
       </c>
       <c r="G33" t="n">
-        <v>1.836783333333332</v>
+        <v>1.836416666666665</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.852</v>
+        <v>1.85</v>
       </c>
       <c r="C34" t="n">
-        <v>1.852</v>
+        <v>1.833</v>
       </c>
       <c r="D34" t="n">
-        <v>1.852</v>
+        <v>1.85</v>
       </c>
       <c r="E34" t="n">
-        <v>1.836</v>
+        <v>1.833</v>
       </c>
       <c r="F34" t="n">
-        <v>2284368</v>
+        <v>2450570</v>
       </c>
       <c r="G34" t="n">
-        <v>1.837449999999999</v>
+        <v>1.836783333333332</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,10 +1588,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.836</v>
+        <v>1.852</v>
       </c>
       <c r="C35" t="n">
-        <v>1.836</v>
+        <v>1.852</v>
       </c>
       <c r="D35" t="n">
         <v>1.852</v>
@@ -1600,10 +1600,10 @@
         <v>1.836</v>
       </c>
       <c r="F35" t="n">
-        <v>1193619</v>
+        <v>2284368</v>
       </c>
       <c r="G35" t="n">
-        <v>1.837849999999999</v>
+        <v>1.837449999999999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.853</v>
+        <v>1.836</v>
       </c>
       <c r="C36" t="n">
+        <v>1.836</v>
+      </c>
+      <c r="D36" t="n">
         <v>1.852</v>
       </c>
-      <c r="D36" t="n">
-        <v>1.853</v>
-      </c>
       <c r="E36" t="n">
-        <v>1.852</v>
+        <v>1.836</v>
       </c>
       <c r="F36" t="n">
-        <v>540</v>
+        <v>1193619</v>
       </c>
       <c r="G36" t="n">
-        <v>1.838399999999999</v>
+        <v>1.837849999999999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.833</v>
+        <v>1.853</v>
       </c>
       <c r="C37" t="n">
-        <v>1.832</v>
+        <v>1.852</v>
       </c>
       <c r="D37" t="n">
-        <v>1.833</v>
+        <v>1.853</v>
       </c>
       <c r="E37" t="n">
-        <v>1.832</v>
+        <v>1.852</v>
       </c>
       <c r="F37" t="n">
-        <v>772596.647</v>
+        <v>540</v>
       </c>
       <c r="G37" t="n">
-        <v>1.838316666666665</v>
+        <v>1.838399999999999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.832</v>
+        <v>1.833</v>
       </c>
       <c r="C38" t="n">
         <v>1.832</v>
       </c>
       <c r="D38" t="n">
-        <v>1.832</v>
+        <v>1.833</v>
       </c>
       <c r="E38" t="n">
         <v>1.832</v>
       </c>
       <c r="F38" t="n">
-        <v>272925.7642</v>
+        <v>772596.647</v>
       </c>
       <c r="G38" t="n">
-        <v>1.838533333333332</v>
+        <v>1.838316666666665</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1740,10 +1740,10 @@
         <v>1.832</v>
       </c>
       <c r="F39" t="n">
-        <v>267467.249</v>
+        <v>272925.7642</v>
       </c>
       <c r="G39" t="n">
-        <v>1.838749999999999</v>
+        <v>1.838533333333332</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.831</v>
+        <v>1.832</v>
       </c>
       <c r="C40" t="n">
-        <v>1.83</v>
+        <v>1.832</v>
       </c>
       <c r="D40" t="n">
-        <v>1.831</v>
+        <v>1.832</v>
       </c>
       <c r="E40" t="n">
-        <v>1.801</v>
+        <v>1.832</v>
       </c>
       <c r="F40" t="n">
-        <v>1667828.4822</v>
+        <v>267467.249</v>
       </c>
       <c r="G40" t="n">
-        <v>1.838933333333332</v>
+        <v>1.838749999999999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.801</v>
+        <v>1.831</v>
       </c>
       <c r="C41" t="n">
-        <v>1.802</v>
+        <v>1.83</v>
       </c>
       <c r="D41" t="n">
-        <v>1.829</v>
+        <v>1.831</v>
       </c>
       <c r="E41" t="n">
         <v>1.801</v>
       </c>
       <c r="F41" t="n">
-        <v>2137836</v>
+        <v>1667828.4822</v>
       </c>
       <c r="G41" t="n">
-        <v>1.838349999999999</v>
+        <v>1.838933333333332</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.83</v>
+        <v>1.801</v>
       </c>
       <c r="C42" t="n">
-        <v>1.83</v>
+        <v>1.802</v>
       </c>
       <c r="D42" t="n">
-        <v>1.83</v>
+        <v>1.829</v>
       </c>
       <c r="E42" t="n">
-        <v>1.83</v>
+        <v>1.801</v>
       </c>
       <c r="F42" t="n">
-        <v>411491.242</v>
+        <v>2137836</v>
       </c>
       <c r="G42" t="n">
-        <v>1.838533333333332</v>
+        <v>1.838349999999999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.842</v>
+        <v>1.83</v>
       </c>
       <c r="C43" t="n">
-        <v>1.841</v>
+        <v>1.83</v>
       </c>
       <c r="D43" t="n">
-        <v>1.842</v>
+        <v>1.83</v>
       </c>
       <c r="E43" t="n">
-        <v>1.841</v>
+        <v>1.83</v>
       </c>
       <c r="F43" t="n">
-        <v>550</v>
+        <v>411491.242</v>
       </c>
       <c r="G43" t="n">
-        <v>1.838899999999998</v>
+        <v>1.838533333333332</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.84</v>
+        <v>1.842</v>
       </c>
       <c r="C44" t="n">
-        <v>1.84</v>
+        <v>1.841</v>
       </c>
       <c r="D44" t="n">
-        <v>1.84</v>
+        <v>1.842</v>
       </c>
       <c r="E44" t="n">
-        <v>1.816</v>
+        <v>1.841</v>
       </c>
       <c r="F44" t="n">
-        <v>1794567</v>
+        <v>550</v>
       </c>
       <c r="G44" t="n">
-        <v>1.839216666666665</v>
+        <v>1.838899999999998</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.816</v>
+        <v>1.84</v>
       </c>
       <c r="C45" t="n">
-        <v>1.816</v>
+        <v>1.84</v>
       </c>
       <c r="D45" t="n">
-        <v>1.842</v>
+        <v>1.84</v>
       </c>
       <c r="E45" t="n">
         <v>1.816</v>
       </c>
       <c r="F45" t="n">
-        <v>1908420</v>
+        <v>1794567</v>
       </c>
       <c r="G45" t="n">
-        <v>1.838616666666665</v>
+        <v>1.839216666666665</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.83</v>
+        <v>1.816</v>
       </c>
       <c r="C46" t="n">
-        <v>1.822</v>
+        <v>1.816</v>
       </c>
       <c r="D46" t="n">
         <v>1.842</v>
       </c>
       <c r="E46" t="n">
-        <v>1.821</v>
+        <v>1.816</v>
       </c>
       <c r="F46" t="n">
-        <v>675475.7429</v>
+        <v>1908420</v>
       </c>
       <c r="G46" t="n">
-        <v>1.838783333333332</v>
+        <v>1.838616666666665</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.841</v>
+        <v>1.83</v>
       </c>
       <c r="C47" t="n">
         <v>1.822</v>
@@ -2020,10 +2020,10 @@
         <v>1.821</v>
       </c>
       <c r="F47" t="n">
-        <v>2839042</v>
+        <v>675475.7429</v>
       </c>
       <c r="G47" t="n">
-        <v>1.838283333333332</v>
+        <v>1.838783333333332</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.842</v>
+        <v>1.841</v>
       </c>
       <c r="C48" t="n">
-        <v>1.842</v>
+        <v>1.822</v>
       </c>
       <c r="D48" t="n">
         <v>1.842</v>
       </c>
       <c r="E48" t="n">
-        <v>1.842</v>
+        <v>1.821</v>
       </c>
       <c r="F48" t="n">
-        <v>275</v>
+        <v>2839042</v>
       </c>
       <c r="G48" t="n">
-        <v>1.838116666666665</v>
+        <v>1.838283333333332</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.841</v>
+        <v>1.842</v>
       </c>
       <c r="C49" t="n">
-        <v>1.841</v>
+        <v>1.842</v>
       </c>
       <c r="D49" t="n">
-        <v>1.841</v>
+        <v>1.842</v>
       </c>
       <c r="E49" t="n">
-        <v>1.841</v>
+        <v>1.842</v>
       </c>
       <c r="F49" t="n">
-        <v>268745</v>
+        <v>275</v>
       </c>
       <c r="G49" t="n">
-        <v>1.838416666666665</v>
+        <v>1.838116666666665</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.824</v>
+        <v>1.841</v>
       </c>
       <c r="C50" t="n">
-        <v>1.823</v>
+        <v>1.841</v>
       </c>
       <c r="D50" t="n">
-        <v>1.842</v>
+        <v>1.841</v>
       </c>
       <c r="E50" t="n">
-        <v>1.823</v>
+        <v>1.841</v>
       </c>
       <c r="F50" t="n">
-        <v>3126027</v>
+        <v>268745</v>
       </c>
       <c r="G50" t="n">
-        <v>1.838366666666665</v>
+        <v>1.838416666666665</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.842</v>
+        <v>1.824</v>
       </c>
       <c r="C51" t="n">
-        <v>1.842</v>
+        <v>1.823</v>
       </c>
       <c r="D51" t="n">
         <v>1.842</v>
       </c>
       <c r="E51" t="n">
-        <v>1.842</v>
+        <v>1.823</v>
       </c>
       <c r="F51" t="n">
-        <v>275</v>
+        <v>3126027</v>
       </c>
       <c r="G51" t="n">
-        <v>1.838633333333332</v>
+        <v>1.838366666666665</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.841</v>
+        <v>1.842</v>
       </c>
       <c r="C52" t="n">
-        <v>1.841</v>
+        <v>1.842</v>
       </c>
       <c r="D52" t="n">
-        <v>1.841</v>
+        <v>1.842</v>
       </c>
       <c r="E52" t="n">
-        <v>1.823</v>
+        <v>1.842</v>
       </c>
       <c r="F52" t="n">
-        <v>1091396</v>
+        <v>275</v>
       </c>
       <c r="G52" t="n">
-        <v>1.838449999999998</v>
+        <v>1.838633333333332</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,10 +2218,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.823</v>
+        <v>1.841</v>
       </c>
       <c r="C53" t="n">
-        <v>1.823</v>
+        <v>1.841</v>
       </c>
       <c r="D53" t="n">
         <v>1.841</v>
@@ -2230,10 +2230,10 @@
         <v>1.823</v>
       </c>
       <c r="F53" t="n">
-        <v>2485731</v>
+        <v>1091396</v>
       </c>
       <c r="G53" t="n">
-        <v>1.838366666666665</v>
+        <v>1.838449999999998</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.842</v>
+        <v>1.823</v>
       </c>
       <c r="C54" t="n">
-        <v>1.842</v>
+        <v>1.823</v>
       </c>
       <c r="D54" t="n">
-        <v>1.842</v>
+        <v>1.841</v>
       </c>
       <c r="E54" t="n">
-        <v>1.842</v>
+        <v>1.823</v>
       </c>
       <c r="F54" t="n">
-        <v>275</v>
+        <v>2485731</v>
       </c>
       <c r="G54" t="n">
-        <v>1.838199999999998</v>
+        <v>1.838366666666665</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.841</v>
+        <v>1.842</v>
       </c>
       <c r="C55" t="n">
-        <v>1.841</v>
+        <v>1.842</v>
       </c>
       <c r="D55" t="n">
-        <v>1.841</v>
+        <v>1.842</v>
       </c>
       <c r="E55" t="n">
-        <v>1.823</v>
+        <v>1.842</v>
       </c>
       <c r="F55" t="n">
-        <v>3161461</v>
+        <v>275</v>
       </c>
       <c r="G55" t="n">
-        <v>1.838366666666665</v>
+        <v>1.838199999999998</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,19 +2323,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.823</v>
+        <v>1.841</v>
       </c>
       <c r="C56" t="n">
-        <v>1.852</v>
+        <v>1.841</v>
       </c>
       <c r="D56" t="n">
-        <v>1.852</v>
+        <v>1.841</v>
       </c>
       <c r="E56" t="n">
         <v>1.823</v>
       </c>
       <c r="F56" t="n">
-        <v>823173.5523717062</v>
+        <v>3161461</v>
       </c>
       <c r="G56" t="n">
         <v>1.838366666666665</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.851</v>
+        <v>1.823</v>
       </c>
       <c r="C57" t="n">
-        <v>1.851</v>
+        <v>1.852</v>
       </c>
       <c r="D57" t="n">
-        <v>1.851</v>
+        <v>1.852</v>
       </c>
       <c r="E57" t="n">
-        <v>1.851</v>
+        <v>1.823</v>
       </c>
       <c r="F57" t="n">
-        <v>275</v>
+        <v>823173.5523717062</v>
       </c>
       <c r="G57" t="n">
-        <v>1.838683333333331</v>
+        <v>1.838366666666665</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2405,10 +2405,10 @@
         <v>1.851</v>
       </c>
       <c r="F58" t="n">
-        <v>15746.1451</v>
+        <v>275</v>
       </c>
       <c r="G58" t="n">
-        <v>1.839016666666665</v>
+        <v>1.838683333333331</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2437,13 +2437,13 @@
         <v>1.851</v>
       </c>
       <c r="E59" t="n">
-        <v>1.831</v>
+        <v>1.851</v>
       </c>
       <c r="F59" t="n">
-        <v>2394853</v>
+        <v>15746.1451</v>
       </c>
       <c r="G59" t="n">
-        <v>1.838999999999998</v>
+        <v>1.839016666666665</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2466,16 +2466,16 @@
         <v>1.851</v>
       </c>
       <c r="C60" t="n">
-        <v>1.852</v>
+        <v>1.851</v>
       </c>
       <c r="D60" t="n">
-        <v>1.852</v>
+        <v>1.851</v>
       </c>
       <c r="E60" t="n">
         <v>1.831</v>
       </c>
       <c r="F60" t="n">
-        <v>2005010</v>
+        <v>2394853</v>
       </c>
       <c r="G60" t="n">
         <v>1.838999999999998</v>
@@ -2501,19 +2501,19 @@
         <v>1.851</v>
       </c>
       <c r="C61" t="n">
-        <v>1.851</v>
+        <v>1.852</v>
       </c>
       <c r="D61" t="n">
-        <v>1.851</v>
+        <v>1.852</v>
       </c>
       <c r="E61" t="n">
-        <v>1.851</v>
+        <v>1.831</v>
       </c>
       <c r="F61" t="n">
-        <v>275</v>
+        <v>2005010</v>
       </c>
       <c r="G61" t="n">
-        <v>1.839499999999998</v>
+        <v>1.838999999999998</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.841</v>
+        <v>1.851</v>
       </c>
       <c r="C62" t="n">
-        <v>1.839</v>
+        <v>1.851</v>
       </c>
       <c r="D62" t="n">
-        <v>1.841</v>
+        <v>1.851</v>
       </c>
       <c r="E62" t="n">
-        <v>1.822</v>
+        <v>1.851</v>
       </c>
       <c r="F62" t="n">
-        <v>526702.5524</v>
+        <v>275</v>
       </c>
       <c r="G62" t="n">
-        <v>1.839783333333331</v>
+        <v>1.839499999999998</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.823</v>
+        <v>1.841</v>
       </c>
       <c r="C63" t="n">
-        <v>1.823</v>
+        <v>1.839</v>
       </c>
       <c r="D63" t="n">
-        <v>1.839</v>
+        <v>1.841</v>
       </c>
       <c r="E63" t="n">
         <v>1.822</v>
       </c>
       <c r="F63" t="n">
-        <v>3401387.9747</v>
+        <v>526702.5524</v>
       </c>
       <c r="G63" t="n">
-        <v>1.839799999999998</v>
+        <v>1.839783333333331</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.84</v>
+        <v>1.823</v>
       </c>
       <c r="C64" t="n">
-        <v>1.84</v>
+        <v>1.823</v>
       </c>
       <c r="D64" t="n">
-        <v>1.84</v>
+        <v>1.839</v>
       </c>
       <c r="E64" t="n">
-        <v>1.84</v>
+        <v>1.822</v>
       </c>
       <c r="F64" t="n">
-        <v>4000</v>
+        <v>3401387.9747</v>
       </c>
       <c r="G64" t="n">
-        <v>1.839599999999998</v>
+        <v>1.839799999999998</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.839</v>
+        <v>1.84</v>
       </c>
       <c r="C65" t="n">
-        <v>1.839</v>
+        <v>1.84</v>
       </c>
       <c r="D65" t="n">
-        <v>1.839</v>
+        <v>1.84</v>
       </c>
       <c r="E65" t="n">
-        <v>1.823</v>
+        <v>1.84</v>
       </c>
       <c r="F65" t="n">
-        <v>1579998</v>
+        <v>4000</v>
       </c>
       <c r="G65" t="n">
-        <v>1.839849999999998</v>
+        <v>1.839599999999998</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,10 +2673,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.823</v>
+        <v>1.839</v>
       </c>
       <c r="C66" t="n">
-        <v>1.823</v>
+        <v>1.839</v>
       </c>
       <c r="D66" t="n">
         <v>1.839</v>
@@ -2685,10 +2685,10 @@
         <v>1.823</v>
       </c>
       <c r="F66" t="n">
-        <v>1969619</v>
+        <v>1579998</v>
       </c>
       <c r="G66" t="n">
-        <v>1.839349999999998</v>
+        <v>1.839849999999998</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,7 +2708,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.839</v>
+        <v>1.823</v>
       </c>
       <c r="C67" t="n">
         <v>1.823</v>
@@ -2720,10 +2720,10 @@
         <v>1.823</v>
       </c>
       <c r="F67" t="n">
-        <v>3063140</v>
+        <v>1969619</v>
       </c>
       <c r="G67" t="n">
-        <v>1.838866666666664</v>
+        <v>1.839349999999998</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         <v>1.823</v>
       </c>
       <c r="F68" t="n">
-        <v>1313491</v>
+        <v>3063140</v>
       </c>
       <c r="G68" t="n">
-        <v>1.838383333333331</v>
+        <v>1.838866666666664</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,19 +2778,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.84</v>
+        <v>1.839</v>
       </c>
       <c r="C69" t="n">
-        <v>1.84</v>
+        <v>1.823</v>
       </c>
       <c r="D69" t="n">
-        <v>1.84</v>
+        <v>1.839</v>
       </c>
       <c r="E69" t="n">
-        <v>1.84</v>
+        <v>1.823</v>
       </c>
       <c r="F69" t="n">
-        <v>275</v>
+        <v>1313491</v>
       </c>
       <c r="G69" t="n">
         <v>1.838383333333331</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.839</v>
+        <v>1.84</v>
       </c>
       <c r="C70" t="n">
-        <v>1.839</v>
+        <v>1.84</v>
       </c>
       <c r="D70" t="n">
-        <v>1.839</v>
+        <v>1.84</v>
       </c>
       <c r="E70" t="n">
-        <v>1.839</v>
+        <v>1.84</v>
       </c>
       <c r="F70" t="n">
         <v>275</v>
       </c>
       <c r="G70" t="n">
-        <v>1.838166666666664</v>
+        <v>1.838383333333331</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.838</v>
+        <v>1.839</v>
       </c>
       <c r="C71" t="n">
-        <v>1.823</v>
+        <v>1.839</v>
       </c>
       <c r="D71" t="n">
-        <v>1.838</v>
+        <v>1.839</v>
       </c>
       <c r="E71" t="n">
-        <v>1.823</v>
+        <v>1.839</v>
       </c>
       <c r="F71" t="n">
-        <v>724176</v>
+        <v>275</v>
       </c>
       <c r="G71" t="n">
-        <v>1.838016666666664</v>
+        <v>1.838166666666664</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2895,10 +2895,10 @@
         <v>1.823</v>
       </c>
       <c r="F72" t="n">
-        <v>3046105</v>
+        <v>724176</v>
       </c>
       <c r="G72" t="n">
-        <v>1.83753333333333</v>
+        <v>1.838016666666664</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.839</v>
+        <v>1.838</v>
       </c>
       <c r="C73" t="n">
+        <v>1.823</v>
+      </c>
+      <c r="D73" t="n">
         <v>1.838</v>
       </c>
-      <c r="D73" t="n">
-        <v>1.839</v>
-      </c>
       <c r="E73" t="n">
-        <v>1.838</v>
+        <v>1.823</v>
       </c>
       <c r="F73" t="n">
-        <v>550</v>
+        <v>3046105</v>
       </c>
       <c r="G73" t="n">
-        <v>1.83763333333333</v>
+        <v>1.83753333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.838</v>
+        <v>1.839</v>
       </c>
       <c r="C74" t="n">
         <v>1.838</v>
       </c>
       <c r="D74" t="n">
+        <v>1.839</v>
+      </c>
+      <c r="E74" t="n">
         <v>1.838</v>
       </c>
-      <c r="E74" t="n">
-        <v>1.823</v>
-      </c>
       <c r="F74" t="n">
-        <v>1052811</v>
+        <v>550</v>
       </c>
       <c r="G74" t="n">
-        <v>1.837399999999997</v>
+        <v>1.83763333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,10 +2988,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.823</v>
+        <v>1.838</v>
       </c>
       <c r="C75" t="n">
-        <v>1.823</v>
+        <v>1.838</v>
       </c>
       <c r="D75" t="n">
         <v>1.838</v>
@@ -3000,10 +3000,10 @@
         <v>1.823</v>
       </c>
       <c r="F75" t="n">
-        <v>2541774</v>
+        <v>1052811</v>
       </c>
       <c r="G75" t="n">
-        <v>1.837249999999997</v>
+        <v>1.837399999999997</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.84</v>
+        <v>1.823</v>
       </c>
       <c r="C76" t="n">
-        <v>1.84</v>
+        <v>1.823</v>
       </c>
       <c r="D76" t="n">
-        <v>1.84</v>
+        <v>1.838</v>
       </c>
       <c r="E76" t="n">
-        <v>1.84</v>
+        <v>1.823</v>
       </c>
       <c r="F76" t="n">
-        <v>300</v>
+        <v>2541774</v>
       </c>
       <c r="G76" t="n">
-        <v>1.837399999999997</v>
+        <v>1.837249999999997</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.839</v>
+        <v>1.84</v>
       </c>
       <c r="C77" t="n">
-        <v>1.823</v>
+        <v>1.84</v>
       </c>
       <c r="D77" t="n">
-        <v>1.839</v>
+        <v>1.84</v>
       </c>
       <c r="E77" t="n">
-        <v>1.823</v>
+        <v>1.84</v>
       </c>
       <c r="F77" t="n">
-        <v>710214</v>
+        <v>300</v>
       </c>
       <c r="G77" t="n">
-        <v>1.837266666666663</v>
+        <v>1.837399999999997</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3105,10 +3105,10 @@
         <v>1.823</v>
       </c>
       <c r="F78" t="n">
-        <v>2909547</v>
+        <v>710214</v>
       </c>
       <c r="G78" t="n">
-        <v>1.83678333333333</v>
+        <v>1.837266666666663</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.84</v>
+        <v>1.839</v>
       </c>
       <c r="C79" t="n">
-        <v>1.84</v>
+        <v>1.823</v>
       </c>
       <c r="D79" t="n">
-        <v>1.84</v>
+        <v>1.839</v>
       </c>
       <c r="E79" t="n">
-        <v>1.84</v>
+        <v>1.823</v>
       </c>
       <c r="F79" t="n">
-        <v>275</v>
+        <v>2909547</v>
       </c>
       <c r="G79" t="n">
-        <v>1.836916666666663</v>
+        <v>1.83678333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.839</v>
+        <v>1.84</v>
       </c>
       <c r="C80" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="D80" t="n">
-        <v>1.839</v>
+        <v>1.84</v>
       </c>
       <c r="E80" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="F80" t="n">
-        <v>1600000.8047</v>
+        <v>275</v>
       </c>
       <c r="G80" t="n">
-        <v>1.836049999999997</v>
+        <v>1.836916666666663</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3201,19 +3201,19 @@
         <v>1.839</v>
       </c>
       <c r="C81" t="n">
-        <v>1.838</v>
+        <v>1.8</v>
       </c>
       <c r="D81" t="n">
         <v>1.839</v>
       </c>
       <c r="E81" t="n">
-        <v>1.838</v>
+        <v>1.8</v>
       </c>
       <c r="F81" t="n">
-        <v>550</v>
+        <v>1600000.8047</v>
       </c>
       <c r="G81" t="n">
-        <v>1.836149999999997</v>
+        <v>1.836049999999997</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3236,19 +3236,19 @@
         <v>1.839</v>
       </c>
       <c r="C82" t="n">
-        <v>1.839</v>
+        <v>1.838</v>
       </c>
       <c r="D82" t="n">
         <v>1.839</v>
       </c>
       <c r="E82" t="n">
-        <v>1.839</v>
+        <v>1.838</v>
       </c>
       <c r="F82" t="n">
-        <v>725</v>
+        <v>550</v>
       </c>
       <c r="G82" t="n">
-        <v>1.83593333333333</v>
+        <v>1.836149999999997</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.838</v>
+        <v>1.839</v>
       </c>
       <c r="C83" t="n">
-        <v>1.815</v>
+        <v>1.839</v>
       </c>
       <c r="D83" t="n">
-        <v>1.838</v>
+        <v>1.839</v>
       </c>
       <c r="E83" t="n">
-        <v>1.814</v>
+        <v>1.839</v>
       </c>
       <c r="F83" t="n">
-        <v>1346437</v>
+        <v>725</v>
       </c>
       <c r="G83" t="n">
-        <v>1.835649999999997</v>
+        <v>1.83593333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3312,13 +3312,13 @@
         <v>1.838</v>
       </c>
       <c r="E84" t="n">
-        <v>1.815</v>
+        <v>1.814</v>
       </c>
       <c r="F84" t="n">
-        <v>3125629</v>
+        <v>1346437</v>
       </c>
       <c r="G84" t="n">
-        <v>1.835016666666663</v>
+        <v>1.835649999999997</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3341,19 +3341,19 @@
         <v>1.838</v>
       </c>
       <c r="C85" t="n">
-        <v>1.838</v>
+        <v>1.815</v>
       </c>
       <c r="D85" t="n">
         <v>1.838</v>
       </c>
       <c r="E85" t="n">
-        <v>1.816</v>
+        <v>1.815</v>
       </c>
       <c r="F85" t="n">
-        <v>2467108</v>
+        <v>3125629</v>
       </c>
       <c r="G85" t="n">
-        <v>1.83478333333333</v>
+        <v>1.835016666666663</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,10 +3373,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.816</v>
+        <v>1.838</v>
       </c>
       <c r="C86" t="n">
-        <v>1.816</v>
+        <v>1.838</v>
       </c>
       <c r="D86" t="n">
         <v>1.838</v>
@@ -3385,10 +3385,10 @@
         <v>1.816</v>
       </c>
       <c r="F86" t="n">
-        <v>1133922</v>
+        <v>2467108</v>
       </c>
       <c r="G86" t="n">
-        <v>1.834166666666663</v>
+        <v>1.83478333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.839</v>
+        <v>1.816</v>
       </c>
       <c r="C87" t="n">
-        <v>1.839</v>
+        <v>1.816</v>
       </c>
       <c r="D87" t="n">
-        <v>1.839</v>
+        <v>1.838</v>
       </c>
       <c r="E87" t="n">
-        <v>1.839</v>
+        <v>1.816</v>
       </c>
       <c r="F87" t="n">
-        <v>37969.2422</v>
+        <v>1133922</v>
       </c>
       <c r="G87" t="n">
-        <v>1.833949999999997</v>
+        <v>1.834166666666663</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.838</v>
+        <v>1.839</v>
       </c>
       <c r="C88" t="n">
-        <v>1.82</v>
+        <v>1.839</v>
       </c>
       <c r="D88" t="n">
-        <v>1.838</v>
+        <v>1.839</v>
       </c>
       <c r="E88" t="n">
-        <v>1.82</v>
+        <v>1.839</v>
       </c>
       <c r="F88" t="n">
-        <v>1547018</v>
+        <v>37969.2422</v>
       </c>
       <c r="G88" t="n">
-        <v>1.833749999999996</v>
+        <v>1.833949999999997</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.819</v>
+        <v>1.838</v>
       </c>
       <c r="C89" t="n">
         <v>1.82</v>
       </c>
       <c r="D89" t="n">
-        <v>1.837</v>
+        <v>1.838</v>
       </c>
       <c r="E89" t="n">
-        <v>1.819</v>
+        <v>1.82</v>
       </c>
       <c r="F89" t="n">
-        <v>2230387.7291</v>
+        <v>1547018</v>
       </c>
       <c r="G89" t="n">
-        <v>1.833549999999996</v>
+        <v>1.833749999999996</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.838</v>
+        <v>1.819</v>
       </c>
       <c r="C90" t="n">
-        <v>1.838</v>
+        <v>1.82</v>
       </c>
       <c r="D90" t="n">
-        <v>1.838</v>
+        <v>1.837</v>
       </c>
       <c r="E90" t="n">
-        <v>1.838</v>
+        <v>1.819</v>
       </c>
       <c r="F90" t="n">
-        <v>275</v>
+        <v>2230387.7291</v>
       </c>
       <c r="G90" t="n">
-        <v>1.833299999999997</v>
+        <v>1.833549999999996</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.837</v>
+        <v>1.838</v>
       </c>
       <c r="C91" t="n">
-        <v>1.837</v>
+        <v>1.838</v>
       </c>
       <c r="D91" t="n">
-        <v>1.837</v>
+        <v>1.838</v>
       </c>
       <c r="E91" t="n">
-        <v>1.837</v>
+        <v>1.838</v>
       </c>
       <c r="F91" t="n">
         <v>275</v>
       </c>
       <c r="G91" t="n">
-        <v>1.833049999999997</v>
+        <v>1.833299999999997</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3586,19 +3586,19 @@
         <v>1.837</v>
       </c>
       <c r="C92" t="n">
-        <v>1.82</v>
+        <v>1.837</v>
       </c>
       <c r="D92" t="n">
         <v>1.837</v>
       </c>
       <c r="E92" t="n">
-        <v>1.82</v>
+        <v>1.837</v>
       </c>
       <c r="F92" t="n">
-        <v>1387116</v>
+        <v>275</v>
       </c>
       <c r="G92" t="n">
-        <v>1.83283333333333</v>
+        <v>1.833049999999997</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>1.82</v>
       </c>
       <c r="F93" t="n">
-        <v>2889239</v>
+        <v>1387116</v>
       </c>
       <c r="G93" t="n">
-        <v>1.832616666666663</v>
+        <v>1.83283333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3665,10 +3665,10 @@
         <v>1.82</v>
       </c>
       <c r="F94" t="n">
-        <v>822903</v>
+        <v>2889239</v>
       </c>
       <c r="G94" t="n">
-        <v>1.83208333333333</v>
+        <v>1.832616666666663</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3700,10 +3700,10 @@
         <v>1.82</v>
       </c>
       <c r="F95" t="n">
-        <v>3060898</v>
+        <v>822903</v>
       </c>
       <c r="G95" t="n">
-        <v>1.831816666666663</v>
+        <v>1.83208333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3726,19 +3726,19 @@
         <v>1.837</v>
       </c>
       <c r="C96" t="n">
-        <v>1.837</v>
+        <v>1.82</v>
       </c>
       <c r="D96" t="n">
         <v>1.837</v>
       </c>
       <c r="E96" t="n">
-        <v>1.837</v>
+        <v>1.82</v>
       </c>
       <c r="F96" t="n">
-        <v>275</v>
+        <v>3060898</v>
       </c>
       <c r="G96" t="n">
-        <v>1.831566666666663</v>
+        <v>1.831816666666663</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3767,13 +3767,13 @@
         <v>1.837</v>
       </c>
       <c r="E97" t="n">
-        <v>1.821</v>
+        <v>1.837</v>
       </c>
       <c r="F97" t="n">
-        <v>1675366</v>
+        <v>275</v>
       </c>
       <c r="G97" t="n">
-        <v>1.831649999999996</v>
+        <v>1.831566666666663</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.821</v>
+        <v>1.837</v>
       </c>
       <c r="C98" t="n">
-        <v>1.821</v>
+        <v>1.837</v>
       </c>
       <c r="D98" t="n">
         <v>1.837</v>
@@ -3805,10 +3805,10 @@
         <v>1.821</v>
       </c>
       <c r="F98" t="n">
-        <v>2433070</v>
+        <v>1675366</v>
       </c>
       <c r="G98" t="n">
-        <v>1.831466666666663</v>
+        <v>1.831649999999996</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.838</v>
+        <v>1.821</v>
       </c>
       <c r="C99" t="n">
-        <v>1.838</v>
+        <v>1.821</v>
       </c>
       <c r="D99" t="n">
-        <v>1.838</v>
+        <v>1.837</v>
       </c>
       <c r="E99" t="n">
-        <v>1.838</v>
+        <v>1.821</v>
       </c>
       <c r="F99" t="n">
-        <v>275</v>
+        <v>2433070</v>
       </c>
       <c r="G99" t="n">
-        <v>1.831566666666663</v>
+        <v>1.831466666666663</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.837</v>
+        <v>1.838</v>
       </c>
       <c r="C100" t="n">
-        <v>1.837</v>
+        <v>1.838</v>
       </c>
       <c r="D100" t="n">
-        <v>1.837</v>
+        <v>1.838</v>
       </c>
       <c r="E100" t="n">
-        <v>1.821</v>
+        <v>1.838</v>
       </c>
       <c r="F100" t="n">
-        <v>2992436</v>
+        <v>275</v>
       </c>
       <c r="G100" t="n">
-        <v>1.83168333333333</v>
+        <v>1.831566666666663</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,10 +3898,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.821</v>
+        <v>1.837</v>
       </c>
       <c r="C101" t="n">
-        <v>1.821</v>
+        <v>1.837</v>
       </c>
       <c r="D101" t="n">
         <v>1.837</v>
@@ -3910,10 +3910,10 @@
         <v>1.821</v>
       </c>
       <c r="F101" t="n">
-        <v>1130088</v>
+        <v>2992436</v>
       </c>
       <c r="G101" t="n">
-        <v>1.831999999999996</v>
+        <v>1.83168333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3939,16 +3939,16 @@
         <v>1.821</v>
       </c>
       <c r="D102" t="n">
-        <v>1.821</v>
+        <v>1.837</v>
       </c>
       <c r="E102" t="n">
         <v>1.821</v>
       </c>
       <c r="F102" t="n">
-        <v>5043.9305</v>
+        <v>1130088</v>
       </c>
       <c r="G102" t="n">
-        <v>1.831849999999996</v>
+        <v>1.831999999999996</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.82</v>
+        <v>1.821</v>
       </c>
       <c r="C103" t="n">
-        <v>1.82</v>
+        <v>1.821</v>
       </c>
       <c r="D103" t="n">
-        <v>1.82</v>
+        <v>1.821</v>
       </c>
       <c r="E103" t="n">
-        <v>1.82</v>
+        <v>1.821</v>
       </c>
       <c r="F103" t="n">
-        <v>10979.365</v>
+        <v>5043.9305</v>
       </c>
       <c r="G103" t="n">
-        <v>1.831499999999996</v>
+        <v>1.831849999999996</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1.838</v>
+        <v>1.82</v>
       </c>
       <c r="C104" t="n">
-        <v>1.838</v>
+        <v>1.82</v>
       </c>
       <c r="D104" t="n">
-        <v>1.838</v>
+        <v>1.82</v>
       </c>
       <c r="E104" t="n">
-        <v>1.838</v>
+        <v>1.82</v>
       </c>
       <c r="F104" t="n">
-        <v>273</v>
+        <v>10979.365</v>
       </c>
       <c r="G104" t="n">
-        <v>1.831466666666663</v>
+        <v>1.831499999999996</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.821</v>
+        <v>1.838</v>
       </c>
       <c r="C105" t="n">
-        <v>1.821</v>
+        <v>1.838</v>
       </c>
       <c r="D105" t="n">
-        <v>1.821</v>
+        <v>1.838</v>
       </c>
       <c r="E105" t="n">
-        <v>1.821</v>
+        <v>1.838</v>
       </c>
       <c r="F105" t="n">
-        <v>954.6772999999999</v>
+        <v>273</v>
       </c>
       <c r="G105" t="n">
-        <v>1.831549999999996</v>
+        <v>1.831466666666663</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.837</v>
+        <v>1.821</v>
       </c>
       <c r="C106" t="n">
-        <v>1.837</v>
+        <v>1.821</v>
       </c>
       <c r="D106" t="n">
-        <v>1.837</v>
+        <v>1.821</v>
       </c>
       <c r="E106" t="n">
-        <v>1.822</v>
+        <v>1.821</v>
       </c>
       <c r="F106" t="n">
-        <v>2353827</v>
+        <v>954.6772999999999</v>
       </c>
       <c r="G106" t="n">
-        <v>1.831799999999996</v>
+        <v>1.831549999999996</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,10 +4108,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.822</v>
+        <v>1.837</v>
       </c>
       <c r="C107" t="n">
-        <v>1.822</v>
+        <v>1.837</v>
       </c>
       <c r="D107" t="n">
         <v>1.837</v>
@@ -4120,7 +4120,7 @@
         <v>1.822</v>
       </c>
       <c r="F107" t="n">
-        <v>2066174</v>
+        <v>2353827</v>
       </c>
       <c r="G107" t="n">
         <v>1.831799999999996</v>
@@ -4143,7 +4143,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.837</v>
+        <v>1.822</v>
       </c>
       <c r="C108" t="n">
         <v>1.822</v>
@@ -4155,10 +4155,10 @@
         <v>1.822</v>
       </c>
       <c r="F108" t="n">
-        <v>2038677</v>
+        <v>2066174</v>
       </c>
       <c r="G108" t="n">
-        <v>1.831466666666663</v>
+        <v>1.831799999999996</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4181,19 +4181,19 @@
         <v>1.837</v>
       </c>
       <c r="C109" t="n">
-        <v>1.824</v>
+        <v>1.822</v>
       </c>
       <c r="D109" t="n">
-        <v>1.839</v>
+        <v>1.837</v>
       </c>
       <c r="E109" t="n">
         <v>1.822</v>
       </c>
       <c r="F109" t="n">
-        <v>1632518.4528</v>
+        <v>2038677</v>
       </c>
       <c r="G109" t="n">
-        <v>1.831183333333329</v>
+        <v>1.831466666666663</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1.839</v>
+        <v>1.837</v>
       </c>
       <c r="C110" t="n">
-        <v>1.839</v>
+        <v>1.824</v>
       </c>
       <c r="D110" t="n">
         <v>1.839</v>
       </c>
       <c r="E110" t="n">
-        <v>1.839</v>
+        <v>1.822</v>
       </c>
       <c r="F110" t="n">
-        <v>273</v>
+        <v>1632518.4528</v>
       </c>
       <c r="G110" t="n">
-        <v>1.831449999999996</v>
+        <v>1.831183333333329</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4251,19 +4251,19 @@
         <v>1.839</v>
       </c>
       <c r="C111" t="n">
-        <v>1.838</v>
+        <v>1.839</v>
       </c>
       <c r="D111" t="n">
         <v>1.839</v>
       </c>
       <c r="E111" t="n">
-        <v>1.838</v>
+        <v>1.839</v>
       </c>
       <c r="F111" t="n">
-        <v>550</v>
+        <v>273</v>
       </c>
       <c r="G111" t="n">
-        <v>1.831383333333329</v>
+        <v>1.831449999999996</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4286,19 +4286,19 @@
         <v>1.839</v>
       </c>
       <c r="C112" t="n">
-        <v>1.839</v>
+        <v>1.838</v>
       </c>
       <c r="D112" t="n">
         <v>1.839</v>
       </c>
       <c r="E112" t="n">
-        <v>1.839</v>
+        <v>1.838</v>
       </c>
       <c r="F112" t="n">
-        <v>275</v>
+        <v>550</v>
       </c>
       <c r="G112" t="n">
-        <v>1.831349999999996</v>
+        <v>1.831383333333329</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1.84</v>
+        <v>1.839</v>
       </c>
       <c r="C113" t="n">
-        <v>1.838</v>
+        <v>1.839</v>
       </c>
       <c r="D113" t="n">
-        <v>1.84</v>
+        <v>1.839</v>
       </c>
       <c r="E113" t="n">
-        <v>1.838</v>
+        <v>1.839</v>
       </c>
       <c r="F113" t="n">
-        <v>555</v>
+        <v>275</v>
       </c>
       <c r="G113" t="n">
-        <v>1.831599999999996</v>
+        <v>1.831349999999996</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1.837</v>
+        <v>1.84</v>
       </c>
       <c r="C114" t="n">
-        <v>1.837</v>
+        <v>1.838</v>
       </c>
       <c r="D114" t="n">
-        <v>1.837</v>
+        <v>1.84</v>
       </c>
       <c r="E114" t="n">
-        <v>1.837</v>
+        <v>1.838</v>
       </c>
       <c r="F114" t="n">
-        <v>443047</v>
+        <v>555</v>
       </c>
       <c r="G114" t="n">
-        <v>1.831516666666663</v>
+        <v>1.831599999999996</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4400,10 +4400,10 @@
         <v>1.837</v>
       </c>
       <c r="F115" t="n">
-        <v>155618.0835</v>
+        <v>443047</v>
       </c>
       <c r="G115" t="n">
-        <v>1.831449999999996</v>
+        <v>1.831516666666663</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,7 +4423,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1.836</v>
+        <v>1.837</v>
       </c>
       <c r="C116" t="n">
         <v>1.837</v>
@@ -4432,13 +4432,13 @@
         <v>1.837</v>
       </c>
       <c r="E116" t="n">
-        <v>1.836</v>
+        <v>1.837</v>
       </c>
       <c r="F116" t="n">
-        <v>85657.09849999999</v>
+        <v>155618.0835</v>
       </c>
       <c r="G116" t="n">
-        <v>1.831199999999996</v>
+        <v>1.831449999999996</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1.837</v>
+        <v>1.836</v>
       </c>
       <c r="C117" t="n">
         <v>1.837</v>
@@ -4467,13 +4467,13 @@
         <v>1.837</v>
       </c>
       <c r="E117" t="n">
-        <v>1.837</v>
+        <v>1.836</v>
       </c>
       <c r="F117" t="n">
-        <v>205094.8295</v>
+        <v>85657.09849999999</v>
       </c>
       <c r="G117" t="n">
-        <v>1.830966666666663</v>
+        <v>1.831199999999996</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1.836</v>
+        <v>1.837</v>
       </c>
       <c r="C118" t="n">
-        <v>1.836</v>
+        <v>1.837</v>
       </c>
       <c r="D118" t="n">
-        <v>1.836</v>
+        <v>1.837</v>
       </c>
       <c r="E118" t="n">
-        <v>1.836</v>
+        <v>1.837</v>
       </c>
       <c r="F118" t="n">
-        <v>275</v>
+        <v>205094.8295</v>
       </c>
       <c r="G118" t="n">
-        <v>1.830716666666663</v>
+        <v>1.830966666666663</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1.835</v>
+        <v>1.836</v>
       </c>
       <c r="C119" t="n">
-        <v>1.829</v>
+        <v>1.836</v>
       </c>
       <c r="D119" t="n">
-        <v>1.835</v>
+        <v>1.836</v>
       </c>
       <c r="E119" t="n">
-        <v>1.829</v>
+        <v>1.836</v>
       </c>
       <c r="F119" t="n">
-        <v>9023.372600000001</v>
+        <v>275</v>
       </c>
       <c r="G119" t="n">
-        <v>1.830349999999996</v>
+        <v>1.830716666666663</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4566,19 +4566,19 @@
         <v>1.835</v>
       </c>
       <c r="C120" t="n">
-        <v>1.835</v>
+        <v>1.829</v>
       </c>
       <c r="D120" t="n">
         <v>1.835</v>
       </c>
       <c r="E120" t="n">
-        <v>1.835</v>
+        <v>1.829</v>
       </c>
       <c r="F120" t="n">
-        <v>275</v>
+        <v>9023.372600000001</v>
       </c>
       <c r="G120" t="n">
-        <v>1.830066666666663</v>
+        <v>1.830349999999996</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1.834</v>
+        <v>1.835</v>
       </c>
       <c r="C121" t="n">
-        <v>1.834</v>
+        <v>1.835</v>
       </c>
       <c r="D121" t="n">
-        <v>1.834</v>
+        <v>1.835</v>
       </c>
       <c r="E121" t="n">
-        <v>1.834</v>
+        <v>1.835</v>
       </c>
       <c r="F121" t="n">
         <v>275</v>
       </c>
       <c r="G121" t="n">
-        <v>1.82978333333333</v>
+        <v>1.830066666666663</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1.829</v>
+        <v>1.834</v>
       </c>
       <c r="C122" t="n">
-        <v>1.829</v>
+        <v>1.834</v>
       </c>
       <c r="D122" t="n">
-        <v>1.829</v>
+        <v>1.834</v>
       </c>
       <c r="E122" t="n">
-        <v>1.829</v>
+        <v>1.834</v>
       </c>
       <c r="F122" t="n">
-        <v>184973.4246</v>
+        <v>275</v>
       </c>
       <c r="G122" t="n">
-        <v>1.829616666666663</v>
+        <v>1.82978333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1.828</v>
+        <v>1.829</v>
       </c>
       <c r="C123" t="n">
-        <v>1.828</v>
+        <v>1.829</v>
       </c>
       <c r="D123" t="n">
-        <v>1.828</v>
+        <v>1.829</v>
       </c>
       <c r="E123" t="n">
-        <v>1.828</v>
+        <v>1.829</v>
       </c>
       <c r="F123" t="n">
-        <v>5792.122538293217</v>
+        <v>184973.4246</v>
       </c>
       <c r="G123" t="n">
-        <v>1.829699999999996</v>
+        <v>1.829616666666663</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1.825</v>
+        <v>1.828</v>
       </c>
       <c r="C124" t="n">
-        <v>1.825</v>
+        <v>1.828</v>
       </c>
       <c r="D124" t="n">
-        <v>1.825</v>
+        <v>1.828</v>
       </c>
       <c r="E124" t="n">
-        <v>1.825</v>
+        <v>1.828</v>
       </c>
       <c r="F124" t="n">
-        <v>1116.0646</v>
+        <v>5792.122538293217</v>
       </c>
       <c r="G124" t="n">
-        <v>1.829449999999996</v>
+        <v>1.829699999999996</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4738,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1.824</v>
+        <v>1.825</v>
       </c>
       <c r="C125" t="n">
-        <v>1.79</v>
+        <v>1.825</v>
       </c>
       <c r="D125" t="n">
-        <v>1.824</v>
+        <v>1.825</v>
       </c>
       <c r="E125" t="n">
-        <v>1.79</v>
+        <v>1.825</v>
       </c>
       <c r="F125" t="n">
-        <v>7000000</v>
+        <v>1116.0646</v>
       </c>
       <c r="G125" t="n">
-        <v>1.82863333333333</v>
+        <v>1.829449999999996</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4776,19 +4776,19 @@
         <v>1.824</v>
       </c>
       <c r="C126" t="n">
-        <v>1.809</v>
+        <v>1.79</v>
       </c>
       <c r="D126" t="n">
         <v>1.824</v>
       </c>
       <c r="E126" t="n">
-        <v>1.791</v>
+        <v>1.79</v>
       </c>
       <c r="F126" t="n">
-        <v>773028</v>
+        <v>7000000</v>
       </c>
       <c r="G126" t="n">
-        <v>1.828399999999996</v>
+        <v>1.82863333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +4808,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1.808</v>
+        <v>1.824</v>
       </c>
       <c r="C127" t="n">
-        <v>1.808</v>
+        <v>1.809</v>
       </c>
       <c r="D127" t="n">
-        <v>1.809</v>
+        <v>1.824</v>
       </c>
       <c r="E127" t="n">
-        <v>1.79</v>
+        <v>1.791</v>
       </c>
       <c r="F127" t="n">
-        <v>3888198.7343</v>
+        <v>773028</v>
       </c>
       <c r="G127" t="n">
-        <v>1.828149999999997</v>
+        <v>1.828399999999996</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4846,19 +4846,19 @@
         <v>1.808</v>
       </c>
       <c r="C128" t="n">
-        <v>1.809</v>
+        <v>1.808</v>
       </c>
       <c r="D128" t="n">
         <v>1.809</v>
       </c>
       <c r="E128" t="n">
-        <v>1.791</v>
+        <v>1.79</v>
       </c>
       <c r="F128" t="n">
-        <v>546238</v>
+        <v>3888198.7343</v>
       </c>
       <c r="G128" t="n">
-        <v>1.827916666666664</v>
+        <v>1.828149999999997</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1.81</v>
+        <v>1.808</v>
       </c>
       <c r="C129" t="n">
-        <v>1.81</v>
+        <v>1.809</v>
       </c>
       <c r="D129" t="n">
-        <v>1.81</v>
+        <v>1.809</v>
       </c>
       <c r="E129" t="n">
-        <v>1.81</v>
+        <v>1.791</v>
       </c>
       <c r="F129" t="n">
-        <v>20538.4608</v>
+        <v>546238</v>
       </c>
       <c r="G129" t="n">
-        <v>1.827416666666664</v>
+        <v>1.827916666666664</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1.825</v>
+        <v>1.81</v>
       </c>
       <c r="C130" t="n">
-        <v>1.825</v>
+        <v>1.81</v>
       </c>
       <c r="D130" t="n">
-        <v>1.825</v>
+        <v>1.81</v>
       </c>
       <c r="E130" t="n">
-        <v>1.825</v>
+        <v>1.81</v>
       </c>
       <c r="F130" t="n">
-        <v>275</v>
+        <v>20538.4608</v>
       </c>
       <c r="G130" t="n">
-        <v>1.82718333333333</v>
+        <v>1.827416666666664</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1.824</v>
+        <v>1.825</v>
       </c>
       <c r="C131" t="n">
-        <v>1.824</v>
+        <v>1.825</v>
       </c>
       <c r="D131" t="n">
-        <v>1.824</v>
+        <v>1.825</v>
       </c>
       <c r="E131" t="n">
-        <v>1.824</v>
+        <v>1.825</v>
       </c>
       <c r="F131" t="n">
-        <v>3826012.6897</v>
+        <v>275</v>
       </c>
       <c r="G131" t="n">
-        <v>1.827199999999997</v>
+        <v>1.82718333333333</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +4983,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1.819</v>
+        <v>1.824</v>
       </c>
       <c r="C132" t="n">
-        <v>1.812</v>
+        <v>1.824</v>
       </c>
       <c r="D132" t="n">
-        <v>1.819</v>
+        <v>1.824</v>
       </c>
       <c r="E132" t="n">
-        <v>1.812</v>
+        <v>1.824</v>
       </c>
       <c r="F132" t="n">
-        <v>15025.3988</v>
+        <v>3826012.6897</v>
       </c>
       <c r="G132" t="n">
-        <v>1.827016666666664</v>
+        <v>1.827199999999997</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,22 +5018,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1.812</v>
+        <v>1.819</v>
       </c>
       <c r="C133" t="n">
         <v>1.812</v>
       </c>
       <c r="D133" t="n">
-        <v>1.812</v>
+        <v>1.819</v>
       </c>
       <c r="E133" t="n">
         <v>1.812</v>
       </c>
       <c r="F133" t="n">
-        <v>639197.8239</v>
+        <v>15025.3988</v>
       </c>
       <c r="G133" t="n">
-        <v>1.826583333333331</v>
+        <v>1.827016666666664</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5053,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1.811</v>
+        <v>1.812</v>
       </c>
       <c r="C134" t="n">
-        <v>1.822</v>
+        <v>1.812</v>
       </c>
       <c r="D134" t="n">
-        <v>1.822</v>
+        <v>1.812</v>
       </c>
       <c r="E134" t="n">
-        <v>1.811</v>
+        <v>1.812</v>
       </c>
       <c r="F134" t="n">
-        <v>12428.7996</v>
+        <v>639197.8239</v>
       </c>
       <c r="G134" t="n">
-        <v>1.826316666666664</v>
+        <v>1.826583333333331</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5091,19 +5091,19 @@
         <v>1.811</v>
       </c>
       <c r="C135" t="n">
-        <v>1.811</v>
+        <v>1.822</v>
       </c>
       <c r="D135" t="n">
-        <v>1.811</v>
+        <v>1.822</v>
       </c>
       <c r="E135" t="n">
         <v>1.811</v>
       </c>
       <c r="F135" t="n">
-        <v>5000</v>
+        <v>12428.7996</v>
       </c>
       <c r="G135" t="n">
-        <v>1.826116666666664</v>
+        <v>1.826316666666664</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5123,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1.822</v>
+        <v>1.811</v>
       </c>
       <c r="C136" t="n">
-        <v>1.822</v>
+        <v>1.811</v>
       </c>
       <c r="D136" t="n">
-        <v>1.822</v>
+        <v>1.811</v>
       </c>
       <c r="E136" t="n">
-        <v>1.822</v>
+        <v>1.811</v>
       </c>
       <c r="F136" t="n">
-        <v>280</v>
+        <v>5000</v>
       </c>
       <c r="G136" t="n">
-        <v>1.825816666666664</v>
+        <v>1.826116666666664</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,22 +5158,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1.816</v>
+        <v>1.822</v>
       </c>
       <c r="C137" t="n">
-        <v>1.812</v>
+        <v>1.822</v>
       </c>
       <c r="D137" t="n">
-        <v>1.817</v>
+        <v>1.822</v>
       </c>
       <c r="E137" t="n">
-        <v>1.812</v>
+        <v>1.822</v>
       </c>
       <c r="F137" t="n">
-        <v>118308.7033</v>
+        <v>280</v>
       </c>
       <c r="G137" t="n">
-        <v>1.825633333333331</v>
+        <v>1.825816666666664</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5193,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1.811</v>
+        <v>1.816</v>
       </c>
       <c r="C138" t="n">
-        <v>1.811</v>
+        <v>1.812</v>
       </c>
       <c r="D138" t="n">
-        <v>1.811</v>
+        <v>1.817</v>
       </c>
       <c r="E138" t="n">
-        <v>1.811</v>
+        <v>1.812</v>
       </c>
       <c r="F138" t="n">
-        <v>115755</v>
+        <v>118308.7033</v>
       </c>
       <c r="G138" t="n">
-        <v>1.825433333333331</v>
+        <v>1.825633333333331</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5231,19 +5231,19 @@
         <v>1.811</v>
       </c>
       <c r="C139" t="n">
-        <v>1.81</v>
+        <v>1.811</v>
       </c>
       <c r="D139" t="n">
         <v>1.811</v>
       </c>
       <c r="E139" t="n">
-        <v>1.81</v>
+        <v>1.811</v>
       </c>
       <c r="F139" t="n">
-        <v>235280.5089</v>
+        <v>115755</v>
       </c>
       <c r="G139" t="n">
-        <v>1.824933333333331</v>
+        <v>1.825433333333331</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1.808</v>
+        <v>1.811</v>
       </c>
       <c r="C140" t="n">
-        <v>1.808</v>
+        <v>1.81</v>
       </c>
       <c r="D140" t="n">
-        <v>1.808</v>
+        <v>1.811</v>
       </c>
       <c r="E140" t="n">
-        <v>1.808</v>
+        <v>1.81</v>
       </c>
       <c r="F140" t="n">
-        <v>40304.378</v>
+        <v>235280.5089</v>
       </c>
       <c r="G140" t="n">
-        <v>1.825066666666664</v>
+        <v>1.824933333333331</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5298,22 +5298,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1.809</v>
+        <v>1.808</v>
       </c>
       <c r="C141" t="n">
-        <v>1.809</v>
+        <v>1.808</v>
       </c>
       <c r="D141" t="n">
-        <v>1.809</v>
+        <v>1.808</v>
       </c>
       <c r="E141" t="n">
-        <v>1.809</v>
+        <v>1.808</v>
       </c>
       <c r="F141" t="n">
-        <v>33225.681</v>
+        <v>40304.378</v>
       </c>
       <c r="G141" t="n">
-        <v>1.824583333333331</v>
+        <v>1.825066666666664</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,22 +5333,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1.812</v>
+        <v>1.809</v>
       </c>
       <c r="C142" t="n">
-        <v>1.823</v>
+        <v>1.809</v>
       </c>
       <c r="D142" t="n">
-        <v>1.823</v>
+        <v>1.809</v>
       </c>
       <c r="E142" t="n">
-        <v>1.812</v>
+        <v>1.809</v>
       </c>
       <c r="F142" t="n">
-        <v>194019.2967</v>
+        <v>33225.681</v>
       </c>
       <c r="G142" t="n">
-        <v>1.824316666666664</v>
+        <v>1.824583333333331</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1.823</v>
+        <v>1.812</v>
       </c>
       <c r="C143" t="n">
         <v>1.823</v>
@@ -5377,13 +5377,13 @@
         <v>1.823</v>
       </c>
       <c r="E143" t="n">
-        <v>1.823</v>
+        <v>1.812</v>
       </c>
       <c r="F143" t="n">
-        <v>1262767.2844</v>
+        <v>194019.2967</v>
       </c>
       <c r="G143" t="n">
-        <v>1.824449999999998</v>
+        <v>1.824316666666664</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,22 +5403,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1.824</v>
+        <v>1.823</v>
       </c>
       <c r="C144" t="n">
-        <v>1.824</v>
+        <v>1.823</v>
       </c>
       <c r="D144" t="n">
-        <v>1.824</v>
+        <v>1.823</v>
       </c>
       <c r="E144" t="n">
-        <v>1.824</v>
+        <v>1.823</v>
       </c>
       <c r="F144" t="n">
-        <v>1273695.5527</v>
+        <v>1262767.2844</v>
       </c>
       <c r="G144" t="n">
-        <v>1.824599999999998</v>
+        <v>1.824449999999998</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5450,10 +5450,10 @@
         <v>1.824</v>
       </c>
       <c r="F145" t="n">
-        <v>280</v>
+        <v>1273695.5527</v>
       </c>
       <c r="G145" t="n">
-        <v>1.824366666666664</v>
+        <v>1.824599999999998</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5485,10 +5485,10 @@
         <v>1.824</v>
       </c>
       <c r="F146" t="n">
-        <v>268971.956</v>
+        <v>280</v>
       </c>
       <c r="G146" t="n">
-        <v>1.824499999999998</v>
+        <v>1.824366666666664</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5508,22 +5508,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1.825</v>
+        <v>1.824</v>
       </c>
       <c r="C147" t="n">
-        <v>1.825</v>
+        <v>1.824</v>
       </c>
       <c r="D147" t="n">
-        <v>1.825</v>
+        <v>1.824</v>
       </c>
       <c r="E147" t="n">
-        <v>1.825</v>
+        <v>1.824</v>
       </c>
       <c r="F147" t="n">
-        <v>280</v>
+        <v>268971.956</v>
       </c>
       <c r="G147" t="n">
-        <v>1.824266666666664</v>
+        <v>1.824499999999998</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5543,22 +5543,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1.824</v>
+        <v>1.825</v>
       </c>
       <c r="C148" t="n">
-        <v>1.783</v>
+        <v>1.825</v>
       </c>
       <c r="D148" t="n">
         <v>1.825</v>
       </c>
       <c r="E148" t="n">
-        <v>1.782</v>
+        <v>1.825</v>
       </c>
       <c r="F148" t="n">
-        <v>927207.956</v>
+        <v>280</v>
       </c>
       <c r="G148" t="n">
-        <v>1.823649999999998</v>
+        <v>1.824266666666664</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5584,16 +5584,16 @@
         <v>1.783</v>
       </c>
       <c r="D149" t="n">
-        <v>1.824</v>
+        <v>1.825</v>
       </c>
       <c r="E149" t="n">
-        <v>1.783</v>
+        <v>1.782</v>
       </c>
       <c r="F149" t="n">
-        <v>2753443</v>
+        <v>927207.956</v>
       </c>
       <c r="G149" t="n">
-        <v>1.823033333333331</v>
+        <v>1.823649999999998</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5616,19 +5616,19 @@
         <v>1.824</v>
       </c>
       <c r="C150" t="n">
-        <v>1.823</v>
+        <v>1.783</v>
       </c>
       <c r="D150" t="n">
         <v>1.824</v>
       </c>
       <c r="E150" t="n">
-        <v>1.823</v>
+        <v>1.783</v>
       </c>
       <c r="F150" t="n">
-        <v>550</v>
+        <v>2753443</v>
       </c>
       <c r="G150" t="n">
-        <v>1.822783333333331</v>
+        <v>1.823033333333331</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5651,19 +5651,19 @@
         <v>1.824</v>
       </c>
       <c r="C151" t="n">
-        <v>1.824</v>
+        <v>1.823</v>
       </c>
       <c r="D151" t="n">
         <v>1.824</v>
       </c>
       <c r="E151" t="n">
-        <v>1.824</v>
+        <v>1.823</v>
       </c>
       <c r="F151" t="n">
-        <v>280</v>
+        <v>550</v>
       </c>
       <c r="G151" t="n">
-        <v>1.822566666666664</v>
+        <v>1.822783333333331</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5686,19 +5686,19 @@
         <v>1.824</v>
       </c>
       <c r="C152" t="n">
-        <v>1.825</v>
+        <v>1.824</v>
       </c>
       <c r="D152" t="n">
-        <v>1.825</v>
+        <v>1.824</v>
       </c>
       <c r="E152" t="n">
         <v>1.824</v>
       </c>
       <c r="F152" t="n">
-        <v>8771.750684931507</v>
+        <v>280</v>
       </c>
       <c r="G152" t="n">
-        <v>1.822649999999998</v>
+        <v>1.822566666666664</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5721,19 +5721,19 @@
         <v>1.824</v>
       </c>
       <c r="C153" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="E153" t="n">
         <v>1.824</v>
       </c>
-      <c r="D153" t="n">
-        <v>1.824</v>
-      </c>
-      <c r="E153" t="n">
-        <v>1.804</v>
-      </c>
       <c r="F153" t="n">
-        <v>2537866</v>
+        <v>8771.750684931507</v>
       </c>
       <c r="G153" t="n">
-        <v>1.822716666666665</v>
+        <v>1.822649999999998</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5753,10 +5753,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1.805</v>
+        <v>1.824</v>
       </c>
       <c r="C154" t="n">
-        <v>1.823</v>
+        <v>1.824</v>
       </c>
       <c r="D154" t="n">
         <v>1.824</v>
@@ -5765,10 +5765,10 @@
         <v>1.804</v>
       </c>
       <c r="F154" t="n">
-        <v>1157929</v>
+        <v>2537866</v>
       </c>
       <c r="G154" t="n">
-        <v>1.822766666666665</v>
+        <v>1.822716666666665</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5788,22 +5788,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1.824</v>
+        <v>1.805</v>
       </c>
       <c r="C155" t="n">
-        <v>1.824</v>
+        <v>1.823</v>
       </c>
       <c r="D155" t="n">
         <v>1.824</v>
       </c>
       <c r="E155" t="n">
-        <v>1.824</v>
+        <v>1.804</v>
       </c>
       <c r="F155" t="n">
-        <v>280</v>
+        <v>1157929</v>
       </c>
       <c r="G155" t="n">
-        <v>1.822833333333332</v>
+        <v>1.822766666666665</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5826,19 +5826,19 @@
         <v>1.824</v>
       </c>
       <c r="C156" t="n">
-        <v>1.804</v>
+        <v>1.824</v>
       </c>
       <c r="D156" t="n">
         <v>1.824</v>
       </c>
       <c r="E156" t="n">
-        <v>1.804</v>
+        <v>1.824</v>
       </c>
       <c r="F156" t="n">
-        <v>674333</v>
+        <v>280</v>
       </c>
       <c r="G156" t="n">
-        <v>1.822283333333331</v>
+        <v>1.822833333333332</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5870,10 +5870,10 @@
         <v>1.804</v>
       </c>
       <c r="F157" t="n">
-        <v>2936164</v>
+        <v>674333</v>
       </c>
       <c r="G157" t="n">
-        <v>1.821733333333331</v>
+        <v>1.822283333333331</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5896,19 +5896,19 @@
         <v>1.824</v>
       </c>
       <c r="C158" t="n">
-        <v>1.823</v>
+        <v>1.804</v>
       </c>
       <c r="D158" t="n">
         <v>1.824</v>
       </c>
       <c r="E158" t="n">
-        <v>1.823</v>
+        <v>1.804</v>
       </c>
       <c r="F158" t="n">
-        <v>550</v>
+        <v>2936164</v>
       </c>
       <c r="G158" t="n">
-        <v>1.821766666666665</v>
+        <v>1.821733333333331</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5931,19 +5931,19 @@
         <v>1.824</v>
       </c>
       <c r="C159" t="n">
-        <v>1.804</v>
+        <v>1.823</v>
       </c>
       <c r="D159" t="n">
         <v>1.824</v>
       </c>
       <c r="E159" t="n">
-        <v>1.804</v>
+        <v>1.823</v>
       </c>
       <c r="F159" t="n">
-        <v>1530399.004</v>
+        <v>550</v>
       </c>
       <c r="G159" t="n">
-        <v>1.821199999999998</v>
+        <v>1.821766666666665</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +5963,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1.823</v>
+        <v>1.824</v>
       </c>
       <c r="C160" t="n">
         <v>1.804</v>
       </c>
       <c r="D160" t="n">
-        <v>1.823</v>
+        <v>1.824</v>
       </c>
       <c r="E160" t="n">
         <v>1.804</v>
       </c>
       <c r="F160" t="n">
-        <v>2257592</v>
+        <v>1530399.004</v>
       </c>
       <c r="G160" t="n">
-        <v>1.820649999999998</v>
+        <v>1.821199999999998</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5998,22 +5998,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>1.824</v>
+        <v>1.823</v>
       </c>
       <c r="C161" t="n">
-        <v>1.824</v>
+        <v>1.804</v>
       </c>
       <c r="D161" t="n">
-        <v>1.824</v>
+        <v>1.823</v>
       </c>
       <c r="E161" t="n">
-        <v>1.824</v>
+        <v>1.804</v>
       </c>
       <c r="F161" t="n">
-        <v>275</v>
+        <v>2257592</v>
       </c>
       <c r="G161" t="n">
-        <v>1.820699999999998</v>
+        <v>1.820649999999998</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6045,10 +6045,10 @@
         <v>1.824</v>
       </c>
       <c r="F162" t="n">
-        <v>54824.4192</v>
+        <v>275</v>
       </c>
       <c r="G162" t="n">
-        <v>1.820749999999998</v>
+        <v>1.820699999999998</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6068,22 +6068,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>1.823</v>
+        <v>1.824</v>
       </c>
       <c r="C163" t="n">
-        <v>1.804</v>
+        <v>1.824</v>
       </c>
       <c r="D163" t="n">
-        <v>1.823</v>
+        <v>1.824</v>
       </c>
       <c r="E163" t="n">
-        <v>1.804</v>
+        <v>1.824</v>
       </c>
       <c r="F163" t="n">
-        <v>2567890</v>
+        <v>54824.4192</v>
       </c>
       <c r="G163" t="n">
-        <v>1.820483333333332</v>
+        <v>1.820749999999998</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6103,7 +6103,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>1.804</v>
+        <v>1.823</v>
       </c>
       <c r="C164" t="n">
         <v>1.804</v>
@@ -6115,10 +6115,10 @@
         <v>1.804</v>
       </c>
       <c r="F164" t="n">
-        <v>998629</v>
+        <v>2567890</v>
       </c>
       <c r="G164" t="n">
-        <v>1.819916666666665</v>
+        <v>1.820483333333332</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6138,22 +6138,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>1.824</v>
+        <v>1.804</v>
       </c>
       <c r="C165" t="n">
-        <v>1.824</v>
+        <v>1.804</v>
       </c>
       <c r="D165" t="n">
-        <v>1.824</v>
+        <v>1.823</v>
       </c>
       <c r="E165" t="n">
-        <v>1.824</v>
+        <v>1.804</v>
       </c>
       <c r="F165" t="n">
-        <v>275</v>
+        <v>998629</v>
       </c>
       <c r="G165" t="n">
-        <v>1.819966666666665</v>
+        <v>1.819916666666665</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6173,22 +6173,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>1.823</v>
+        <v>1.824</v>
       </c>
       <c r="C166" t="n">
-        <v>1.823</v>
+        <v>1.824</v>
       </c>
       <c r="D166" t="n">
-        <v>1.823</v>
+        <v>1.824</v>
       </c>
       <c r="E166" t="n">
-        <v>1.823</v>
+        <v>1.824</v>
       </c>
       <c r="F166" t="n">
         <v>275</v>
       </c>
       <c r="G166" t="n">
-        <v>1.819733333333332</v>
+        <v>1.819966666666665</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6211,16 +6211,16 @@
         <v>1.823</v>
       </c>
       <c r="C167" t="n">
-        <v>1.822</v>
+        <v>1.823</v>
       </c>
       <c r="D167" t="n">
         <v>1.823</v>
       </c>
       <c r="E167" t="n">
-        <v>1.804</v>
+        <v>1.823</v>
       </c>
       <c r="F167" t="n">
-        <v>669399</v>
+        <v>275</v>
       </c>
       <c r="G167" t="n">
         <v>1.819733333333332</v>
@@ -6243,22 +6243,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
+        <v>1.823</v>
+      </c>
+      <c r="C168" t="n">
         <v>1.822</v>
       </c>
-      <c r="C168" t="n">
-        <v>1.804</v>
-      </c>
       <c r="D168" t="n">
-        <v>1.822</v>
+        <v>1.823</v>
       </c>
       <c r="E168" t="n">
         <v>1.804</v>
       </c>
       <c r="F168" t="n">
-        <v>2780055</v>
+        <v>669399</v>
       </c>
       <c r="G168" t="n">
-        <v>1.819433333333332</v>
+        <v>1.819733333333332</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6278,22 +6278,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>1.823</v>
+        <v>1.822</v>
       </c>
       <c r="C169" t="n">
-        <v>1.823</v>
+        <v>1.804</v>
       </c>
       <c r="D169" t="n">
-        <v>1.823</v>
+        <v>1.822</v>
       </c>
       <c r="E169" t="n">
-        <v>1.823</v>
+        <v>1.804</v>
       </c>
       <c r="F169" t="n">
-        <v>275</v>
+        <v>2780055</v>
       </c>
       <c r="G169" t="n">
-        <v>1.819416666666665</v>
+        <v>1.819433333333332</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6313,22 +6313,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>1.822</v>
+        <v>1.823</v>
       </c>
       <c r="C170" t="n">
-        <v>1.822</v>
+        <v>1.823</v>
       </c>
       <c r="D170" t="n">
-        <v>1.822</v>
+        <v>1.823</v>
       </c>
       <c r="E170" t="n">
-        <v>1.805</v>
+        <v>1.823</v>
       </c>
       <c r="F170" t="n">
-        <v>1963579</v>
+        <v>275</v>
       </c>
       <c r="G170" t="n">
-        <v>1.819133333333332</v>
+        <v>1.819416666666665</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6351,7 +6351,7 @@
         <v>1.822</v>
       </c>
       <c r="C171" t="n">
-        <v>1.805</v>
+        <v>1.822</v>
       </c>
       <c r="D171" t="n">
         <v>1.822</v>
@@ -6360,10 +6360,10 @@
         <v>1.805</v>
       </c>
       <c r="F171" t="n">
-        <v>2343156</v>
+        <v>1963579</v>
       </c>
       <c r="G171" t="n">
-        <v>1.818583333333332</v>
+        <v>1.819133333333332</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6383,22 +6383,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>1.823</v>
+        <v>1.822</v>
       </c>
       <c r="C172" t="n">
-        <v>1.823</v>
+        <v>1.805</v>
       </c>
       <c r="D172" t="n">
-        <v>1.823</v>
+        <v>1.822</v>
       </c>
       <c r="E172" t="n">
-        <v>1.823</v>
+        <v>1.805</v>
       </c>
       <c r="F172" t="n">
-        <v>275</v>
+        <v>2343156</v>
       </c>
       <c r="G172" t="n">
-        <v>1.818316666666665</v>
+        <v>1.818583333333332</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6430,10 +6430,10 @@
         <v>1.823</v>
       </c>
       <c r="F173" t="n">
-        <v>79097.9886</v>
+        <v>275</v>
       </c>
       <c r="G173" t="n">
-        <v>1.818066666666665</v>
+        <v>1.818316666666665</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6465,10 +6465,10 @@
         <v>1.823</v>
       </c>
       <c r="F174" t="n">
-        <v>30000</v>
+        <v>79097.9886</v>
       </c>
       <c r="G174" t="n">
-        <v>1.817833333333332</v>
+        <v>1.818066666666665</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6491,19 +6491,19 @@
         <v>1.823</v>
       </c>
       <c r="C175" t="n">
-        <v>1.805</v>
+        <v>1.823</v>
       </c>
       <c r="D175" t="n">
         <v>1.823</v>
       </c>
       <c r="E175" t="n">
-        <v>1.805</v>
+        <v>1.823</v>
       </c>
       <c r="F175" t="n">
-        <v>3121559.5101</v>
+        <v>30000</v>
       </c>
       <c r="G175" t="n">
-        <v>1.817299999999998</v>
+        <v>1.817833333333332</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6523,22 +6523,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>1.822</v>
+        <v>1.823</v>
       </c>
       <c r="C176" t="n">
         <v>1.805</v>
       </c>
       <c r="D176" t="n">
-        <v>1.822</v>
+        <v>1.823</v>
       </c>
       <c r="E176" t="n">
         <v>1.805</v>
       </c>
       <c r="F176" t="n">
-        <v>749284</v>
+        <v>3121559.5101</v>
       </c>
       <c r="G176" t="n">
-        <v>1.816766666666665</v>
+        <v>1.817299999999998</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6558,22 +6558,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>1.823</v>
+        <v>1.822</v>
       </c>
       <c r="C177" t="n">
-        <v>1.823</v>
+        <v>1.805</v>
       </c>
       <c r="D177" t="n">
-        <v>1.823</v>
+        <v>1.822</v>
       </c>
       <c r="E177" t="n">
-        <v>1.823</v>
+        <v>1.805</v>
       </c>
       <c r="F177" t="n">
-        <v>275</v>
+        <v>749284</v>
       </c>
       <c r="G177" t="n">
-        <v>1.816533333333332</v>
+        <v>1.816766666666665</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6593,22 +6593,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>1.822</v>
+        <v>1.823</v>
       </c>
       <c r="C178" t="n">
-        <v>1.805</v>
+        <v>1.823</v>
       </c>
       <c r="D178" t="n">
         <v>1.823</v>
       </c>
       <c r="E178" t="n">
-        <v>1.805</v>
+        <v>1.823</v>
       </c>
       <c r="F178" t="n">
-        <v>3133611</v>
+        <v>275</v>
       </c>
       <c r="G178" t="n">
-        <v>1.816016666666665</v>
+        <v>1.816533333333332</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6631,7 +6631,7 @@
         <v>1.822</v>
       </c>
       <c r="C179" t="n">
-        <v>1.823</v>
+        <v>1.805</v>
       </c>
       <c r="D179" t="n">
         <v>1.823</v>
@@ -6640,10 +6640,10 @@
         <v>1.805</v>
       </c>
       <c r="F179" t="n">
-        <v>630009</v>
+        <v>3133611</v>
       </c>
       <c r="G179" t="n">
-        <v>1.815916666666665</v>
+        <v>1.816016666666665</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6666,19 +6666,19 @@
         <v>1.822</v>
       </c>
       <c r="C180" t="n">
-        <v>1.822</v>
+        <v>1.823</v>
       </c>
       <c r="D180" t="n">
-        <v>1.822</v>
+        <v>1.823</v>
       </c>
       <c r="E180" t="n">
-        <v>1.822</v>
+        <v>1.805</v>
       </c>
       <c r="F180" t="n">
-        <v>275</v>
+        <v>630009</v>
       </c>
       <c r="G180" t="n">
-        <v>1.815699999999999</v>
+        <v>1.815916666666665</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6698,22 +6698,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>1.823</v>
+        <v>1.822</v>
       </c>
       <c r="C181" t="n">
-        <v>1.823</v>
+        <v>1.822</v>
       </c>
       <c r="D181" t="n">
-        <v>1.823</v>
+        <v>1.822</v>
       </c>
       <c r="E181" t="n">
-        <v>1.823</v>
+        <v>1.822</v>
       </c>
       <c r="F181" t="n">
-        <v>1125</v>
+        <v>275</v>
       </c>
       <c r="G181" t="n">
-        <v>1.815516666666665</v>
+        <v>1.815699999999999</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6745,10 +6745,10 @@
         <v>1.823</v>
       </c>
       <c r="F182" t="n">
-        <v>2550</v>
+        <v>1125</v>
       </c>
       <c r="G182" t="n">
-        <v>1.815416666666665</v>
+        <v>1.815516666666665</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6780,10 +6780,10 @@
         <v>1.823</v>
       </c>
       <c r="F183" t="n">
-        <v>1950</v>
+        <v>2550</v>
       </c>
       <c r="G183" t="n">
-        <v>1.815333333333331</v>
+        <v>1.815416666666665</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6815,10 +6815,10 @@
         <v>1.823</v>
       </c>
       <c r="F184" t="n">
-        <v>1708</v>
+        <v>1950</v>
       </c>
       <c r="G184" t="n">
-        <v>1.815299999999998</v>
+        <v>1.815333333333331</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6850,10 +6850,10 @@
         <v>1.823</v>
       </c>
       <c r="F185" t="n">
-        <v>6000</v>
+        <v>1708</v>
       </c>
       <c r="G185" t="n">
-        <v>1.815849999999998</v>
+        <v>1.815299999999998</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6876,19 +6876,19 @@
         <v>1.823</v>
       </c>
       <c r="C186" t="n">
-        <v>1.806</v>
+        <v>1.823</v>
       </c>
       <c r="D186" t="n">
         <v>1.823</v>
       </c>
       <c r="E186" t="n">
-        <v>1.806</v>
+        <v>1.823</v>
       </c>
       <c r="F186" t="n">
-        <v>1518448</v>
+        <v>6000</v>
       </c>
       <c r="G186" t="n">
-        <v>1.815799999999998</v>
+        <v>1.815849999999998</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6908,22 +6908,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>1.822</v>
+        <v>1.823</v>
       </c>
       <c r="C187" t="n">
         <v>1.806</v>
       </c>
       <c r="D187" t="n">
-        <v>1.822</v>
+        <v>1.823</v>
       </c>
       <c r="E187" t="n">
         <v>1.806</v>
       </c>
       <c r="F187" t="n">
-        <v>2060170</v>
+        <v>1518448</v>
       </c>
       <c r="G187" t="n">
-        <v>1.815766666666664</v>
+        <v>1.815799999999998</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6943,22 +6943,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>1.823</v>
+        <v>1.822</v>
       </c>
       <c r="C188" t="n">
-        <v>1.823</v>
+        <v>1.806</v>
       </c>
       <c r="D188" t="n">
-        <v>1.823</v>
+        <v>1.822</v>
       </c>
       <c r="E188" t="n">
-        <v>1.823</v>
+        <v>1.806</v>
       </c>
       <c r="F188" t="n">
-        <v>1100</v>
+        <v>2060170</v>
       </c>
       <c r="G188" t="n">
-        <v>1.815999999999998</v>
+        <v>1.815766666666664</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6990,10 +6990,10 @@
         <v>1.823</v>
       </c>
       <c r="F189" t="n">
-        <v>3575</v>
+        <v>1100</v>
       </c>
       <c r="G189" t="n">
-        <v>1.816216666666664</v>
+        <v>1.815999999999998</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7025,10 +7025,10 @@
         <v>1.823</v>
       </c>
       <c r="F190" t="n">
-        <v>2200</v>
+        <v>3575</v>
       </c>
       <c r="G190" t="n">
-        <v>1.816183333333331</v>
+        <v>1.816216666666664</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7060,10 +7060,10 @@
         <v>1.823</v>
       </c>
       <c r="F191" t="n">
-        <v>275</v>
+        <v>2200</v>
       </c>
       <c r="G191" t="n">
-        <v>1.816166666666664</v>
+        <v>1.816183333333331</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7083,22 +7083,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>1.822</v>
+        <v>1.823</v>
       </c>
       <c r="C192" t="n">
-        <v>1.806</v>
+        <v>1.823</v>
       </c>
       <c r="D192" t="n">
-        <v>1.822</v>
+        <v>1.823</v>
       </c>
       <c r="E192" t="n">
-        <v>1.806</v>
+        <v>1.823</v>
       </c>
       <c r="F192" t="n">
-        <v>1366847</v>
+        <v>275</v>
       </c>
       <c r="G192" t="n">
-        <v>1.816066666666664</v>
+        <v>1.816166666666664</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7130,10 +7130,10 @@
         <v>1.806</v>
       </c>
       <c r="F193" t="n">
-        <v>3197047</v>
+        <v>1366847</v>
       </c>
       <c r="G193" t="n">
-        <v>1.815966666666664</v>
+        <v>1.816066666666664</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7153,22 +7153,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>1.823</v>
+        <v>1.822</v>
       </c>
       <c r="C194" t="n">
-        <v>1.823</v>
+        <v>1.806</v>
       </c>
       <c r="D194" t="n">
-        <v>1.823</v>
+        <v>1.822</v>
       </c>
       <c r="E194" t="n">
-        <v>1.823</v>
+        <v>1.806</v>
       </c>
       <c r="F194" t="n">
-        <v>280</v>
+        <v>3197047</v>
       </c>
       <c r="G194" t="n">
-        <v>1.81598333333333</v>
+        <v>1.815966666666664</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>1.822</v>
+        <v>1.823</v>
       </c>
       <c r="C195" t="n">
-        <v>1.822</v>
+        <v>1.823</v>
       </c>
       <c r="D195" t="n">
-        <v>1.822</v>
+        <v>1.823</v>
       </c>
       <c r="E195" t="n">
-        <v>1.822</v>
+        <v>1.823</v>
       </c>
       <c r="F195" t="n">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="G195" t="n">
-        <v>1.816166666666664</v>
+        <v>1.81598333333333</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7226,19 +7226,19 @@
         <v>1.822</v>
       </c>
       <c r="C196" t="n">
-        <v>1.806</v>
+        <v>1.822</v>
       </c>
       <c r="D196" t="n">
         <v>1.822</v>
       </c>
       <c r="E196" t="n">
-        <v>1.806</v>
+        <v>1.822</v>
       </c>
       <c r="F196" t="n">
-        <v>1391827</v>
+        <v>275</v>
       </c>
       <c r="G196" t="n">
-        <v>1.815899999999997</v>
+        <v>1.816166666666664</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7270,10 +7270,10 @@
         <v>1.806</v>
       </c>
       <c r="F197" t="n">
-        <v>1962215</v>
+        <v>1391827</v>
       </c>
       <c r="G197" t="n">
-        <v>1.815799999999997</v>
+        <v>1.815899999999997</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7296,19 +7296,19 @@
         <v>1.822</v>
       </c>
       <c r="C198" t="n">
-        <v>1.822</v>
+        <v>1.806</v>
       </c>
       <c r="D198" t="n">
         <v>1.822</v>
       </c>
       <c r="E198" t="n">
-        <v>1.822</v>
+        <v>1.806</v>
       </c>
       <c r="F198" t="n">
-        <v>275</v>
+        <v>1962215</v>
       </c>
       <c r="G198" t="n">
-        <v>1.815983333333331</v>
+        <v>1.815799999999997</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7328,22 +7328,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>1.821</v>
+        <v>1.822</v>
       </c>
       <c r="C199" t="n">
-        <v>1.821</v>
+        <v>1.822</v>
       </c>
       <c r="D199" t="n">
-        <v>1.821</v>
+        <v>1.822</v>
       </c>
       <c r="E199" t="n">
-        <v>1.821</v>
+        <v>1.822</v>
       </c>
       <c r="F199" t="n">
         <v>275</v>
       </c>
       <c r="G199" t="n">
-        <v>1.816166666666664</v>
+        <v>1.815983333333331</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7363,22 +7363,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>1.822</v>
+        <v>1.821</v>
       </c>
       <c r="C200" t="n">
-        <v>1.806</v>
+        <v>1.821</v>
       </c>
       <c r="D200" t="n">
-        <v>1.822</v>
+        <v>1.821</v>
       </c>
       <c r="E200" t="n">
-        <v>1.806</v>
+        <v>1.821</v>
       </c>
       <c r="F200" t="n">
-        <v>1453510</v>
+        <v>275</v>
       </c>
       <c r="G200" t="n">
-        <v>1.81613333333333</v>
+        <v>1.816166666666664</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7410,10 +7410,10 @@
         <v>1.806</v>
       </c>
       <c r="F201" t="n">
-        <v>2325490</v>
+        <v>1453510</v>
       </c>
       <c r="G201" t="n">
-        <v>1.81608333333333</v>
+        <v>1.81613333333333</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7433,22 +7433,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>1.805</v>
+        <v>1.822</v>
       </c>
       <c r="C202" t="n">
-        <v>1.805</v>
+        <v>1.806</v>
       </c>
       <c r="D202" t="n">
-        <v>1.805</v>
+        <v>1.822</v>
       </c>
       <c r="E202" t="n">
-        <v>1.805</v>
+        <v>1.806</v>
       </c>
       <c r="F202" t="n">
-        <v>7840.8435</v>
+        <v>2325490</v>
       </c>
       <c r="G202" t="n">
-        <v>1.815783333333331</v>
+        <v>1.81608333333333</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7468,22 +7468,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>1.822</v>
+        <v>1.805</v>
       </c>
       <c r="C203" t="n">
-        <v>1.822</v>
+        <v>1.805</v>
       </c>
       <c r="D203" t="n">
-        <v>1.822</v>
+        <v>1.805</v>
       </c>
       <c r="E203" t="n">
-        <v>1.822</v>
+        <v>1.805</v>
       </c>
       <c r="F203" t="n">
-        <v>554.0167</v>
+        <v>7840.8435</v>
       </c>
       <c r="G203" t="n">
-        <v>1.815766666666664</v>
+        <v>1.815783333333331</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7503,22 +7503,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>1.821</v>
+        <v>1.822</v>
       </c>
       <c r="C204" t="n">
-        <v>1.806</v>
+        <v>1.822</v>
       </c>
       <c r="D204" t="n">
-        <v>1.821</v>
+        <v>1.822</v>
       </c>
       <c r="E204" t="n">
-        <v>1.806</v>
+        <v>1.822</v>
       </c>
       <c r="F204" t="n">
-        <v>2364886</v>
+        <v>554.0167</v>
       </c>
       <c r="G204" t="n">
-        <v>1.815466666666664</v>
+        <v>1.815766666666664</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7550,10 +7550,10 @@
         <v>1.806</v>
       </c>
       <c r="F205" t="n">
-        <v>1487606</v>
+        <v>2364886</v>
       </c>
       <c r="G205" t="n">
-        <v>1.815166666666664</v>
+        <v>1.815466666666664</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7573,22 +7573,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>1.822</v>
+        <v>1.821</v>
       </c>
       <c r="C206" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="D206" t="n">
         <v>1.821</v>
       </c>
-      <c r="D206" t="n">
-        <v>1.822</v>
-      </c>
       <c r="E206" t="n">
-        <v>1.821</v>
+        <v>1.806</v>
       </c>
       <c r="F206" t="n">
-        <v>550</v>
+        <v>1487606</v>
       </c>
       <c r="G206" t="n">
-        <v>1.815116666666664</v>
+        <v>1.815166666666664</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7608,22 +7608,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>1.805</v>
+        <v>1.822</v>
       </c>
       <c r="C207" t="n">
-        <v>1.805</v>
+        <v>1.821</v>
       </c>
       <c r="D207" t="n">
-        <v>1.805</v>
+        <v>1.822</v>
       </c>
       <c r="E207" t="n">
-        <v>1.805</v>
+        <v>1.821</v>
       </c>
       <c r="F207" t="n">
-        <v>559586.6082</v>
+        <v>550</v>
       </c>
       <c r="G207" t="n">
-        <v>1.814783333333331</v>
+        <v>1.815116666666664</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7643,22 +7643,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>1.822</v>
+        <v>1.805</v>
       </c>
       <c r="C208" t="n">
-        <v>1.822</v>
+        <v>1.805</v>
       </c>
       <c r="D208" t="n">
-        <v>1.822</v>
+        <v>1.805</v>
       </c>
       <c r="E208" t="n">
-        <v>1.822</v>
+        <v>1.805</v>
       </c>
       <c r="F208" t="n">
-        <v>280</v>
+        <v>559586.6082</v>
       </c>
       <c r="G208" t="n">
-        <v>1.815433333333331</v>
+        <v>1.814783333333331</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7678,22 +7678,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>1.821</v>
+        <v>1.822</v>
       </c>
       <c r="C209" t="n">
-        <v>1.821</v>
+        <v>1.822</v>
       </c>
       <c r="D209" t="n">
-        <v>1.821</v>
+        <v>1.822</v>
       </c>
       <c r="E209" t="n">
-        <v>1.821</v>
+        <v>1.822</v>
       </c>
       <c r="F209" t="n">
-        <v>211211</v>
+        <v>280</v>
       </c>
       <c r="G209" t="n">
-        <v>1.816066666666664</v>
+        <v>1.815433333333331</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7713,22 +7713,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>1.806</v>
+        <v>1.821</v>
       </c>
       <c r="C210" t="n">
-        <v>1.806</v>
+        <v>1.821</v>
       </c>
       <c r="D210" t="n">
         <v>1.821</v>
       </c>
       <c r="E210" t="n">
-        <v>1.806</v>
+        <v>1.821</v>
       </c>
       <c r="F210" t="n">
-        <v>3170962.5323</v>
+        <v>211211</v>
       </c>
       <c r="G210" t="n">
-        <v>1.815783333333331</v>
+        <v>1.816066666666664</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7754,16 +7754,16 @@
         <v>1.806</v>
       </c>
       <c r="D211" t="n">
-        <v>1.806</v>
+        <v>1.821</v>
       </c>
       <c r="E211" t="n">
         <v>1.806</v>
       </c>
       <c r="F211" t="n">
-        <v>282647.4677</v>
+        <v>3170962.5323</v>
       </c>
       <c r="G211" t="n">
-        <v>1.815483333333331</v>
+        <v>1.815783333333331</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7795,10 +7795,10 @@
         <v>1.806</v>
       </c>
       <c r="F212" t="n">
-        <v>1418.3422</v>
+        <v>282647.4677</v>
       </c>
       <c r="G212" t="n">
-        <v>1.815166666666664</v>
+        <v>1.815483333333331</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7818,22 +7818,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>1.805</v>
+        <v>1.806</v>
       </c>
       <c r="C213" t="n">
-        <v>1.8</v>
+        <v>1.806</v>
       </c>
       <c r="D213" t="n">
-        <v>1.805</v>
+        <v>1.806</v>
       </c>
       <c r="E213" t="n">
-        <v>1.8</v>
+        <v>1.806</v>
       </c>
       <c r="F213" t="n">
-        <v>919466.1985000001</v>
+        <v>1418.3422</v>
       </c>
       <c r="G213" t="n">
-        <v>1.814766666666664</v>
+        <v>1.815166666666664</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7853,22 +7853,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>1.8</v>
+        <v>1.805</v>
       </c>
       <c r="C214" t="n">
         <v>1.8</v>
       </c>
       <c r="D214" t="n">
-        <v>1.8</v>
+        <v>1.805</v>
       </c>
       <c r="E214" t="n">
         <v>1.8</v>
       </c>
       <c r="F214" t="n">
-        <v>34491.1361</v>
+        <v>919466.1985000001</v>
       </c>
       <c r="G214" t="n">
-        <v>1.814383333333331</v>
+        <v>1.814766666666664</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7888,22 +7888,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>1.787</v>
+        <v>1.8</v>
       </c>
       <c r="C215" t="n">
-        <v>1.787</v>
+        <v>1.8</v>
       </c>
       <c r="D215" t="n">
-        <v>1.787</v>
+        <v>1.8</v>
       </c>
       <c r="E215" t="n">
-        <v>1.787</v>
+        <v>1.8</v>
       </c>
       <c r="F215" t="n">
-        <v>849341.0635</v>
+        <v>34491.1361</v>
       </c>
       <c r="G215" t="n">
-        <v>1.813766666666664</v>
+        <v>1.814383333333331</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7935,10 +7935,10 @@
         <v>1.787</v>
       </c>
       <c r="F216" t="n">
-        <v>101482.7067</v>
+        <v>849341.0635</v>
       </c>
       <c r="G216" t="n">
-        <v>1.813483333333331</v>
+        <v>1.813766666666664</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7958,22 +7958,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>1.806</v>
+        <v>1.787</v>
       </c>
       <c r="C217" t="n">
-        <v>1.791</v>
+        <v>1.787</v>
       </c>
       <c r="D217" t="n">
-        <v>1.807</v>
+        <v>1.787</v>
       </c>
       <c r="E217" t="n">
-        <v>1.791</v>
+        <v>1.787</v>
       </c>
       <c r="F217" t="n">
-        <v>1979152</v>
+        <v>101482.7067</v>
       </c>
       <c r="G217" t="n">
-        <v>1.813266666666664</v>
+        <v>1.813483333333331</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -7993,10 +7993,10 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>1.807</v>
+        <v>1.806</v>
       </c>
       <c r="C218" t="n">
-        <v>1.807</v>
+        <v>1.791</v>
       </c>
       <c r="D218" t="n">
         <v>1.807</v>
@@ -8005,10 +8005,10 @@
         <v>1.791</v>
       </c>
       <c r="F218" t="n">
-        <v>2160051</v>
+        <v>1979152</v>
       </c>
       <c r="G218" t="n">
-        <v>1.812999999999998</v>
+        <v>1.813266666666664</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8028,22 +8028,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>1.806</v>
+        <v>1.807</v>
       </c>
       <c r="C219" t="n">
-        <v>1.806</v>
+        <v>1.807</v>
       </c>
       <c r="D219" t="n">
-        <v>1.806</v>
+        <v>1.807</v>
       </c>
       <c r="E219" t="n">
-        <v>1.806</v>
+        <v>1.791</v>
       </c>
       <c r="F219" t="n">
-        <v>280</v>
+        <v>2160051</v>
       </c>
       <c r="G219" t="n">
-        <v>1.813033333333331</v>
+        <v>1.812999999999998</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8063,22 +8063,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>1.807</v>
+        <v>1.806</v>
       </c>
       <c r="C220" t="n">
-        <v>1.807</v>
+        <v>1.806</v>
       </c>
       <c r="D220" t="n">
-        <v>1.807</v>
+        <v>1.806</v>
       </c>
       <c r="E220" t="n">
-        <v>1.807</v>
+        <v>1.806</v>
       </c>
       <c r="F220" t="n">
         <v>280</v>
       </c>
       <c r="G220" t="n">
-        <v>1.813083333333331</v>
+        <v>1.813033333333331</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8098,22 +8098,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>1.806</v>
+        <v>1.807</v>
       </c>
       <c r="C221" t="n">
-        <v>1.806</v>
+        <v>1.807</v>
       </c>
       <c r="D221" t="n">
-        <v>1.806</v>
+        <v>1.807</v>
       </c>
       <c r="E221" t="n">
-        <v>1.806</v>
+        <v>1.807</v>
       </c>
       <c r="F221" t="n">
         <v>280</v>
       </c>
       <c r="G221" t="n">
-        <v>1.812783333333331</v>
+        <v>1.813083333333331</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8133,22 +8133,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>1.793</v>
+        <v>1.806</v>
       </c>
       <c r="C222" t="n">
-        <v>1.79</v>
+        <v>1.806</v>
       </c>
       <c r="D222" t="n">
-        <v>1.793</v>
+        <v>1.806</v>
       </c>
       <c r="E222" t="n">
-        <v>1.79</v>
+        <v>1.806</v>
       </c>
       <c r="F222" t="n">
-        <v>15226.7131</v>
+        <v>280</v>
       </c>
       <c r="G222" t="n">
-        <v>1.812216666666664</v>
+        <v>1.812783333333331</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8168,22 +8168,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>1.79</v>
+        <v>1.793</v>
       </c>
       <c r="C223" t="n">
         <v>1.79</v>
       </c>
       <c r="D223" t="n">
-        <v>1.79</v>
+        <v>1.793</v>
       </c>
       <c r="E223" t="n">
         <v>1.79</v>
       </c>
       <c r="F223" t="n">
-        <v>28875.6653</v>
+        <v>15226.7131</v>
       </c>
       <c r="G223" t="n">
-        <v>1.811983333333331</v>
+        <v>1.812216666666664</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8215,10 +8215,10 @@
         <v>1.79</v>
       </c>
       <c r="F224" t="n">
-        <v>487884.1113</v>
+        <v>28875.6653</v>
       </c>
       <c r="G224" t="n">
-        <v>1.811749999999998</v>
+        <v>1.811983333333331</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8238,22 +8238,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>1.786</v>
+        <v>1.79</v>
       </c>
       <c r="C225" t="n">
-        <v>1.781</v>
+        <v>1.79</v>
       </c>
       <c r="D225" t="n">
-        <v>1.786</v>
+        <v>1.79</v>
       </c>
       <c r="E225" t="n">
-        <v>1.781</v>
+        <v>1.79</v>
       </c>
       <c r="F225" t="n">
-        <v>914205.5048</v>
+        <v>487884.1113</v>
       </c>
       <c r="G225" t="n">
-        <v>1.811033333333331</v>
+        <v>1.811749999999998</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8273,22 +8273,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>1.79</v>
+        <v>1.786</v>
       </c>
       <c r="C226" t="n">
-        <v>1.79</v>
+        <v>1.781</v>
       </c>
       <c r="D226" t="n">
-        <v>1.79</v>
+        <v>1.786</v>
       </c>
       <c r="E226" t="n">
-        <v>1.79</v>
+        <v>1.781</v>
       </c>
       <c r="F226" t="n">
-        <v>280</v>
+        <v>914205.5048</v>
       </c>
       <c r="G226" t="n">
-        <v>1.810483333333331</v>
+        <v>1.811033333333331</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8320,10 +8320,10 @@
         <v>1.79</v>
       </c>
       <c r="F227" t="n">
-        <v>3264.9826</v>
+        <v>280</v>
       </c>
       <c r="G227" t="n">
-        <v>1.809949999999998</v>
+        <v>1.810483333333331</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8343,22 +8343,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>1.789</v>
+        <v>1.79</v>
       </c>
       <c r="C228" t="n">
-        <v>1.789</v>
+        <v>1.79</v>
       </c>
       <c r="D228" t="n">
-        <v>1.789</v>
+        <v>1.79</v>
       </c>
       <c r="E228" t="n">
-        <v>1.789</v>
+        <v>1.79</v>
       </c>
       <c r="F228" t="n">
-        <v>280</v>
+        <v>3264.9826</v>
       </c>
       <c r="G228" t="n">
-        <v>1.809699999999998</v>
+        <v>1.809949999999998</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8390,10 +8390,10 @@
         <v>1.789</v>
       </c>
       <c r="F229" t="n">
-        <v>782.928</v>
+        <v>280</v>
       </c>
       <c r="G229" t="n">
-        <v>1.809133333333332</v>
+        <v>1.809699999999998</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8425,19 +8425,23 @@
         <v>1.789</v>
       </c>
       <c r="F230" t="n">
-        <v>50120.0821</v>
+        <v>782.928</v>
       </c>
       <c r="G230" t="n">
-        <v>1.808583333333332</v>
+        <v>1.809133333333332</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="K230" t="n">
+        <v>1.789</v>
+      </c>
       <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
@@ -8448,22 +8452,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>1.785</v>
+        <v>1.789</v>
       </c>
       <c r="C231" t="n">
-        <v>1.785</v>
+        <v>1.789</v>
       </c>
       <c r="D231" t="n">
-        <v>1.785</v>
+        <v>1.789</v>
       </c>
       <c r="E231" t="n">
-        <v>1.785</v>
+        <v>1.789</v>
       </c>
       <c r="F231" t="n">
-        <v>89948.6364</v>
+        <v>50120.0821</v>
       </c>
       <c r="G231" t="n">
-        <v>1.808249999999998</v>
+        <v>1.808583333333332</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8472,8 +8476,14 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8495,10 +8505,10 @@
         <v>1.785</v>
       </c>
       <c r="F232" t="n">
-        <v>7773.42</v>
+        <v>89948.6364</v>
       </c>
       <c r="G232" t="n">
-        <v>1.807616666666665</v>
+        <v>1.808249999999998</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8507,8 +8517,14 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8518,22 +8534,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>1.784</v>
+        <v>1.785</v>
       </c>
       <c r="C233" t="n">
-        <v>1.784</v>
+        <v>1.785</v>
       </c>
       <c r="D233" t="n">
-        <v>1.784</v>
+        <v>1.785</v>
       </c>
       <c r="E233" t="n">
-        <v>1.784</v>
+        <v>1.785</v>
       </c>
       <c r="F233" t="n">
-        <v>806.8796</v>
+        <v>7773.42</v>
       </c>
       <c r="G233" t="n">
-        <v>1.806966666666665</v>
+        <v>1.807616666666665</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8553,22 +8569,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>1.789</v>
+        <v>1.784</v>
       </c>
       <c r="C234" t="n">
-        <v>1.789</v>
+        <v>1.784</v>
       </c>
       <c r="D234" t="n">
-        <v>1.789</v>
+        <v>1.784</v>
       </c>
       <c r="E234" t="n">
-        <v>1.789</v>
+        <v>1.784</v>
       </c>
       <c r="F234" t="n">
-        <v>2000</v>
+        <v>806.8796</v>
       </c>
       <c r="G234" t="n">
-        <v>1.806399999999999</v>
+        <v>1.806966666666665</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8588,79 +8604,79 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="C235" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="D235" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="E235" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="F235" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G235" t="n">
+        <v>1.806399999999999</v>
+      </c>
+      <c r="H235" t="n">
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="n">
         <v>1.784</v>
       </c>
-      <c r="C235" t="n">
+      <c r="K235" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="C236" t="n">
         <v>1.78</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D236" t="n">
         <v>1.784</v>
       </c>
-      <c r="E235" t="n">
+      <c r="E236" t="n">
         <v>1.78</v>
       </c>
-      <c r="F235" t="n">
+      <c r="F236" t="n">
         <v>514362.7562</v>
       </c>
-      <c r="G235" t="n">
+      <c r="G236" t="n">
         <v>1.805983333333332</v>
       </c>
-      <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="n">
+      <c r="H236" t="n">
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="n">
         <v>1.789</v>
       </c>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
+      <c r="K236" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="L236" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="C236" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="D236" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="E236" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="F236" t="n">
-        <v>54675.4065</v>
-      </c>
-      <c r="G236" t="n">
-        <v>1.805549999999998</v>
-      </c>
-      <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -8670,31 +8686,35 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>1.778</v>
+        <v>1.779</v>
       </c>
       <c r="C237" t="n">
-        <v>1.778</v>
+        <v>1.779</v>
       </c>
       <c r="D237" t="n">
-        <v>1.778</v>
+        <v>1.779</v>
       </c>
       <c r="E237" t="n">
-        <v>1.778</v>
+        <v>1.779</v>
       </c>
       <c r="F237" t="n">
-        <v>52917.8628</v>
+        <v>54675.4065</v>
       </c>
       <c r="G237" t="n">
-        <v>1.804799999999999</v>
+        <v>1.805549999999998</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K237" t="n">
+        <v>1.784</v>
+      </c>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8721,21 +8741,21 @@
         <v>1.778</v>
       </c>
       <c r="F238" t="n">
-        <v>35798.7396</v>
+        <v>52917.8628</v>
       </c>
       <c r="G238" t="n">
-        <v>1.804349999999999</v>
+        <v>1.804799999999999</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1.784</v>
+      </c>
       <c r="L238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8750,22 +8770,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>1.779</v>
+        <v>1.778</v>
       </c>
       <c r="C239" t="n">
-        <v>1.779</v>
+        <v>1.778</v>
       </c>
       <c r="D239" t="n">
-        <v>1.779</v>
+        <v>1.778</v>
       </c>
       <c r="E239" t="n">
-        <v>1.779</v>
+        <v>1.778</v>
       </c>
       <c r="F239" t="n">
-        <v>290</v>
+        <v>35798.7396</v>
       </c>
       <c r="G239" t="n">
-        <v>1.803616666666665</v>
+        <v>1.804349999999999</v>
       </c>
       <c r="H239" t="n">
         <v>1</v>
@@ -8776,7 +8796,9 @@
       <c r="J239" t="n">
         <v>1.778</v>
       </c>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1.784</v>
+      </c>
       <c r="L239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8803,10 +8825,10 @@
         <v>1.779</v>
       </c>
       <c r="F240" t="n">
-        <v>135437.4919</v>
+        <v>290</v>
       </c>
       <c r="G240" t="n">
-        <v>1.802899999999998</v>
+        <v>1.803616666666665</v>
       </c>
       <c r="H240" t="n">
         <v>1</v>
@@ -8815,9 +8837,11 @@
         <v>0</v>
       </c>
       <c r="J240" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="K240" t="inlineStr"/>
+        <v>1.778</v>
+      </c>
+      <c r="K240" t="n">
+        <v>1.784</v>
+      </c>
       <c r="L240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8844,10 +8868,10 @@
         <v>1.779</v>
       </c>
       <c r="F241" t="n">
-        <v>983.1652</v>
+        <v>135437.4919</v>
       </c>
       <c r="G241" t="n">
-        <v>1.802166666666665</v>
+        <v>1.802899999999998</v>
       </c>
       <c r="H241" t="n">
         <v>1</v>
@@ -8858,7 +8882,9 @@
       <c r="J241" t="n">
         <v>1.779</v>
       </c>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1.784</v>
+      </c>
       <c r="L241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8873,22 +8899,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>1.78</v>
+        <v>1.779</v>
       </c>
       <c r="C242" t="n">
-        <v>1.778</v>
+        <v>1.779</v>
       </c>
       <c r="D242" t="n">
-        <v>1.78</v>
+        <v>1.779</v>
       </c>
       <c r="E242" t="n">
-        <v>1.778</v>
+        <v>1.779</v>
       </c>
       <c r="F242" t="n">
-        <v>287535</v>
+        <v>983.1652</v>
       </c>
       <c r="G242" t="n">
-        <v>1.801416666666665</v>
+        <v>1.802166666666665</v>
       </c>
       <c r="H242" t="n">
         <v>1</v>
@@ -8899,7 +8925,9 @@
       <c r="J242" t="n">
         <v>1.779</v>
       </c>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1.784</v>
+      </c>
       <c r="L242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8914,22 +8942,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>1.789</v>
+        <v>1.78</v>
       </c>
       <c r="C243" t="n">
-        <v>1.789</v>
+        <v>1.778</v>
       </c>
       <c r="D243" t="n">
-        <v>1.789</v>
+        <v>1.78</v>
       </c>
       <c r="E243" t="n">
-        <v>1.789</v>
+        <v>1.778</v>
       </c>
       <c r="F243" t="n">
-        <v>280</v>
+        <v>287535</v>
       </c>
       <c r="G243" t="n">
-        <v>1.800849999999999</v>
+        <v>1.801416666666665</v>
       </c>
       <c r="H243" t="n">
         <v>1</v>
@@ -8938,9 +8966,11 @@
         <v>0</v>
       </c>
       <c r="J243" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="K243" t="inlineStr"/>
+        <v>1.779</v>
+      </c>
+      <c r="K243" t="n">
+        <v>1.784</v>
+      </c>
       <c r="L243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8967,21 +8997,21 @@
         <v>1.789</v>
       </c>
       <c r="F244" t="n">
-        <v>21966.8781</v>
+        <v>280</v>
       </c>
       <c r="G244" t="n">
-        <v>1.800283333333332</v>
+        <v>1.800849999999999</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="n">
-        <v>1.789</v>
-      </c>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1.784</v>
+      </c>
       <c r="L244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9008,10 +9038,10 @@
         <v>1.789</v>
       </c>
       <c r="F245" t="n">
-        <v>286.4498</v>
+        <v>21966.8781</v>
       </c>
       <c r="G245" t="n">
-        <v>1.799716666666666</v>
+        <v>1.800283333333332</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9020,7 +9050,9 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1.784</v>
+      </c>
       <c r="L245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9035,7 +9067,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>1.788</v>
+        <v>1.789</v>
       </c>
       <c r="C246" t="n">
         <v>1.789</v>
@@ -9044,13 +9076,13 @@
         <v>1.789</v>
       </c>
       <c r="E246" t="n">
-        <v>1.788</v>
+        <v>1.789</v>
       </c>
       <c r="F246" t="n">
-        <v>14768.038</v>
+        <v>286.4498</v>
       </c>
       <c r="G246" t="n">
-        <v>1.799433333333333</v>
+        <v>1.799716666666666</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9059,7 +9091,9 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1.784</v>
+      </c>
       <c r="L246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9086,10 +9120,10 @@
         <v>1.788</v>
       </c>
       <c r="F247" t="n">
-        <v>13759</v>
+        <v>14768.038</v>
       </c>
       <c r="G247" t="n">
-        <v>1.799149999999999</v>
+        <v>1.799433333333333</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9098,7 +9132,9 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1.784</v>
+      </c>
       <c r="L247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9116,19 +9152,19 @@
         <v>1.788</v>
       </c>
       <c r="C248" t="n">
-        <v>1.788</v>
+        <v>1.789</v>
       </c>
       <c r="D248" t="n">
-        <v>1.788</v>
+        <v>1.789</v>
       </c>
       <c r="E248" t="n">
         <v>1.788</v>
       </c>
       <c r="F248" t="n">
-        <v>9645</v>
+        <v>13759</v>
       </c>
       <c r="G248" t="n">
-        <v>1.798566666666666</v>
+        <v>1.799149999999999</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9137,7 +9173,9 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1.784</v>
+      </c>
       <c r="L248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9164,10 +9202,10 @@
         <v>1.788</v>
       </c>
       <c r="F249" t="n">
-        <v>110859</v>
+        <v>9645</v>
       </c>
       <c r="G249" t="n">
-        <v>1.797983333333333</v>
+        <v>1.798566666666666</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9176,7 +9214,9 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1.784</v>
+      </c>
       <c r="L249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9191,22 +9231,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>1.789</v>
+        <v>1.788</v>
       </c>
       <c r="C250" t="n">
-        <v>1.789</v>
+        <v>1.788</v>
       </c>
       <c r="D250" t="n">
-        <v>1.789</v>
+        <v>1.788</v>
       </c>
       <c r="E250" t="n">
-        <v>1.789</v>
+        <v>1.788</v>
       </c>
       <c r="F250" t="n">
-        <v>3075.4773</v>
+        <v>110859</v>
       </c>
       <c r="G250" t="n">
-        <v>1.797416666666666</v>
+        <v>1.797983333333333</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9215,7 +9255,9 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1.784</v>
+      </c>
       <c r="L250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9242,10 +9284,10 @@
         <v>1.789</v>
       </c>
       <c r="F251" t="n">
-        <v>22724.2083</v>
+        <v>3075.4773</v>
       </c>
       <c r="G251" t="n">
-        <v>1.79685</v>
+        <v>1.797416666666666</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9254,7 +9296,9 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1.784</v>
+      </c>
       <c r="L251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9281,10 +9325,10 @@
         <v>1.789</v>
       </c>
       <c r="F252" t="n">
-        <v>3745.5407</v>
+        <v>22724.2083</v>
       </c>
       <c r="G252" t="n">
-        <v>1.796566666666666</v>
+        <v>1.79685</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9293,7 +9337,9 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1.784</v>
+      </c>
       <c r="L252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9311,19 +9357,19 @@
         <v>1.789</v>
       </c>
       <c r="C253" t="n">
-        <v>1.801</v>
+        <v>1.789</v>
       </c>
       <c r="D253" t="n">
-        <v>1.818</v>
+        <v>1.789</v>
       </c>
       <c r="E253" t="n">
         <v>1.789</v>
       </c>
       <c r="F253" t="n">
-        <v>997751.6102999999</v>
+        <v>3745.5407</v>
       </c>
       <c r="G253" t="n">
-        <v>1.796483333333333</v>
+        <v>1.796566666666666</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9332,7 +9378,9 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1.784</v>
+      </c>
       <c r="L253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9347,7 +9395,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>1.818</v>
+        <v>1.789</v>
       </c>
       <c r="C254" t="n">
         <v>1.801</v>
@@ -9356,13 +9404,13 @@
         <v>1.818</v>
       </c>
       <c r="E254" t="n">
-        <v>1.8</v>
+        <v>1.789</v>
       </c>
       <c r="F254" t="n">
-        <v>819090.9166999999</v>
+        <v>997751.6102999999</v>
       </c>
       <c r="G254" t="n">
-        <v>1.796116666666667</v>
+        <v>1.796483333333333</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9371,7 +9419,9 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1.784</v>
+      </c>
       <c r="L254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9386,22 +9436,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>1.801</v>
+        <v>1.818</v>
       </c>
       <c r="C255" t="n">
         <v>1.801</v>
       </c>
       <c r="D255" t="n">
-        <v>1.801</v>
+        <v>1.818</v>
       </c>
       <c r="E255" t="n">
-        <v>1.801</v>
+        <v>1.8</v>
       </c>
       <c r="F255" t="n">
-        <v>397.8006</v>
+        <v>819090.9166999999</v>
       </c>
       <c r="G255" t="n">
-        <v>1.795766666666667</v>
+        <v>1.796116666666667</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9410,7 +9460,9 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1.784</v>
+      </c>
       <c r="L255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9425,22 +9477,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>1.8</v>
+        <v>1.801</v>
       </c>
       <c r="C256" t="n">
-        <v>1.789</v>
+        <v>1.801</v>
       </c>
       <c r="D256" t="n">
-        <v>1.8</v>
+        <v>1.801</v>
       </c>
       <c r="E256" t="n">
-        <v>1.789</v>
+        <v>1.801</v>
       </c>
       <c r="F256" t="n">
-        <v>41700.2325</v>
+        <v>397.8006</v>
       </c>
       <c r="G256" t="n">
-        <v>1.795483333333333</v>
+        <v>1.795766666666667</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9449,7 +9501,9 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1.784</v>
+      </c>
       <c r="L256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9464,22 +9518,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>1.789</v>
+        <v>1.8</v>
       </c>
       <c r="C257" t="n">
         <v>1.789</v>
       </c>
       <c r="D257" t="n">
-        <v>1.789</v>
+        <v>1.8</v>
       </c>
       <c r="E257" t="n">
         <v>1.789</v>
       </c>
       <c r="F257" t="n">
-        <v>13978.2293</v>
+        <v>41700.2325</v>
       </c>
       <c r="G257" t="n">
-        <v>1.7952</v>
+        <v>1.795483333333333</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9488,7 +9542,9 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1.784</v>
+      </c>
       <c r="L257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9503,22 +9559,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>1.788</v>
+        <v>1.789</v>
       </c>
       <c r="C258" t="n">
-        <v>1.788</v>
+        <v>1.789</v>
       </c>
       <c r="D258" t="n">
-        <v>1.788</v>
+        <v>1.789</v>
       </c>
       <c r="E258" t="n">
-        <v>1.788</v>
+        <v>1.789</v>
       </c>
       <c r="F258" t="n">
-        <v>6839</v>
+        <v>13978.2293</v>
       </c>
       <c r="G258" t="n">
-        <v>1.794633333333333</v>
+        <v>1.7952</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9527,7 +9583,9 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1.784</v>
+      </c>
       <c r="L258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9545,19 +9603,19 @@
         <v>1.788</v>
       </c>
       <c r="C259" t="n">
-        <v>1.781</v>
+        <v>1.788</v>
       </c>
       <c r="D259" t="n">
         <v>1.788</v>
       </c>
       <c r="E259" t="n">
-        <v>1.781</v>
+        <v>1.788</v>
       </c>
       <c r="F259" t="n">
-        <v>542991.6788</v>
+        <v>6839</v>
       </c>
       <c r="G259" t="n">
-        <v>1.793966666666667</v>
+        <v>1.794633333333333</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9566,7 +9624,9 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1.784</v>
+      </c>
       <c r="L259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9581,22 +9641,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>1.808</v>
+        <v>1.788</v>
       </c>
       <c r="C260" t="n">
-        <v>1.79</v>
+        <v>1.781</v>
       </c>
       <c r="D260" t="n">
-        <v>1.808</v>
+        <v>1.788</v>
       </c>
       <c r="E260" t="n">
-        <v>1.79</v>
+        <v>1.781</v>
       </c>
       <c r="F260" t="n">
-        <v>635393.6200999999</v>
+        <v>542991.6788</v>
       </c>
       <c r="G260" t="n">
-        <v>1.7937</v>
+        <v>1.793966666666667</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9605,7 +9665,9 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1.784</v>
+      </c>
       <c r="L260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9620,22 +9682,22 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>1.798</v>
+        <v>1.808</v>
       </c>
       <c r="C261" t="n">
-        <v>1.782</v>
+        <v>1.79</v>
       </c>
       <c r="D261" t="n">
-        <v>1.798</v>
+        <v>1.808</v>
       </c>
       <c r="E261" t="n">
-        <v>1.782</v>
+        <v>1.79</v>
       </c>
       <c r="F261" t="n">
-        <v>1418280</v>
+        <v>635393.6200999999</v>
       </c>
       <c r="G261" t="n">
-        <v>1.7933</v>
+        <v>1.7937</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9644,7 +9706,9 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1.784</v>
+      </c>
       <c r="L261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9659,22 +9723,22 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>1.785</v>
+        <v>1.798</v>
       </c>
       <c r="C262" t="n">
-        <v>1.785</v>
+        <v>1.782</v>
       </c>
       <c r="D262" t="n">
-        <v>1.785</v>
+        <v>1.798</v>
       </c>
       <c r="E262" t="n">
-        <v>1.785</v>
+        <v>1.782</v>
       </c>
       <c r="F262" t="n">
-        <v>50808.6201</v>
+        <v>1418280</v>
       </c>
       <c r="G262" t="n">
-        <v>1.792966666666667</v>
+        <v>1.7933</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9683,7 +9747,9 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1.784</v>
+      </c>
       <c r="L262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9698,22 +9764,22 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>1.79</v>
+        <v>1.785</v>
       </c>
       <c r="C263" t="n">
-        <v>1.79</v>
+        <v>1.785</v>
       </c>
       <c r="D263" t="n">
-        <v>1.79</v>
+        <v>1.785</v>
       </c>
       <c r="E263" t="n">
-        <v>1.79</v>
+        <v>1.785</v>
       </c>
       <c r="F263" t="n">
-        <v>35156.4392</v>
+        <v>50808.6201</v>
       </c>
       <c r="G263" t="n">
-        <v>1.792433333333334</v>
+        <v>1.792966666666667</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9722,7 +9788,9 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1.784</v>
+      </c>
       <c r="L263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9737,22 +9805,22 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>1.785</v>
+        <v>1.79</v>
       </c>
       <c r="C264" t="n">
-        <v>1.796</v>
+        <v>1.79</v>
       </c>
       <c r="D264" t="n">
-        <v>1.796</v>
+        <v>1.79</v>
       </c>
       <c r="E264" t="n">
-        <v>1.785</v>
+        <v>1.79</v>
       </c>
       <c r="F264" t="n">
-        <v>590860.5975</v>
+        <v>35156.4392</v>
       </c>
       <c r="G264" t="n">
-        <v>1.792266666666667</v>
+        <v>1.792433333333334</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -9761,7 +9829,9 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1.784</v>
+      </c>
       <c r="L264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9776,7 +9846,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>1.796</v>
+        <v>1.785</v>
       </c>
       <c r="C265" t="n">
         <v>1.796</v>
@@ -9785,13 +9855,13 @@
         <v>1.796</v>
       </c>
       <c r="E265" t="n">
-        <v>1.796</v>
+        <v>1.785</v>
       </c>
       <c r="F265" t="n">
-        <v>36831.274</v>
+        <v>590860.5975</v>
       </c>
       <c r="G265" t="n">
-        <v>1.7921</v>
+        <v>1.792266666666667</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -9800,7 +9870,9 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1.784</v>
+      </c>
       <c r="L265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9818,19 +9890,19 @@
         <v>1.796</v>
       </c>
       <c r="C266" t="n">
-        <v>1.819</v>
+        <v>1.796</v>
       </c>
       <c r="D266" t="n">
-        <v>1.819</v>
+        <v>1.796</v>
       </c>
       <c r="E266" t="n">
         <v>1.796</v>
       </c>
       <c r="F266" t="n">
-        <v>64851.7265</v>
+        <v>36831.274</v>
       </c>
       <c r="G266" t="n">
-        <v>1.792066666666667</v>
+        <v>1.7921</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -9839,7 +9911,9 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1.784</v>
+      </c>
       <c r="L266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9854,22 +9928,22 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>1.818</v>
+        <v>1.796</v>
       </c>
       <c r="C267" t="n">
-        <v>1.791</v>
+        <v>1.819</v>
       </c>
       <c r="D267" t="n">
-        <v>1.818</v>
+        <v>1.819</v>
       </c>
       <c r="E267" t="n">
-        <v>1.791</v>
+        <v>1.796</v>
       </c>
       <c r="F267" t="n">
-        <v>3081284</v>
+        <v>64851.7265</v>
       </c>
       <c r="G267" t="n">
-        <v>1.791833333333334</v>
+        <v>1.792066666666667</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -9878,7 +9952,9 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1.784</v>
+      </c>
       <c r="L267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9905,10 +9981,10 @@
         <v>1.791</v>
       </c>
       <c r="F268" t="n">
-        <v>1366941</v>
+        <v>3081284</v>
       </c>
       <c r="G268" t="n">
-        <v>1.791316666666667</v>
+        <v>1.791833333333334</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -9917,7 +9993,9 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1.784</v>
+      </c>
       <c r="L268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9935,68 +10013,78 @@
         <v>1.818</v>
       </c>
       <c r="C269" t="n">
-        <v>1.818</v>
+        <v>1.791</v>
       </c>
       <c r="D269" t="n">
         <v>1.818</v>
       </c>
       <c r="E269" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="F269" t="n">
+        <v>1366941</v>
+      </c>
+      <c r="G269" t="n">
+        <v>1.791316666666667</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M269" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
         <v>1.818</v>
       </c>
-      <c r="F269" t="n">
+      <c r="C270" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="D270" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="E270" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="F270" t="n">
         <v>1527.5612</v>
       </c>
-      <c r="G269" t="n">
+      <c r="G270" t="n">
         <v>1.791266666666667</v>
       </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="n">
-        <v>1</v>
-      </c>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr">
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="n">
+        <v>1</v>
+      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="L270" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="C270" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="D270" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="E270" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="F270" t="n">
-        <v>277852.0791</v>
-      </c>
-      <c r="G270" t="n">
-        <v>1.791016666666667</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
       <c r="M270" t="n">
-        <v>1</v>
+        <v>1.014058295964126</v>
       </c>
     </row>
     <row r="271">
@@ -10004,22 +10092,22 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>1.814</v>
+        <v>1.791</v>
       </c>
       <c r="C271" t="n">
-        <v>1.792</v>
+        <v>1.791</v>
       </c>
       <c r="D271" t="n">
-        <v>1.814</v>
+        <v>1.791</v>
       </c>
       <c r="E271" t="n">
-        <v>1.792</v>
+        <v>1.791</v>
       </c>
       <c r="F271" t="n">
-        <v>2966805</v>
+        <v>277852.0791</v>
       </c>
       <c r="G271" t="n">
-        <v>1.790783333333334</v>
+        <v>1.791016666666667</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -10051,10 +10139,10 @@
         <v>1.792</v>
       </c>
       <c r="F272" t="n">
-        <v>675658</v>
+        <v>2966805</v>
       </c>
       <c r="G272" t="n">
-        <v>1.79055</v>
+        <v>1.790783333333334</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -10074,22 +10162,22 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>1.795</v>
+        <v>1.814</v>
       </c>
       <c r="C273" t="n">
-        <v>1.795</v>
+        <v>1.792</v>
       </c>
       <c r="D273" t="n">
-        <v>1.795</v>
+        <v>1.814</v>
       </c>
       <c r="E273" t="n">
-        <v>1.795</v>
+        <v>1.792</v>
       </c>
       <c r="F273" t="n">
-        <v>45000</v>
+        <v>675658</v>
       </c>
       <c r="G273" t="n">
-        <v>1.790466666666667</v>
+        <v>1.79055</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -10109,22 +10197,22 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>1.794</v>
+        <v>1.795</v>
       </c>
       <c r="C274" t="n">
-        <v>1.794</v>
+        <v>1.795</v>
       </c>
       <c r="D274" t="n">
-        <v>1.794</v>
+        <v>1.795</v>
       </c>
       <c r="E274" t="n">
-        <v>1.794</v>
+        <v>1.795</v>
       </c>
       <c r="F274" t="n">
-        <v>6484.3559</v>
+        <v>45000</v>
       </c>
       <c r="G274" t="n">
-        <v>1.790366666666667</v>
+        <v>1.790466666666667</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -10144,22 +10232,22 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>1.791</v>
+        <v>1.794</v>
       </c>
       <c r="C275" t="n">
-        <v>1.791</v>
+        <v>1.794</v>
       </c>
       <c r="D275" t="n">
-        <v>1.791</v>
+        <v>1.794</v>
       </c>
       <c r="E275" t="n">
-        <v>1.791</v>
+        <v>1.794</v>
       </c>
       <c r="F275" t="n">
-        <v>13250.8198</v>
+        <v>6484.3559</v>
       </c>
       <c r="G275" t="n">
-        <v>1.790433333333334</v>
+        <v>1.790366666666667</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10179,22 +10267,22 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>1.785</v>
+        <v>1.791</v>
       </c>
       <c r="C276" t="n">
-        <v>1.78</v>
+        <v>1.791</v>
       </c>
       <c r="D276" t="n">
-        <v>1.785</v>
+        <v>1.791</v>
       </c>
       <c r="E276" t="n">
-        <v>1.78</v>
+        <v>1.791</v>
       </c>
       <c r="F276" t="n">
-        <v>290751.928</v>
+        <v>13250.8198</v>
       </c>
       <c r="G276" t="n">
-        <v>1.790316666666667</v>
+        <v>1.790433333333334</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10214,22 +10302,22 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
+        <v>1.785</v>
+      </c>
+      <c r="C277" t="n">
         <v>1.78</v>
       </c>
-      <c r="C277" t="n">
-        <v>1.779</v>
-      </c>
       <c r="D277" t="n">
+        <v>1.785</v>
+      </c>
+      <c r="E277" t="n">
         <v>1.78</v>
       </c>
-      <c r="E277" t="n">
-        <v>1.779</v>
-      </c>
       <c r="F277" t="n">
-        <v>1000000</v>
+        <v>290751.928</v>
       </c>
       <c r="G277" t="n">
-        <v>1.790116666666667</v>
+        <v>1.790316666666667</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10249,22 +10337,22 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>1.779</v>
+        <v>1.78</v>
       </c>
       <c r="C278" t="n">
         <v>1.779</v>
       </c>
       <c r="D278" t="n">
-        <v>1.779</v>
+        <v>1.78</v>
       </c>
       <c r="E278" t="n">
         <v>1.779</v>
       </c>
       <c r="F278" t="n">
-        <v>938969.1135</v>
+        <v>1000000</v>
       </c>
       <c r="G278" t="n">
-        <v>1.78965</v>
+        <v>1.790116666666667</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10279,6 +10367,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="C279" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="D279" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="E279" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="F279" t="n">
+        <v>938969.1135</v>
+      </c>
+      <c r="G279" t="n">
+        <v>1.78965</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="n">
+        <v>0</v>
+      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
+      <c r="M279" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-21 BackTest AOA.xlsx
+++ b/BackTest/2020-01-21 BackTest AOA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N347"/>
+  <dimension ref="A1:M347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2035,15 @@
         <v>5956113.227834043</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2472,18 +2299,15 @@
         <v>5066326.387134042</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,18 +2431,15 @@
         <v>5321772.387134042</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2724,18 +2530,15 @@
         <v>2463227.917334042</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2760,18 +2563,15 @@
         <v>2259177.917334042</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2832,18 +2629,15 @@
         <v>2239705.113434041</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2868,18 +2662,15 @@
         <v>3176333.284834041</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2904,18 +2695,15 @@
         <v>568022.2848340413</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2940,18 +2728,15 @@
         <v>1492265.284834041</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2976,18 +2761,15 @@
         <v>-1232607.715165959</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3012,18 +2794,15 @@
         <v>1054453.284834041</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3120,18 +2893,15 @@
         <v>-1037591.258065959</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3192,18 +2959,15 @@
         <v>-4105553.258065959</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3264,18 +3025,15 @@
         <v>-5937221.258065959</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3300,18 +3058,15 @@
         <v>-3582143.258065959</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3336,18 +3091,15 @@
         <v>-4916905.258065959</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3372,18 +3124,15 @@
         <v>-4916635.258065959</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3408,18 +3157,15 @@
         <v>-4916905.258065959</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3444,18 +3190,15 @@
         <v>-4916635.258065959</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3480,18 +3223,15 @@
         <v>-4916905.258065959</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3516,18 +3256,15 @@
         <v>-7935321.258065959</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3552,18 +3289,15 @@
         <v>-7935321.258065959</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3588,18 +3322,15 @@
         <v>-7935051.258065959</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3624,18 +3355,15 @@
         <v>-7935321.258065959</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3660,18 +3388,15 @@
         <v>-9383457.258065958</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3696,18 +3421,15 @@
         <v>-9383457.258065958</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3732,18 +3454,15 @@
         <v>-7099089.258065958</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3768,18 +3487,15 @@
         <v>-8292708.258065958</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3840,18 +3553,15 @@
         <v>-9064764.905065957</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3912,18 +3619,15 @@
         <v>-9064764.905065957</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4128,18 +3817,15 @@
         <v>-16161375.14526596</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4344,18 +4015,15 @@
         <v>-18880121.40236596</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4992,18 +4609,15 @@
         <v>-30264233.37709425</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5064,18 +4675,15 @@
         <v>-30988684.37709425</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5304,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5502,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5568,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5601,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5634,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5667,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +5700,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +5733,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5766,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +5799,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5832,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5865,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +5898,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +5931,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +5964,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +5997,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6030,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6063,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6096,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6129,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6162,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6195,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6756,18 +6226,15 @@
         <v>-43838101.52909426</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6261,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +6294,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6327,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +6360,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6393,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6426,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6459,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +6492,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +6525,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +6558,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +6591,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7190,16 +6624,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7226,16 +6657,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7262,16 +6690,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7298,16 +6723,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7334,16 +6756,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7370,16 +6789,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7406,16 +6822,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7442,16 +6855,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7478,16 +6888,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7514,16 +6921,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7550,16 +6954,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7586,16 +6987,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7622,16 +7020,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7658,16 +7053,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7694,16 +7086,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7730,16 +7119,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7766,16 +7152,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7802,16 +7185,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7838,16 +7218,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7874,16 +7251,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7910,16 +7284,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7946,16 +7317,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7982,16 +7350,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8018,16 +7383,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8054,16 +7416,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8090,16 +7449,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8126,16 +7482,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8160,18 +7513,15 @@
         <v>-61716337.34094761</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8198,16 +7548,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8234,16 +7581,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8270,16 +7614,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8306,16 +7647,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8342,16 +7680,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8378,16 +7713,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8414,16 +7746,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8450,16 +7779,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8486,16 +7812,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8522,16 +7845,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8558,16 +7878,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8594,16 +7911,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8630,16 +7944,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8666,16 +7977,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8702,16 +8010,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8738,16 +8043,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8774,16 +8076,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8810,16 +8109,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8846,16 +8142,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8882,16 +8175,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8918,16 +8208,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8954,16 +8241,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8990,16 +8274,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9026,16 +8307,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9062,16 +8340,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9098,16 +8373,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9134,16 +8406,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9170,16 +8439,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9206,16 +8472,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9242,16 +8505,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9278,16 +8538,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9314,16 +8571,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9350,16 +8604,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9386,16 +8637,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9422,16 +8670,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9458,16 +8703,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9494,16 +8736,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9530,16 +8769,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9566,16 +8802,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9602,16 +8835,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9638,16 +8868,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9674,16 +8901,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9710,16 +8934,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9746,16 +8967,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9782,16 +9000,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9818,16 +9033,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9854,16 +9066,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9890,16 +9099,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9926,16 +9132,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9962,16 +9165,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9998,16 +9198,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10034,16 +9231,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10070,16 +9264,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10106,16 +9297,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10142,16 +9330,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10178,16 +9363,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10214,16 +9396,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10250,16 +9429,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10286,16 +9462,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10322,16 +9495,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10358,16 +9528,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10394,16 +9561,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10430,16 +9594,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10466,16 +9627,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10502,16 +9660,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10538,16 +9693,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10574,16 +9726,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10610,16 +9759,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10646,16 +9792,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10682,16 +9825,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10718,16 +9858,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10754,16 +9891,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10790,16 +9924,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10826,16 +9957,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10862,16 +9990,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10898,16 +10023,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10934,16 +10056,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10970,16 +10089,13 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11006,16 +10122,13 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11042,16 +10155,13 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11078,16 +10188,13 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11114,16 +10221,13 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11150,16 +10254,13 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11186,16 +10287,13 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11222,16 +10320,13 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11258,16 +10353,13 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11294,16 +10386,13 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11330,16 +10419,13 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11366,16 +10452,13 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11402,16 +10485,13 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11438,16 +10518,13 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11474,16 +10551,13 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11510,16 +10584,13 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11546,16 +10617,13 @@
       <c r="H310" t="n">
         <v>0</v>
       </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11582,16 +10650,13 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11618,16 +10683,13 @@
       <c r="H312" t="n">
         <v>0</v>
       </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11654,16 +10716,13 @@
       <c r="H313" t="n">
         <v>0</v>
       </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -11690,16 +10749,13 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -11726,16 +10782,13 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -11762,16 +10815,13 @@
       <c r="H316" t="n">
         <v>0</v>
       </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -11796,18 +10846,15 @@
         <v>-89850456.98864762</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -11834,16 +10881,13 @@
       <c r="H318" t="n">
         <v>0</v>
       </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -11870,16 +10914,13 @@
       <c r="H319" t="n">
         <v>0</v>
       </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -11906,16 +10947,13 @@
       <c r="H320" t="n">
         <v>0</v>
       </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -11942,16 +10980,13 @@
       <c r="H321" t="n">
         <v>0</v>
       </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -11978,16 +11013,13 @@
       <c r="H322" t="n">
         <v>0</v>
       </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12014,16 +11046,13 @@
       <c r="H323" t="n">
         <v>0</v>
       </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12050,16 +11079,13 @@
       <c r="H324" t="n">
         <v>0</v>
       </c>
-      <c r="I324" t="n">
-        <v>0</v>
-      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12086,16 +11112,13 @@
       <c r="H325" t="n">
         <v>0</v>
       </c>
-      <c r="I325" t="n">
-        <v>0</v>
-      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12122,16 +11145,13 @@
       <c r="H326" t="n">
         <v>0</v>
       </c>
-      <c r="I326" t="n">
-        <v>0</v>
-      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -12158,16 +11178,13 @@
       <c r="H327" t="n">
         <v>0</v>
       </c>
-      <c r="I327" t="n">
-        <v>0</v>
-      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -12194,16 +11211,13 @@
       <c r="H328" t="n">
         <v>0</v>
       </c>
-      <c r="I328" t="n">
-        <v>0</v>
-      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-      <c r="N328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -12230,16 +11244,13 @@
       <c r="H329" t="n">
         <v>0</v>
       </c>
-      <c r="I329" t="n">
-        <v>0</v>
-      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
-      <c r="N329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -12266,16 +11277,13 @@
       <c r="H330" t="n">
         <v>0</v>
       </c>
-      <c r="I330" t="n">
-        <v>0</v>
-      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
-      <c r="M330" t="n">
-        <v>1</v>
-      </c>
-      <c r="N330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -12302,16 +11310,13 @@
       <c r="H331" t="n">
         <v>0</v>
       </c>
-      <c r="I331" t="n">
-        <v>0</v>
-      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
-      <c r="M331" t="n">
-        <v>1</v>
-      </c>
-      <c r="N331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -12338,16 +11343,13 @@
       <c r="H332" t="n">
         <v>0</v>
       </c>
-      <c r="I332" t="n">
-        <v>0</v>
-      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
-      <c r="M332" t="n">
-        <v>1</v>
-      </c>
-      <c r="N332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -12374,16 +11376,13 @@
       <c r="H333" t="n">
         <v>0</v>
       </c>
-      <c r="I333" t="n">
-        <v>0</v>
-      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
-      <c r="M333" t="n">
-        <v>1</v>
-      </c>
-      <c r="N333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -12410,16 +11409,13 @@
       <c r="H334" t="n">
         <v>0</v>
       </c>
-      <c r="I334" t="n">
-        <v>0</v>
-      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
-      <c r="M334" t="n">
-        <v>1</v>
-      </c>
-      <c r="N334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -12446,16 +11442,13 @@
       <c r="H335" t="n">
         <v>0</v>
       </c>
-      <c r="I335" t="n">
-        <v>0</v>
-      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
-      <c r="M335" t="n">
-        <v>1</v>
-      </c>
-      <c r="N335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -12482,16 +11475,13 @@
       <c r="H336" t="n">
         <v>0</v>
       </c>
-      <c r="I336" t="n">
-        <v>0</v>
-      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
-      <c r="M336" t="n">
-        <v>1</v>
-      </c>
-      <c r="N336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -12518,16 +11508,13 @@
       <c r="H337" t="n">
         <v>0</v>
       </c>
-      <c r="I337" t="n">
-        <v>0</v>
-      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
-      <c r="M337" t="n">
-        <v>1</v>
-      </c>
-      <c r="N337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -12552,18 +11539,19 @@
         <v>-92090948.28564763</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="n">
-        <v>0</v>
-      </c>
-      <c r="J338" t="inlineStr"/>
+        <v>1.779</v>
+      </c>
+      <c r="J338" t="n">
+        <v>1.779</v>
+      </c>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
-      <c r="M338" t="n">
-        <v>1</v>
-      </c>
-      <c r="N338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -12588,18 +11576,23 @@
         <v>-92090668.28564763</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="n">
-        <v>0</v>
-      </c>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
-      <c r="M339" t="n">
-        <v>1</v>
-      </c>
-      <c r="N339" t="inlineStr"/>
+        <v>1.779</v>
+      </c>
+      <c r="J339" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -12626,16 +11619,19 @@
       <c r="H340" t="n">
         <v>0</v>
       </c>
-      <c r="I340" t="n">
-        <v>0</v>
-      </c>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
-      <c r="M340" t="n">
-        <v>1</v>
-      </c>
-      <c r="N340" t="inlineStr"/>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -12662,16 +11658,13 @@
       <c r="H341" t="n">
         <v>0</v>
       </c>
-      <c r="I341" t="n">
-        <v>0</v>
-      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
-      <c r="M341" t="n">
-        <v>1</v>
-      </c>
-      <c r="N341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -12698,16 +11691,13 @@
       <c r="H342" t="n">
         <v>0</v>
       </c>
-      <c r="I342" t="n">
-        <v>0</v>
-      </c>
+      <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
-      <c r="M342" t="n">
-        <v>1</v>
-      </c>
-      <c r="N342" t="inlineStr"/>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -12734,16 +11724,13 @@
       <c r="H343" t="n">
         <v>0</v>
       </c>
-      <c r="I343" t="n">
-        <v>0</v>
-      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
-      <c r="M343" t="n">
-        <v>1</v>
-      </c>
-      <c r="N343" t="inlineStr"/>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -12770,16 +11757,13 @@
       <c r="H344" t="n">
         <v>0</v>
       </c>
-      <c r="I344" t="n">
-        <v>0</v>
-      </c>
+      <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
-      <c r="M344" t="n">
-        <v>1</v>
-      </c>
-      <c r="N344" t="inlineStr"/>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -12806,16 +11790,13 @@
       <c r="H345" t="n">
         <v>0</v>
       </c>
-      <c r="I345" t="n">
-        <v>0</v>
-      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
-      <c r="M345" t="n">
-        <v>1</v>
-      </c>
-      <c r="N345" t="inlineStr"/>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -12840,68 +11821,56 @@
         <v>-92281025.30654764</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>0</v>
-      </c>
-      <c r="J346" t="n">
-        <v>1.778</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr">
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="C347" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D347" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="E347" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="F347" t="n">
+        <v>9859.4136</v>
+      </c>
+      <c r="G347" t="n">
+        <v>-92271165.89294764</v>
+      </c>
+      <c r="H347" t="n">
+        <v>2</v>
+      </c>
+      <c r="I347" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M346" t="n">
-        <v>1</v>
-      </c>
-      <c r="N346" t="inlineStr"/>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
-        <v>345</v>
-      </c>
-      <c r="B347" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="C347" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="D347" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="E347" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="F347" t="n">
-        <v>9859.4136</v>
-      </c>
-      <c r="G347" t="n">
-        <v>-92271165.89294764</v>
-      </c>
-      <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>0</v>
-      </c>
-      <c r="J347" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M347" t="n">
-        <v>1</v>
-      </c>
-      <c r="N347" t="inlineStr"/>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest AOA.xlsx
+++ b/BackTest/2020-01-21 BackTest AOA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1804,7 +1804,7 @@
         <v>5727044.227834043</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>5956113.227834043</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>5066326.387134042</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>5321772.387134042</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>5545741.387134042</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>2033869.387134042</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>2463227.917334042</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>2259177.917334042</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>2259177.917334042</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>2239705.113434041</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>3176333.284834041</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>568022.2848340413</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>1492265.284834041</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-1232607.715165959</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>1054453.284834041</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-856059.7151659587</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-1037591.258065959</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-4105553.258065959</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-5937221.258065959</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-3582143.258065959</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-4916905.258065959</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-4916635.258065959</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-4916905.258065959</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-4916635.258065959</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-4916905.258065959</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-7935321.258065959</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-7935321.258065959</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-7935051.258065959</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-7935321.258065959</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-9383457.258065958</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-9383457.258065958</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-7099089.258065958</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-8292708.258065958</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-9064764.905065957</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-9064764.905065957</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-10732593.38726596</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-12870429.38726596</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-12458938.14526596</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-12458388.14526596</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-14252955.14526596</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-16161375.14526596</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-15485899.40236596</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-15485624.40236596</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-15754369.40236596</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-18880121.40236596</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-22457248.40236596</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-22456973.40236596</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-24795260.84999425</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-24795535.84999425</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-23317503.40239425</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-26718891.37709425</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-26714891.37709425</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-28294889.37709425</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-30264508.37709425</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-30264508.37709425</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-30264508.37709425</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-30264233.37709425</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-30264508.37709425</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-30988684.37709425</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-30988684.37709425</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-30988134.37709425</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-30988134.37709425</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-33529908.37709425</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-33529608.37709425</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-34239822.37709425</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-35838273.18179426</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-38747688.93959425</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-38747688.93959425</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-38747413.93959425</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-41180208.93959425</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-43838101.52909426</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-61716337.34094761</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -10285,10 +10285,14 @@
         <v>-90505844.84374763</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="J300" t="n">
+        <v>1.779</v>
+      </c>
       <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
@@ -10321,8 +10325,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10354,8 +10364,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10387,8 +10403,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10420,8 +10442,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10453,8 +10481,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10486,8 +10520,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10519,8 +10559,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10552,8 +10598,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10585,8 +10637,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10618,8 +10676,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10651,8 +10715,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10684,8 +10754,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10717,8 +10793,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10750,8 +10832,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10783,8 +10871,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10816,8 +10910,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10846,11 +10946,17 @@
         <v>-89850456.98864762</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10882,8 +10988,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10915,8 +11027,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10948,8 +11066,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -10981,8 +11105,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11014,8 +11144,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11044,11 +11180,19 @@
         <v>-90499509.39054762</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="J323" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11077,11 +11221,19 @@
         <v>-90499509.39054762</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>1.796</v>
+      </c>
+      <c r="J324" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11110,11 +11262,19 @@
         <v>-90434657.66404761</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>1.796</v>
+      </c>
+      <c r="J325" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11146,8 +11306,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11179,8 +11345,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11212,8 +11384,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11245,8 +11423,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11278,8 +11462,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11311,8 +11501,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11344,8 +11540,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11377,8 +11579,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11410,8 +11618,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11443,8 +11657,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11476,8 +11696,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11506,11 +11732,19 @@
         <v>-92090948.28564763</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="J337" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11539,7 +11773,7 @@
         <v>-92090948.28564763</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I338" t="n">
         <v>1.779</v>
@@ -11547,7 +11781,11 @@
       <c r="J338" t="n">
         <v>1.779</v>
       </c>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11576,7 +11814,7 @@
         <v>-92090668.28564763</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I339" t="n">
         <v>1.779</v>
@@ -11586,7 +11824,7 @@
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L339" t="n">
@@ -11617,15 +11855,17 @@
         <v>-92090948.28564763</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>1.794</v>
+      </c>
       <c r="J340" t="n">
         <v>1.779</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L340" t="n">
@@ -11656,11 +11896,19 @@
         <v>-92092312.47064763</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>1.793</v>
+      </c>
+      <c r="J341" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11692,8 +11940,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11725,8 +11979,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11755,11 +12015,19 @@
         <v>-92344152.44464764</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="J344" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11788,11 +12056,19 @@
         <v>-92359228.10814764</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="J345" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11821,11 +12097,19 @@
         <v>-92281025.30654764</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="J346" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11854,15 +12138,17 @@
         <v>-92271165.89294764</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I347" t="n">
         <v>1.779</v>
       </c>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>1.779</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L347" t="n">
@@ -11871,6 +12157,6 @@
       <c r="M347" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest AOA.xlsx
+++ b/BackTest/2020-01-21 BackTest AOA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -913,7 +913,7 @@
         <v>-753103.6506659568</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-641728.3256659568</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-641728.3256659568</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-3529608.325665957</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-3755734.706365957</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-3765617.772165957</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-6552600.772165957</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-4985610.772165957</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-4310204.772165957</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-4310204.772165957</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>56823.22783404309</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-2913228.772165957</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-1326661.772165957</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-512353.7721659569</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>2240078.227834043</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>1592795.227834043</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>1592795.227834043</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>4433423.227834043</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>5727044.227834043</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>5772825.227834043</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>5066326.387134042</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>5321772.387134042</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>5545741.387134042</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>2033869.387134042</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>2463227.917334042</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>2259177.917334042</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>2259177.917334042</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>2239705.113434041</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>3176333.284834041</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>568022.2848340413</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>1492265.284834041</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-1232607.715165959</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-856059.7151659587</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-1037591.258065959</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-4105553.258065959</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-5937221.258065959</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-4916905.258065959</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-4916635.258065959</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-4916905.258065959</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-10732593.38726596</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-12870429.38726596</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-12458938.14526596</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-12458388.14526596</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-14252955.14526596</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-16161375.14526596</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-15485899.40236596</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-15485624.40236596</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-15754369.40236596</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-18880121.40236596</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-22457248.40236596</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-22456973.40236596</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-24795260.84999425</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-24795535.84999425</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-23317503.40239425</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-26718891.37709425</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-26714891.37709425</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-28294889.37709425</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-30264508.37709425</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-30264508.37709425</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-30264508.37709425</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-30264233.37709425</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-30264508.37709425</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-30988684.37709425</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-30988684.37709425</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-30988134.37709425</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-30988134.37709425</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-33529908.37709425</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-33529608.37709425</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-34239822.37709425</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-35838273.18179426</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-38747688.93959425</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-38747688.93959425</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-38747413.93959425</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-41180208.93959425</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -9955,10 +9955,14 @@
         <v>-89885371.93864763</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="J290" t="n">
+        <v>1.789</v>
+      </c>
       <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
@@ -9991,8 +9995,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10024,8 +10034,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10322,9 +10338,11 @@
         <v>-90793379.84374763</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>1.779</v>
+      </c>
       <c r="J301" t="n">
         <v>1.779</v>
       </c>
@@ -10361,9 +10379,11 @@
         <v>-90793099.84374763</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>1.778</v>
+      </c>
       <c r="J302" t="n">
         <v>1.779</v>
       </c>
@@ -11180,11 +11200,9 @@
         <v>-90499509.39054762</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>1.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
         <v>1.779</v>
       </c>
@@ -11221,11 +11239,9 @@
         <v>-90499509.39054762</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>1.796</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
         <v>1.779</v>
       </c>
@@ -11262,11 +11278,9 @@
         <v>-90434657.66404761</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>1.796</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
         <v>1.779</v>
       </c>
@@ -11732,11 +11746,9 @@
         <v>-92090948.28564763</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>1.779</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
         <v>1.779</v>
       </c>
@@ -11773,11 +11785,9 @@
         <v>-92090948.28564763</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>1.779</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
         <v>1.779</v>
       </c>
@@ -11814,11 +11824,9 @@
         <v>-92090668.28564763</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>1.779</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
         <v>1.779</v>
       </c>
@@ -11855,11 +11863,9 @@
         <v>-92090948.28564763</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I340" t="n">
-        <v>1.794</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
         <v>1.779</v>
       </c>
@@ -11896,11 +11902,9 @@
         <v>-92092312.47064763</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>1.793</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
         <v>1.779</v>
       </c>
@@ -12015,11 +12019,9 @@
         <v>-92344152.44464764</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
-      </c>
-      <c r="I344" t="n">
-        <v>1.779</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
         <v>1.779</v>
       </c>
@@ -12056,11 +12058,9 @@
         <v>-92359228.10814764</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
-      </c>
-      <c r="I345" t="n">
-        <v>1.779</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
         <v>1.779</v>
       </c>
@@ -12097,11 +12097,9 @@
         <v>-92281025.30654764</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>1.778</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
         <v>1.779</v>
       </c>
@@ -12138,11 +12136,9 @@
         <v>-92271165.89294764</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>1.779</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
         <v>1.779</v>
       </c>
@@ -12157,6 +12153,6 @@
       <c r="M347" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest AOA.xlsx
+++ b/BackTest/2020-01-21 BackTest AOA.xlsx
@@ -913,7 +913,7 @@
         <v>-753103.6506659568</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-641728.3256659568</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-641728.3256659568</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-3529608.325665957</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-3755734.706365957</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-3765617.772165957</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-6552600.772165957</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-4985610.772165957</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-4310204.772165957</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-4310204.772165957</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>56823.22783404309</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-2913228.772165957</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-1326661.772165957</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-512353.7721659569</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>2240078.227834043</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>1592795.227834043</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>1592795.227834043</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>4433423.227834043</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>6002734.227834043</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>5208231.227834043</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>5956113.227834043</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>5956113.227834043</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>8446149.227834042</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>7321048.227834042</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>8967518.227834042</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>7239832.227834042</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>7458130.227834042</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>4196666.227834042</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>4186499.387134042</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>4519328.387134042</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>2033869.387134042</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>2259177.917334042</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>2259177.917334042</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>2239705.113434041</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>3176333.284834041</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>568022.2848340413</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-1037591.258065959</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-803162.2580659587</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-3269370.258065959</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-5937221.258065959</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-3582143.258065959</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-4916635.258065959</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-4916905.258065959</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-7935321.258065959</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-7935321.258065959</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-7935051.258065959</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-7935321.258065959</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-9383457.258065958</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-9383457.258065958</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-7099089.258065958</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-8292708.258065958</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-8292168.258065958</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-9064764.905065957</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-9064764.905065957</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-9064764.905065957</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-10732593.38726596</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-14252955.14526596</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-16161375.14526596</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-15485899.40236596</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-18880121.40236596</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-19971517.40236596</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-22457248.40236596</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-22456973.40236596</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-25618434.40236596</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-24795260.84999425</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-24795535.84999425</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-24795535.84999425</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-24795535.84999425</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-22790525.84999425</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-22790800.84999425</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-23317503.40239425</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-26718891.37709425</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-26714891.37709425</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-28294889.37709425</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-30264508.37709425</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-30264508.37709425</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-30988684.37709425</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-30988684.37709425</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-30988134.37709425</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-33529908.37709425</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-33529608.37709425</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-34239822.37709425</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-34239822.37709425</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-34239547.37709425</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-35839548.18179426</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-35838998.18179426</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-35838273.18179426</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-37184710.18179426</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-37184710.18179426</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-34717602.18179426</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-37360572.93959425</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-38747688.93959425</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-38747688.93959425</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-38747413.93959425</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-41180483.93959425</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-43394499.52909426</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-43394224.52909426</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-43394779.52909426</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-43837826.52909426</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-43837826.52909426</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-43837826.52909426</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-43837826.52909426</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-43838101.52909426</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-43847124.90169425</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-43846849.90169425</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-43847124.90169425</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-44032098.32629425</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-44037890.44883254</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-44039006.51343254</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -9955,14 +9955,10 @@
         <v>-89885371.93864763</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>1.789</v>
-      </c>
-      <c r="J290" t="n">
-        <v>1.789</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
@@ -9995,14 +9991,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>1.789</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10034,14 +10024,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>1.789</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11824,9 +11808,11 @@
         <v>-92090668.28564763</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>1.779</v>
+      </c>
       <c r="J339" t="n">
         <v>1.779</v>
       </c>
@@ -11863,9 +11849,11 @@
         <v>-92090948.28564763</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>1.794</v>
+      </c>
       <c r="J340" t="n">
         <v>1.779</v>
       </c>
@@ -11902,9 +11890,11 @@
         <v>-92092312.47064763</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>1.793</v>
+      </c>
       <c r="J341" t="n">
         <v>1.779</v>
       </c>
@@ -11941,9 +11931,11 @@
         <v>-92092312.47064763</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>1.79</v>
+      </c>
       <c r="J342" t="n">
         <v>1.779</v>
       </c>
@@ -11980,9 +11972,11 @@
         <v>-92344152.44464764</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>1.79</v>
+      </c>
       <c r="J343" t="n">
         <v>1.779</v>
       </c>
@@ -12019,9 +12013,11 @@
         <v>-92344152.44464764</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>1.779</v>
+      </c>
       <c r="J344" t="n">
         <v>1.779</v>
       </c>
@@ -12058,9 +12054,11 @@
         <v>-92359228.10814764</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>1.779</v>
+      </c>
       <c r="J345" t="n">
         <v>1.779</v>
       </c>
@@ -12097,9 +12095,11 @@
         <v>-92281025.30654764</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>1.778</v>
+      </c>
       <c r="J346" t="n">
         <v>1.779</v>
       </c>
@@ -12136,9 +12136,11 @@
         <v>-92271165.89294764</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>1.779</v>
+      </c>
       <c r="J347" t="n">
         <v>1.779</v>
       </c>

--- a/BackTest/2020-01-21 BackTest AOA.xlsx
+++ b/BackTest/2020-01-21 BackTest AOA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M347"/>
+  <dimension ref="A1:L347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>2252358</v>
       </c>
       <c r="G2" t="n">
-        <v>-6159456.048365956</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>1147835</v>
       </c>
       <c r="G3" t="n">
-        <v>-7307291.048365956</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>69647.66680000001</v>
       </c>
       <c r="G4" t="n">
-        <v>-7237643.381565956</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>696800</v>
       </c>
       <c r="G5" t="n">
-        <v>-6540843.381565956</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>3556643</v>
       </c>
       <c r="G6" t="n">
-        <v>-10097486.38156596</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>891.6537</v>
       </c>
       <c r="G7" t="n">
-        <v>-10097486.38156596</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>2723274</v>
       </c>
       <c r="G8" t="n">
-        <v>-7374212.381565956</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>767096</v>
       </c>
       <c r="G9" t="n">
-        <v>-6607116.381565956</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>265633.646</v>
       </c>
       <c r="G10" t="n">
-        <v>-6607116.381565956</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>223781.5453</v>
       </c>
       <c r="G11" t="n">
-        <v>-6830897.926865957</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>2661376</v>
       </c>
       <c r="G12" t="n">
-        <v>-4169521.926865957</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>1522025.7205</v>
       </c>
       <c r="G13" t="n">
-        <v>-4169521.926865957</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>897.0368</v>
       </c>
       <c r="G14" t="n">
-        <v>-4169521.926865957</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>3349367</v>
       </c>
       <c r="G15" t="n">
-        <v>-820154.9268659567</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>67051.27619999999</v>
       </c>
       <c r="G16" t="n">
-        <v>-753103.6506659568</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>111375.325</v>
       </c>
       <c r="G17" t="n">
-        <v>-641728.3256659568</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>239746.5952</v>
       </c>
       <c r="G18" t="n">
-        <v>-641728.3256659568</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>2887880</v>
       </c>
       <c r="G19" t="n">
-        <v>-3529608.325665957</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>812680</v>
       </c>
       <c r="G20" t="n">
-        <v>-3529608.325665957</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>1354124.4234</v>
       </c>
       <c r="G21" t="n">
-        <v>-3529608.325665957</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>4135948</v>
       </c>
       <c r="G22" t="n">
-        <v>-3529608.325665957</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>226126.3807</v>
       </c>
       <c r="G23" t="n">
-        <v>-3755734.706365957</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>9883.0658</v>
       </c>
       <c r="G24" t="n">
-        <v>-3765617.772165957</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>2786983</v>
       </c>
       <c r="G25" t="n">
-        <v>-6552600.772165957</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>1566990</v>
       </c>
       <c r="G26" t="n">
-        <v>-4985610.772165957</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>675406</v>
       </c>
       <c r="G27" t="n">
-        <v>-4310204.772165957</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>3064875</v>
       </c>
       <c r="G28" t="n">
-        <v>-4310204.772165957</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>2788489</v>
       </c>
       <c r="G29" t="n">
-        <v>-1521715.772165957</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>634817</v>
       </c>
       <c r="G30" t="n">
-        <v>-1521715.772165957</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>1578539</v>
       </c>
       <c r="G31" t="n">
-        <v>56823.22783404309</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>2970052</v>
       </c>
       <c r="G32" t="n">
-        <v>-2913228.772165957</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>1586567</v>
       </c>
       <c r="G33" t="n">
-        <v>-1326661.772165957</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>2089792</v>
       </c>
       <c r="G34" t="n">
-        <v>-1326661.772165957</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>814308</v>
       </c>
       <c r="G35" t="n">
-        <v>-512353.7721659569</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>2752432</v>
       </c>
       <c r="G36" t="n">
-        <v>2240078.227834043</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>647283</v>
       </c>
       <c r="G37" t="n">
-        <v>1592795.227834043</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>2827473</v>
       </c>
       <c r="G38" t="n">
-        <v>1592795.227834043</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>612415</v>
       </c>
       <c r="G39" t="n">
-        <v>1592795.227834043</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>3322834</v>
       </c>
       <c r="G40" t="n">
-        <v>4915629.227834043</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>482206</v>
       </c>
       <c r="G41" t="n">
-        <v>4433423.227834043</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>2512661.389501565</v>
       </c>
       <c r="G42" t="n">
-        <v>4433423.227834043</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>1293621</v>
       </c>
       <c r="G43" t="n">
-        <v>5727044.227834043</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>1822340</v>
       </c>
       <c r="G44" t="n">
-        <v>7549384.227834043</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>1776559</v>
       </c>
       <c r="G45" t="n">
-        <v>5772825.227834043</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>229909</v>
       </c>
       <c r="G46" t="n">
-        <v>6002734.227834043</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>3199706</v>
       </c>
       <c r="G47" t="n">
-        <v>6002734.227834043</v>
-      </c>
-      <c r="H47" t="n">
         <v>2</v>
       </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>794503</v>
       </c>
       <c r="G48" t="n">
-        <v>5208231.227834043</v>
-      </c>
-      <c r="H48" t="n">
         <v>2</v>
       </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>747882</v>
       </c>
       <c r="G49" t="n">
-        <v>5956113.227834043</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>3155940</v>
       </c>
       <c r="G50" t="n">
-        <v>5956113.227834043</v>
-      </c>
-      <c r="H50" t="n">
         <v>2</v>
       </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>2490036</v>
       </c>
       <c r="G51" t="n">
-        <v>8446149.227834042</v>
-      </c>
-      <c r="H51" t="n">
         <v>2</v>
       </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>1125101</v>
       </c>
       <c r="G52" t="n">
-        <v>7321048.227834042</v>
-      </c>
-      <c r="H52" t="n">
         <v>2</v>
       </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>1646470</v>
       </c>
       <c r="G53" t="n">
-        <v>8967518.227834042</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>1727686</v>
       </c>
       <c r="G54" t="n">
-        <v>7239832.227834042</v>
-      </c>
-      <c r="H54" t="n">
         <v>2</v>
       </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>218298</v>
       </c>
       <c r="G55" t="n">
-        <v>7458130.227834042</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>3261464</v>
       </c>
       <c r="G56" t="n">
-        <v>4196666.227834042</v>
-      </c>
-      <c r="H56" t="n">
         <v>2</v>
       </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>10166.8407</v>
       </c>
       <c r="G57" t="n">
-        <v>4186499.387134042</v>
-      </c>
-      <c r="H57" t="n">
         <v>2</v>
       </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>879827</v>
       </c>
       <c r="G58" t="n">
-        <v>5066326.387134042</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>3043460</v>
       </c>
       <c r="G59" t="n">
-        <v>5066326.387134042</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>546998</v>
       </c>
       <c r="G60" t="n">
-        <v>4519328.387134042</v>
-      </c>
-      <c r="H60" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>802444</v>
       </c>
       <c r="G61" t="n">
-        <v>5321772.387134042</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>2898800</v>
       </c>
       <c r="G62" t="n">
-        <v>5321772.387134042</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>223969</v>
       </c>
       <c r="G63" t="n">
-        <v>5545741.387134042</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>3511872</v>
       </c>
       <c r="G64" t="n">
-        <v>2033869.387134042</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>429358.5302</v>
       </c>
       <c r="G65" t="n">
-        <v>2463227.917334042</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>204050</v>
       </c>
       <c r="G66" t="n">
-        <v>2259177.917334042</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>419502</v>
       </c>
       <c r="G67" t="n">
-        <v>2259177.917334042</v>
-      </c>
-      <c r="H67" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>19472.8039</v>
       </c>
       <c r="G68" t="n">
-        <v>2239705.113434041</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>936628.1714</v>
       </c>
       <c r="G69" t="n">
-        <v>3176333.284834041</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>2608311</v>
       </c>
       <c r="G70" t="n">
-        <v>568022.2848340413</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>924243</v>
       </c>
       <c r="G71" t="n">
-        <v>1492265.284834041</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>2724873</v>
       </c>
       <c r="G72" t="n">
-        <v>-1232607.715165959</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>2287061</v>
       </c>
       <c r="G73" t="n">
-        <v>1054453.284834041</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>1910513</v>
       </c>
       <c r="G74" t="n">
-        <v>-856059.7151659587</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>181531.5429</v>
       </c>
       <c r="G75" t="n">
-        <v>-1037591.258065959</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>268650.4191</v>
       </c>
       <c r="G76" t="n">
-        <v>-1037591.258065959</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>234429</v>
       </c>
       <c r="G77" t="n">
-        <v>-803162.2580659587</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>3302391</v>
       </c>
       <c r="G78" t="n">
-        <v>-4105553.258065959</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>836183</v>
       </c>
       <c r="G79" t="n">
-        <v>-3269370.258065959</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>2667851</v>
       </c>
       <c r="G80" t="n">
-        <v>-5937221.258065959</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>2355078</v>
       </c>
       <c r="G81" t="n">
-        <v>-3582143.258065959</v>
-      </c>
-      <c r="H81" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>1334762</v>
       </c>
       <c r="G82" t="n">
-        <v>-4916905.258065959</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>270</v>
       </c>
       <c r="G83" t="n">
-        <v>-4916635.258065959</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>270</v>
       </c>
       <c r="G84" t="n">
-        <v>-4916905.258065959</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>270</v>
       </c>
       <c r="G85" t="n">
-        <v>-4916635.258065959</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>270</v>
       </c>
       <c r="G86" t="n">
-        <v>-4916905.258065959</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>3018416</v>
       </c>
       <c r="G87" t="n">
-        <v>-7935321.258065959</v>
-      </c>
-      <c r="H87" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>601410</v>
       </c>
       <c r="G88" t="n">
-        <v>-7935321.258065959</v>
-      </c>
-      <c r="H88" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>270</v>
       </c>
       <c r="G89" t="n">
-        <v>-7935051.258065959</v>
-      </c>
-      <c r="H89" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>270</v>
       </c>
       <c r="G90" t="n">
-        <v>-7935321.258065959</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>1448136</v>
       </c>
       <c r="G91" t="n">
-        <v>-9383457.258065958</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>2450570</v>
       </c>
       <c r="G92" t="n">
-        <v>-9383457.258065958</v>
-      </c>
-      <c r="H92" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>2284368</v>
       </c>
       <c r="G93" t="n">
-        <v>-7099089.258065958</v>
-      </c>
-      <c r="H93" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>1193619</v>
       </c>
       <c r="G94" t="n">
-        <v>-8292708.258065958</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>540</v>
       </c>
       <c r="G95" t="n">
-        <v>-8292168.258065958</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>772596.647</v>
       </c>
       <c r="G96" t="n">
-        <v>-9064764.905065957</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>272925.7642</v>
       </c>
       <c r="G97" t="n">
-        <v>-9064764.905065957</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>267467.249</v>
       </c>
       <c r="G98" t="n">
-        <v>-9064764.905065957</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>1667828.4822</v>
       </c>
       <c r="G99" t="n">
-        <v>-10732593.38726596</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>2137836</v>
       </c>
       <c r="G100" t="n">
-        <v>-12870429.38726596</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>411491.242</v>
       </c>
       <c r="G101" t="n">
-        <v>-12458938.14526596</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>550</v>
       </c>
       <c r="G102" t="n">
-        <v>-12458388.14526596</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>1794567</v>
       </c>
       <c r="G103" t="n">
-        <v>-14252955.14526596</v>
-      </c>
-      <c r="H103" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>1908420</v>
       </c>
       <c r="G104" t="n">
-        <v>-16161375.14526596</v>
-      </c>
-      <c r="H104" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>675475.7429</v>
       </c>
       <c r="G105" t="n">
-        <v>-15485899.40236596</v>
-      </c>
-      <c r="H105" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>2839042</v>
       </c>
       <c r="G106" t="n">
-        <v>-15485899.40236596</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>275</v>
       </c>
       <c r="G107" t="n">
-        <v>-15485624.40236596</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>268745</v>
       </c>
       <c r="G108" t="n">
-        <v>-15754369.40236596</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>3126027</v>
       </c>
       <c r="G109" t="n">
-        <v>-18880396.40236596</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>275</v>
       </c>
       <c r="G110" t="n">
-        <v>-18880121.40236596</v>
-      </c>
-      <c r="H110" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>1091396</v>
       </c>
       <c r="G111" t="n">
-        <v>-19971517.40236596</v>
-      </c>
-      <c r="H111" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>2485731</v>
       </c>
       <c r="G112" t="n">
-        <v>-22457248.40236596</v>
-      </c>
-      <c r="H112" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>275</v>
       </c>
       <c r="G113" t="n">
-        <v>-22456973.40236596</v>
-      </c>
-      <c r="H113" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>3161461</v>
       </c>
       <c r="G114" t="n">
-        <v>-25618434.40236596</v>
-      </c>
-      <c r="H114" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>823173.5523717062</v>
       </c>
       <c r="G115" t="n">
-        <v>-24795260.84999425</v>
-      </c>
-      <c r="H115" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>275</v>
       </c>
       <c r="G116" t="n">
-        <v>-24795535.84999425</v>
-      </c>
-      <c r="H116" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>15746.1451</v>
       </c>
       <c r="G117" t="n">
-        <v>-24795535.84999425</v>
-      </c>
-      <c r="H117" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>2394853</v>
       </c>
       <c r="G118" t="n">
-        <v>-24795535.84999425</v>
-      </c>
-      <c r="H118" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>2005010</v>
       </c>
       <c r="G119" t="n">
-        <v>-22790525.84999425</v>
-      </c>
-      <c r="H119" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>275</v>
       </c>
       <c r="G120" t="n">
-        <v>-22790800.84999425</v>
-      </c>
-      <c r="H120" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>526702.5524</v>
       </c>
       <c r="G121" t="n">
-        <v>-23317503.40239425</v>
-      </c>
-      <c r="H121" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>3401387.9747</v>
       </c>
       <c r="G122" t="n">
-        <v>-26718891.37709425</v>
-      </c>
-      <c r="H122" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>4000</v>
       </c>
       <c r="G123" t="n">
-        <v>-26714891.37709425</v>
-      </c>
-      <c r="H123" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>1579998</v>
       </c>
       <c r="G124" t="n">
-        <v>-28294889.37709425</v>
-      </c>
-      <c r="H124" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>1969619</v>
       </c>
       <c r="G125" t="n">
-        <v>-30264508.37709425</v>
-      </c>
-      <c r="H125" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>3063140</v>
       </c>
       <c r="G126" t="n">
-        <v>-30264508.37709425</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>1313491</v>
       </c>
       <c r="G127" t="n">
-        <v>-30264508.37709425</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>275</v>
       </c>
       <c r="G128" t="n">
-        <v>-30264233.37709425</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>275</v>
       </c>
       <c r="G129" t="n">
-        <v>-30264508.37709425</v>
-      </c>
-      <c r="H129" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>724176</v>
       </c>
       <c r="G130" t="n">
-        <v>-30988684.37709425</v>
-      </c>
-      <c r="H130" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>3046105</v>
       </c>
       <c r="G131" t="n">
-        <v>-30988684.37709425</v>
-      </c>
-      <c r="H131" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>550</v>
       </c>
       <c r="G132" t="n">
-        <v>-30988134.37709425</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>1052811</v>
       </c>
       <c r="G133" t="n">
-        <v>-30988134.37709425</v>
-      </c>
-      <c r="H133" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>2541774</v>
       </c>
       <c r="G134" t="n">
-        <v>-33529908.37709425</v>
-      </c>
-      <c r="H134" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>300</v>
       </c>
       <c r="G135" t="n">
-        <v>-33529608.37709425</v>
-      </c>
-      <c r="H135" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>710214</v>
       </c>
       <c r="G136" t="n">
-        <v>-34239822.37709425</v>
-      </c>
-      <c r="H136" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>2909547</v>
       </c>
       <c r="G137" t="n">
-        <v>-34239822.37709425</v>
-      </c>
-      <c r="H137" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>275</v>
       </c>
       <c r="G138" t="n">
-        <v>-34239547.37709425</v>
-      </c>
-      <c r="H138" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>1600000.8047</v>
       </c>
       <c r="G139" t="n">
-        <v>-35839548.18179426</v>
-      </c>
-      <c r="H139" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>550</v>
       </c>
       <c r="G140" t="n">
-        <v>-35838998.18179426</v>
-      </c>
-      <c r="H140" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>725</v>
       </c>
       <c r="G141" t="n">
-        <v>-35838273.18179426</v>
-      </c>
-      <c r="H141" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>1346437</v>
       </c>
       <c r="G142" t="n">
-        <v>-37184710.18179426</v>
-      </c>
-      <c r="H142" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>3125629</v>
       </c>
       <c r="G143" t="n">
-        <v>-37184710.18179426</v>
-      </c>
-      <c r="H143" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>2467108</v>
       </c>
       <c r="G144" t="n">
-        <v>-34717602.18179426</v>
-      </c>
-      <c r="H144" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>1133922</v>
       </c>
       <c r="G145" t="n">
-        <v>-35851524.18179426</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>37969.2422</v>
       </c>
       <c r="G146" t="n">
-        <v>-35813554.93959425</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>1547018</v>
       </c>
       <c r="G147" t="n">
-        <v>-37360572.93959425</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>2230387.7291</v>
       </c>
       <c r="G148" t="n">
-        <v>-37360572.93959425</v>
-      </c>
-      <c r="H148" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>275</v>
       </c>
       <c r="G149" t="n">
-        <v>-37360297.93959425</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>275</v>
       </c>
       <c r="G150" t="n">
-        <v>-37360572.93959425</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>1387116</v>
       </c>
       <c r="G151" t="n">
-        <v>-38747688.93959425</v>
-      </c>
-      <c r="H151" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>2889239</v>
       </c>
       <c r="G152" t="n">
-        <v>-38747688.93959425</v>
-      </c>
-      <c r="H152" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>822903</v>
       </c>
       <c r="G153" t="n">
-        <v>-38747688.93959425</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>3060898</v>
       </c>
       <c r="G154" t="n">
-        <v>-38747688.93959425</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>275</v>
       </c>
       <c r="G155" t="n">
-        <v>-38747413.93959425</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>1675366</v>
       </c>
       <c r="G156" t="n">
-        <v>-38747413.93959425</v>
-      </c>
-      <c r="H156" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,15 @@
         <v>2433070</v>
       </c>
       <c r="G157" t="n">
-        <v>-41180483.93959425</v>
-      </c>
-      <c r="H157" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5123,15 @@
         <v>275</v>
       </c>
       <c r="G158" t="n">
-        <v>-41180208.93959425</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5153,15 @@
         <v>2992436</v>
       </c>
       <c r="G159" t="n">
-        <v>-44172644.93959425</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5183,15 @@
         <v>1130088</v>
       </c>
       <c r="G160" t="n">
-        <v>-45302732.93959425</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5213,15 @@
         <v>5043.9305</v>
       </c>
       <c r="G161" t="n">
-        <v>-45302732.93959425</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5243,15 @@
         <v>10979.365</v>
       </c>
       <c r="G162" t="n">
-        <v>-45313712.30459426</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5273,15 @@
         <v>273</v>
       </c>
       <c r="G163" t="n">
-        <v>-45313439.30459426</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5303,15 @@
         <v>954.6772999999999</v>
       </c>
       <c r="G164" t="n">
-        <v>-45314393.98189425</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5333,15 @@
         <v>2353827</v>
       </c>
       <c r="G165" t="n">
-        <v>-42960566.98189425</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5363,15 @@
         <v>2066174</v>
       </c>
       <c r="G166" t="n">
-        <v>-45026740.98189425</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5393,15 @@
         <v>2038677</v>
       </c>
       <c r="G167" t="n">
-        <v>-45026740.98189425</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5423,15 @@
         <v>1632518.4528</v>
       </c>
       <c r="G168" t="n">
-        <v>-43394222.52909426</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5453,15 @@
         <v>273</v>
       </c>
       <c r="G169" t="n">
-        <v>-43393949.52909426</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5483,15 @@
         <v>550</v>
       </c>
       <c r="G170" t="n">
-        <v>-43394499.52909426</v>
-      </c>
-      <c r="H170" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5513,15 @@
         <v>275</v>
       </c>
       <c r="G171" t="n">
-        <v>-43394224.52909426</v>
-      </c>
-      <c r="H171" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5543,15 @@
         <v>555</v>
       </c>
       <c r="G172" t="n">
-        <v>-43394779.52909426</v>
-      </c>
-      <c r="H172" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5573,15 @@
         <v>443047</v>
       </c>
       <c r="G173" t="n">
-        <v>-43837826.52909426</v>
-      </c>
-      <c r="H173" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5603,15 @@
         <v>155618.0835</v>
       </c>
       <c r="G174" t="n">
-        <v>-43837826.52909426</v>
-      </c>
-      <c r="H174" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5633,15 @@
         <v>85657.09849999999</v>
       </c>
       <c r="G175" t="n">
-        <v>-43837826.52909426</v>
-      </c>
-      <c r="H175" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5663,15 @@
         <v>205094.8295</v>
       </c>
       <c r="G176" t="n">
-        <v>-43837826.52909426</v>
-      </c>
-      <c r="H176" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5693,15 @@
         <v>275</v>
       </c>
       <c r="G177" t="n">
-        <v>-43838101.52909426</v>
-      </c>
-      <c r="H177" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5723,15 @@
         <v>9023.372600000001</v>
       </c>
       <c r="G178" t="n">
-        <v>-43847124.90169425</v>
-      </c>
-      <c r="H178" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5753,15 @@
         <v>275</v>
       </c>
       <c r="G179" t="n">
-        <v>-43846849.90169425</v>
-      </c>
-      <c r="H179" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5783,15 @@
         <v>275</v>
       </c>
       <c r="G180" t="n">
-        <v>-43847124.90169425</v>
-      </c>
-      <c r="H180" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5813,15 @@
         <v>184973.4246</v>
       </c>
       <c r="G181" t="n">
-        <v>-44032098.32629425</v>
-      </c>
-      <c r="H181" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5843,15 @@
         <v>5792.122538293217</v>
       </c>
       <c r="G182" t="n">
-        <v>-44037890.44883254</v>
-      </c>
-      <c r="H182" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5873,15 @@
         <v>1116.0646</v>
       </c>
       <c r="G183" t="n">
-        <v>-44039006.51343254</v>
-      </c>
-      <c r="H183" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5903,15 @@
         <v>7000000</v>
       </c>
       <c r="G184" t="n">
-        <v>-51039006.51343254</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5933,15 @@
         <v>773028</v>
       </c>
       <c r="G185" t="n">
-        <v>-50265978.51343254</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +5963,15 @@
         <v>3888198.7343</v>
       </c>
       <c r="G186" t="n">
-        <v>-54154177.24773254</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +5993,15 @@
         <v>546238</v>
       </c>
       <c r="G187" t="n">
-        <v>-53607939.24773254</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6023,15 @@
         <v>20538.4608</v>
       </c>
       <c r="G188" t="n">
-        <v>-53587400.78693254</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6053,15 @@
         <v>275</v>
       </c>
       <c r="G189" t="n">
-        <v>-53587125.78693254</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6083,15 @@
         <v>3826012.6897</v>
       </c>
       <c r="G190" t="n">
-        <v>-57413138.47663254</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6113,15 @@
         <v>15025.3988</v>
       </c>
       <c r="G191" t="n">
-        <v>-57428163.87543254</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6143,15 @@
         <v>639197.8239</v>
       </c>
       <c r="G192" t="n">
-        <v>-57428163.87543254</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6173,15 @@
         <v>12428.7996</v>
       </c>
       <c r="G193" t="n">
-        <v>-57415735.07583255</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6203,15 @@
         <v>5000</v>
       </c>
       <c r="G194" t="n">
-        <v>-57420735.07583255</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6233,15 @@
         <v>280</v>
       </c>
       <c r="G195" t="n">
-        <v>-57420455.07583255</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6263,15 @@
         <v>118308.7033</v>
       </c>
       <c r="G196" t="n">
-        <v>-57538763.77913254</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6293,15 @@
         <v>115755</v>
       </c>
       <c r="G197" t="n">
-        <v>-57654518.77913254</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6323,15 @@
         <v>235280.5089</v>
       </c>
       <c r="G198" t="n">
-        <v>-57889799.28803255</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6353,15 @@
         <v>40304.378</v>
       </c>
       <c r="G199" t="n">
-        <v>-57930103.66603255</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6383,15 @@
         <v>33225.681</v>
       </c>
       <c r="G200" t="n">
-        <v>-57896877.98503254</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6413,15 @@
         <v>194019.2967</v>
       </c>
       <c r="G201" t="n">
-        <v>-57702858.68833254</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6443,15 @@
         <v>1262767.2844</v>
       </c>
       <c r="G202" t="n">
-        <v>-57702858.68833254</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6473,15 @@
         <v>1273695.5527</v>
       </c>
       <c r="G203" t="n">
-        <v>-56429163.13563254</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6503,15 @@
         <v>280</v>
       </c>
       <c r="G204" t="n">
-        <v>-56429163.13563254</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +6533,15 @@
         <v>268971.956</v>
       </c>
       <c r="G205" t="n">
-        <v>-56429163.13563254</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +6563,15 @@
         <v>280</v>
       </c>
       <c r="G206" t="n">
-        <v>-56428883.13563254</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +6593,15 @@
         <v>927207.956</v>
       </c>
       <c r="G207" t="n">
-        <v>-57356091.09163254</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +6623,15 @@
         <v>2753443</v>
       </c>
       <c r="G208" t="n">
-        <v>-57356091.09163254</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +6653,15 @@
         <v>550</v>
       </c>
       <c r="G209" t="n">
-        <v>-57355541.09163254</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +6683,15 @@
         <v>280</v>
       </c>
       <c r="G210" t="n">
-        <v>-57355261.09163254</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +6713,15 @@
         <v>8771.750684931507</v>
       </c>
       <c r="G211" t="n">
-        <v>-57346489.34094761</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +6743,15 @@
         <v>2537866</v>
       </c>
       <c r="G212" t="n">
-        <v>-59884355.34094761</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +6773,15 @@
         <v>1157929</v>
       </c>
       <c r="G213" t="n">
-        <v>-61042284.34094761</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +6803,15 @@
         <v>280</v>
       </c>
       <c r="G214" t="n">
-        <v>-61042004.34094761</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +6833,15 @@
         <v>674333</v>
       </c>
       <c r="G215" t="n">
-        <v>-61716337.34094761</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +6863,15 @@
         <v>2936164</v>
       </c>
       <c r="G216" t="n">
-        <v>-61716337.34094761</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +6893,15 @@
         <v>550</v>
       </c>
       <c r="G217" t="n">
-        <v>-61715787.34094761</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +6923,15 @@
         <v>1530399.004</v>
       </c>
       <c r="G218" t="n">
-        <v>-63246186.34494761</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +6953,15 @@
         <v>2257592</v>
       </c>
       <c r="G219" t="n">
-        <v>-63246186.34494761</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +6983,15 @@
         <v>275</v>
       </c>
       <c r="G220" t="n">
-        <v>-63245911.34494761</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7013,15 @@
         <v>54824.4192</v>
       </c>
       <c r="G221" t="n">
-        <v>-63245911.34494761</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7043,15 @@
         <v>2567890</v>
       </c>
       <c r="G222" t="n">
-        <v>-65813801.34494761</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7073,15 @@
         <v>998629</v>
       </c>
       <c r="G223" t="n">
-        <v>-65813801.34494761</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,18 +7103,15 @@
         <v>275</v>
       </c>
       <c r="G224" t="n">
-        <v>-65813526.34494761</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7807,18 +7133,15 @@
         <v>275</v>
       </c>
       <c r="G225" t="n">
-        <v>-65813801.34494761</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7840,18 +7163,15 @@
         <v>669399</v>
       </c>
       <c r="G226" t="n">
-        <v>-66483200.34494761</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7873,18 +7193,15 @@
         <v>2780055</v>
       </c>
       <c r="G227" t="n">
-        <v>-69263255.34494761</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7906,18 +7223,15 @@
         <v>275</v>
       </c>
       <c r="G228" t="n">
-        <v>-69262980.34494761</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7939,18 +7253,15 @@
         <v>1963579</v>
       </c>
       <c r="G229" t="n">
-        <v>-71226559.34494761</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7972,18 +7283,15 @@
         <v>2343156</v>
       </c>
       <c r="G230" t="n">
-        <v>-73569715.34494761</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8005,18 +7313,15 @@
         <v>275</v>
       </c>
       <c r="G231" t="n">
-        <v>-73569440.34494761</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8038,18 +7343,15 @@
         <v>79097.9886</v>
       </c>
       <c r="G232" t="n">
-        <v>-73569440.34494761</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8071,18 +7373,15 @@
         <v>30000</v>
       </c>
       <c r="G233" t="n">
-        <v>-73569440.34494761</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8104,18 +7403,15 @@
         <v>3121559.5101</v>
       </c>
       <c r="G234" t="n">
-        <v>-76690999.85504761</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8137,18 +7433,15 @@
         <v>749284</v>
       </c>
       <c r="G235" t="n">
-        <v>-76690999.85504761</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8170,18 +7463,15 @@
         <v>275</v>
       </c>
       <c r="G236" t="n">
-        <v>-76690724.85504761</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8203,18 +7493,15 @@
         <v>3133611</v>
       </c>
       <c r="G237" t="n">
-        <v>-79824335.85504761</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8236,18 +7523,15 @@
         <v>630009</v>
       </c>
       <c r="G238" t="n">
-        <v>-79194326.85504761</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8269,18 +7553,15 @@
         <v>275</v>
       </c>
       <c r="G239" t="n">
-        <v>-79194601.85504761</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8302,18 +7583,15 @@
         <v>1125</v>
       </c>
       <c r="G240" t="n">
-        <v>-79193476.85504761</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8335,18 +7613,15 @@
         <v>2550</v>
       </c>
       <c r="G241" t="n">
-        <v>-79193476.85504761</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8368,18 +7643,15 @@
         <v>1950</v>
       </c>
       <c r="G242" t="n">
-        <v>-79193476.85504761</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8401,18 +7673,15 @@
         <v>1708</v>
       </c>
       <c r="G243" t="n">
-        <v>-79193476.85504761</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8434,18 +7703,15 @@
         <v>6000</v>
       </c>
       <c r="G244" t="n">
-        <v>-79193476.85504761</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8467,18 +7733,15 @@
         <v>1518448</v>
       </c>
       <c r="G245" t="n">
-        <v>-80711924.85504761</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8500,18 +7763,15 @@
         <v>2060170</v>
       </c>
       <c r="G246" t="n">
-        <v>-80711924.85504761</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8533,18 +7793,15 @@
         <v>1100</v>
       </c>
       <c r="G247" t="n">
-        <v>-80710824.85504761</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8566,18 +7823,15 @@
         <v>3575</v>
       </c>
       <c r="G248" t="n">
-        <v>-80710824.85504761</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8599,18 +7853,15 @@
         <v>2200</v>
       </c>
       <c r="G249" t="n">
-        <v>-80710824.85504761</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8632,18 +7883,15 @@
         <v>275</v>
       </c>
       <c r="G250" t="n">
-        <v>-80710824.85504761</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8665,18 +7913,15 @@
         <v>1366847</v>
       </c>
       <c r="G251" t="n">
-        <v>-82077671.85504761</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8698,18 +7943,15 @@
         <v>3197047</v>
       </c>
       <c r="G252" t="n">
-        <v>-82077671.85504761</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8731,18 +7973,15 @@
         <v>280</v>
       </c>
       <c r="G253" t="n">
-        <v>-82077391.85504761</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8764,18 +8003,15 @@
         <v>275</v>
       </c>
       <c r="G254" t="n">
-        <v>-82077666.85504761</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8797,18 +8033,15 @@
         <v>1391827</v>
       </c>
       <c r="G255" t="n">
-        <v>-83469493.85504761</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8830,18 +8063,15 @@
         <v>1962215</v>
       </c>
       <c r="G256" t="n">
-        <v>-83469493.85504761</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8863,18 +8093,15 @@
         <v>275</v>
       </c>
       <c r="G257" t="n">
-        <v>-83469218.85504761</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8896,18 +8123,15 @@
         <v>275</v>
       </c>
       <c r="G258" t="n">
-        <v>-83469493.85504761</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -8929,18 +8153,15 @@
         <v>1453510</v>
       </c>
       <c r="G259" t="n">
-        <v>-84923003.85504761</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -8962,18 +8183,15 @@
         <v>2325490</v>
       </c>
       <c r="G260" t="n">
-        <v>-84923003.85504761</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -8995,18 +8213,15 @@
         <v>7840.8435</v>
       </c>
       <c r="G261" t="n">
-        <v>-84930844.69854762</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9028,18 +8243,15 @@
         <v>554.0167</v>
       </c>
       <c r="G262" t="n">
-        <v>-84930290.68184762</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9061,18 +8273,15 @@
         <v>2364886</v>
       </c>
       <c r="G263" t="n">
-        <v>-87295176.68184762</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9094,18 +8303,15 @@
         <v>1487606</v>
       </c>
       <c r="G264" t="n">
-        <v>-87295176.68184762</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9127,18 +8333,15 @@
         <v>550</v>
       </c>
       <c r="G265" t="n">
-        <v>-87294626.68184762</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9160,18 +8363,15 @@
         <v>559586.6082</v>
       </c>
       <c r="G266" t="n">
-        <v>-87854213.29004762</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9193,18 +8393,15 @@
         <v>280</v>
       </c>
       <c r="G267" t="n">
-        <v>-87853933.29004762</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9226,18 +8423,15 @@
         <v>211211</v>
       </c>
       <c r="G268" t="n">
-        <v>-88065144.29004762</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9259,18 +8453,15 @@
         <v>3170962.5323</v>
       </c>
       <c r="G269" t="n">
-        <v>-91236106.82234761</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9292,18 +8483,15 @@
         <v>282647.4677</v>
       </c>
       <c r="G270" t="n">
-        <v>-91236106.82234761</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9325,18 +8513,15 @@
         <v>1418.3422</v>
       </c>
       <c r="G271" t="n">
-        <v>-91236106.82234761</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9358,18 +8543,15 @@
         <v>919466.1985000001</v>
       </c>
       <c r="G272" t="n">
-        <v>-92155573.02084762</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9391,18 +8573,15 @@
         <v>34491.1361</v>
       </c>
       <c r="G273" t="n">
-        <v>-92155573.02084762</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9424,18 +8603,15 @@
         <v>849341.0635</v>
       </c>
       <c r="G274" t="n">
-        <v>-93004914.08434762</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9457,18 +8633,15 @@
         <v>101482.7067</v>
       </c>
       <c r="G275" t="n">
-        <v>-93004914.08434762</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9490,18 +8663,15 @@
         <v>1979152</v>
       </c>
       <c r="G276" t="n">
-        <v>-91025762.08434762</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9523,18 +8693,15 @@
         <v>2160051</v>
       </c>
       <c r="G277" t="n">
-        <v>-88865711.08434762</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9556,18 +8723,15 @@
         <v>280</v>
       </c>
       <c r="G278" t="n">
-        <v>-88865991.08434762</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9589,18 +8753,15 @@
         <v>280</v>
       </c>
       <c r="G279" t="n">
-        <v>-88865711.08434762</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9622,18 +8783,15 @@
         <v>280</v>
       </c>
       <c r="G280" t="n">
-        <v>-88865991.08434762</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -9655,18 +8813,15 @@
         <v>15226.7131</v>
       </c>
       <c r="G281" t="n">
-        <v>-88881217.79744762</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -9688,18 +8843,15 @@
         <v>28875.6653</v>
       </c>
       <c r="G282" t="n">
-        <v>-88881217.79744762</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -9721,18 +8873,15 @@
         <v>487884.1113</v>
       </c>
       <c r="G283" t="n">
-        <v>-88881217.79744762</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -9754,18 +8903,15 @@
         <v>914205.5048</v>
       </c>
       <c r="G284" t="n">
-        <v>-89795423.30224763</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -9787,18 +8933,15 @@
         <v>280</v>
       </c>
       <c r="G285" t="n">
-        <v>-89795143.30224763</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -9820,18 +8963,15 @@
         <v>3264.9826</v>
       </c>
       <c r="G286" t="n">
-        <v>-89795143.30224763</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -9853,18 +8993,15 @@
         <v>280</v>
       </c>
       <c r="G287" t="n">
-        <v>-89795423.30224763</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -9886,18 +9023,15 @@
         <v>782.928</v>
       </c>
       <c r="G288" t="n">
-        <v>-89795423.30224763</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -9919,18 +9053,15 @@
         <v>50120.0821</v>
       </c>
       <c r="G289" t="n">
-        <v>-89795423.30224763</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -9952,18 +9083,15 @@
         <v>89948.6364</v>
       </c>
       <c r="G290" t="n">
-        <v>-89885371.93864763</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -9985,18 +9113,15 @@
         <v>7773.42</v>
       </c>
       <c r="G291" t="n">
-        <v>-89885371.93864763</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10018,18 +9143,15 @@
         <v>806.8796</v>
       </c>
       <c r="G292" t="n">
-        <v>-89886178.81824763</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10051,18 +9173,15 @@
         <v>2000</v>
       </c>
       <c r="G293" t="n">
-        <v>-89884178.81824763</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10084,18 +9203,15 @@
         <v>514362.7562</v>
       </c>
       <c r="G294" t="n">
-        <v>-90398541.57444763</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10117,18 +9233,15 @@
         <v>54675.4065</v>
       </c>
       <c r="G295" t="n">
-        <v>-90453216.98094763</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10150,18 +9263,15 @@
         <v>52917.8628</v>
       </c>
       <c r="G296" t="n">
-        <v>-90506134.84374763</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10183,18 +9293,15 @@
         <v>35798.7396</v>
       </c>
       <c r="G297" t="n">
-        <v>-90506134.84374763</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10216,18 +9323,15 @@
         <v>290</v>
       </c>
       <c r="G298" t="n">
-        <v>-90505844.84374763</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10249,18 +9353,15 @@
         <v>135437.4919</v>
       </c>
       <c r="G299" t="n">
-        <v>-90505844.84374763</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10282,22 +9383,19 @@
         <v>983.1652</v>
       </c>
       <c r="G300" t="n">
-        <v>-90505844.84374763</v>
+        <v>1</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>1.779</v>
       </c>
       <c r="I300" t="n">
         <v>1.779</v>
       </c>
-      <c r="J300" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10319,26 +9417,23 @@
         <v>287535</v>
       </c>
       <c r="G301" t="n">
-        <v>-90793379.84374763</v>
+        <v>1</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>1.779</v>
       </c>
       <c r="I301" t="n">
         <v>1.779</v>
       </c>
-      <c r="J301" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="K301" t="inlineStr">
+      <c r="J301" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10360,26 +9455,23 @@
         <v>280</v>
       </c>
       <c r="G302" t="n">
-        <v>-90793099.84374763</v>
+        <v>1</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>1.778</v>
       </c>
       <c r="I302" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="J302" t="n">
         <v>1.779</v>
       </c>
-      <c r="K302" t="inlineStr">
+      <c r="J302" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -10401,24 +9493,23 @@
         <v>21966.8781</v>
       </c>
       <c r="G303" t="n">
-        <v>-90793099.84374763</v>
+        <v>1</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="I303" t="n">
         <v>1.779</v>
       </c>
-      <c r="K303" t="inlineStr">
+      <c r="J303" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -10440,24 +9531,23 @@
         <v>286.4498</v>
       </c>
       <c r="G304" t="n">
-        <v>-90793099.84374763</v>
+        <v>1</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="I304" t="n">
         <v>1.779</v>
       </c>
-      <c r="K304" t="inlineStr">
+      <c r="J304" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -10479,24 +9569,23 @@
         <v>14768.038</v>
       </c>
       <c r="G305" t="n">
-        <v>-90793099.84374763</v>
+        <v>1</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="I305" t="n">
         <v>1.779</v>
       </c>
-      <c r="K305" t="inlineStr">
+      <c r="J305" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -10518,24 +9607,23 @@
         <v>13759</v>
       </c>
       <c r="G306" t="n">
-        <v>-90793099.84374763</v>
+        <v>1</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="I306" t="n">
         <v>1.779</v>
       </c>
-      <c r="K306" t="inlineStr">
+      <c r="J306" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -10557,24 +9645,23 @@
         <v>9645</v>
       </c>
       <c r="G307" t="n">
-        <v>-90802744.84374763</v>
+        <v>1</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="I307" t="n">
         <v>1.779</v>
       </c>
-      <c r="K307" t="inlineStr">
+      <c r="J307" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -10596,24 +9683,21 @@
         <v>110859</v>
       </c>
       <c r="G308" t="n">
-        <v>-90802744.84374763</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
+        <v>0</v>
+      </c>
+      <c r="H308" t="inlineStr"/>
+      <c r="I308" t="n">
         <v>1.779</v>
       </c>
-      <c r="K308" t="inlineStr">
+      <c r="J308" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -10635,24 +9719,21 @@
         <v>3075.4773</v>
       </c>
       <c r="G309" t="n">
-        <v>-90799669.36644763</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
+        <v>0</v>
+      </c>
+      <c r="H309" t="inlineStr"/>
+      <c r="I309" t="n">
         <v>1.779</v>
       </c>
-      <c r="K309" t="inlineStr">
+      <c r="J309" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -10674,24 +9755,21 @@
         <v>22724.2083</v>
       </c>
       <c r="G310" t="n">
-        <v>-90799669.36644763</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
+        <v>0</v>
+      </c>
+      <c r="H310" t="inlineStr"/>
+      <c r="I310" t="n">
         <v>1.779</v>
       </c>
-      <c r="K310" t="inlineStr">
+      <c r="J310" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>1</v>
+      </c>
+      <c r="L310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -10713,24 +9791,21 @@
         <v>3745.5407</v>
       </c>
       <c r="G311" t="n">
-        <v>-90799669.36644763</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
+        <v>0</v>
+      </c>
+      <c r="H311" t="inlineStr"/>
+      <c r="I311" t="n">
         <v>1.779</v>
       </c>
-      <c r="K311" t="inlineStr">
+      <c r="J311" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -10752,24 +9827,21 @@
         <v>997751.6102999999</v>
       </c>
       <c r="G312" t="n">
-        <v>-89801917.75614762</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
+        <v>0</v>
+      </c>
+      <c r="H312" t="inlineStr"/>
+      <c r="I312" t="n">
         <v>1.779</v>
       </c>
-      <c r="K312" t="inlineStr">
+      <c r="J312" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
+      <c r="L312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -10791,24 +9863,21 @@
         <v>819090.9166999999</v>
       </c>
       <c r="G313" t="n">
-        <v>-89801917.75614762</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
+        <v>0</v>
+      </c>
+      <c r="H313" t="inlineStr"/>
+      <c r="I313" t="n">
         <v>1.779</v>
       </c>
-      <c r="K313" t="inlineStr">
+      <c r="J313" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -10830,24 +9899,21 @@
         <v>397.8006</v>
       </c>
       <c r="G314" t="n">
-        <v>-89801917.75614762</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
+        <v>0</v>
+      </c>
+      <c r="H314" t="inlineStr"/>
+      <c r="I314" t="n">
         <v>1.779</v>
       </c>
-      <c r="K314" t="inlineStr">
+      <c r="J314" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>1</v>
+      </c>
+      <c r="L314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -10869,24 +9935,21 @@
         <v>41700.2325</v>
       </c>
       <c r="G315" t="n">
-        <v>-89843617.98864762</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
+        <v>0</v>
+      </c>
+      <c r="H315" t="inlineStr"/>
+      <c r="I315" t="n">
         <v>1.779</v>
       </c>
-      <c r="K315" t="inlineStr">
+      <c r="J315" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>1</v>
+      </c>
+      <c r="L315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -10908,24 +9971,21 @@
         <v>13978.2293</v>
       </c>
       <c r="G316" t="n">
-        <v>-89843617.98864762</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
+        <v>0</v>
+      </c>
+      <c r="H316" t="inlineStr"/>
+      <c r="I316" t="n">
         <v>1.779</v>
       </c>
-      <c r="K316" t="inlineStr">
+      <c r="J316" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>1</v>
+      </c>
+      <c r="L316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -10947,24 +10007,21 @@
         <v>6839</v>
       </c>
       <c r="G317" t="n">
-        <v>-89850456.98864762</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
+        <v>0</v>
+      </c>
+      <c r="H317" t="inlineStr"/>
+      <c r="I317" t="n">
         <v>1.779</v>
       </c>
-      <c r="K317" t="inlineStr">
+      <c r="J317" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>1</v>
+      </c>
+      <c r="L317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -10986,24 +10043,21 @@
         <v>542991.6788</v>
       </c>
       <c r="G318" t="n">
-        <v>-90393448.66744763</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
+        <v>0</v>
+      </c>
+      <c r="H318" t="inlineStr"/>
+      <c r="I318" t="n">
         <v>1.779</v>
       </c>
-      <c r="K318" t="inlineStr">
+      <c r="J318" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>1</v>
+      </c>
+      <c r="L318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -11025,24 +10079,21 @@
         <v>635393.6200999999</v>
       </c>
       <c r="G319" t="n">
-        <v>-89758055.04734762</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
+        <v>0</v>
+      </c>
+      <c r="H319" t="inlineStr"/>
+      <c r="I319" t="n">
         <v>1.779</v>
       </c>
-      <c r="K319" t="inlineStr">
+      <c r="J319" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>1</v>
+      </c>
+      <c r="L319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -11064,24 +10115,21 @@
         <v>1418280</v>
       </c>
       <c r="G320" t="n">
-        <v>-91176335.04734762</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
+        <v>0</v>
+      </c>
+      <c r="H320" t="inlineStr"/>
+      <c r="I320" t="n">
         <v>1.779</v>
       </c>
-      <c r="K320" t="inlineStr">
+      <c r="J320" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>1</v>
+      </c>
+      <c r="L320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -11103,24 +10151,21 @@
         <v>50808.6201</v>
       </c>
       <c r="G321" t="n">
-        <v>-91125526.42724761</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
+        <v>0</v>
+      </c>
+      <c r="H321" t="inlineStr"/>
+      <c r="I321" t="n">
         <v>1.779</v>
       </c>
-      <c r="K321" t="inlineStr">
+      <c r="J321" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>1</v>
+      </c>
+      <c r="L321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -11142,24 +10187,21 @@
         <v>35156.4392</v>
       </c>
       <c r="G322" t="n">
-        <v>-91090369.98804761</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
+        <v>0</v>
+      </c>
+      <c r="H322" t="inlineStr"/>
+      <c r="I322" t="n">
         <v>1.779</v>
       </c>
-      <c r="K322" t="inlineStr">
+      <c r="J322" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>1</v>
+      </c>
+      <c r="L322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -11181,24 +10223,21 @@
         <v>590860.5975</v>
       </c>
       <c r="G323" t="n">
-        <v>-90499509.39054762</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
+        <v>0</v>
+      </c>
+      <c r="H323" t="inlineStr"/>
+      <c r="I323" t="n">
         <v>1.779</v>
       </c>
-      <c r="K323" t="inlineStr">
+      <c r="J323" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>1</v>
+      </c>
+      <c r="L323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -11220,24 +10259,21 @@
         <v>36831.274</v>
       </c>
       <c r="G324" t="n">
-        <v>-90499509.39054762</v>
-      </c>
-      <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
+        <v>0</v>
+      </c>
+      <c r="H324" t="inlineStr"/>
+      <c r="I324" t="n">
         <v>1.779</v>
       </c>
-      <c r="K324" t="inlineStr">
+      <c r="J324" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>1</v>
+      </c>
+      <c r="L324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -11259,24 +10295,21 @@
         <v>64851.7265</v>
       </c>
       <c r="G325" t="n">
-        <v>-90434657.66404761</v>
-      </c>
-      <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
+        <v>0</v>
+      </c>
+      <c r="H325" t="inlineStr"/>
+      <c r="I325" t="n">
         <v>1.779</v>
       </c>
-      <c r="K325" t="inlineStr">
+      <c r="J325" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>1</v>
+      </c>
+      <c r="L325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -11298,24 +10331,21 @@
         <v>3081284</v>
       </c>
       <c r="G326" t="n">
-        <v>-93515941.66404761</v>
-      </c>
-      <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
+        <v>0</v>
+      </c>
+      <c r="H326" t="inlineStr"/>
+      <c r="I326" t="n">
         <v>1.779</v>
       </c>
-      <c r="K326" t="inlineStr">
+      <c r="J326" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>1</v>
+      </c>
+      <c r="L326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -11337,24 +10367,21 @@
         <v>1366941</v>
       </c>
       <c r="G327" t="n">
-        <v>-93515941.66404761</v>
-      </c>
-      <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
+        <v>0</v>
+      </c>
+      <c r="H327" t="inlineStr"/>
+      <c r="I327" t="n">
         <v>1.779</v>
       </c>
-      <c r="K327" t="inlineStr">
+      <c r="J327" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>1</v>
+      </c>
+      <c r="L327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -11376,24 +10403,21 @@
         <v>1527.5612</v>
       </c>
       <c r="G328" t="n">
-        <v>-93514414.10284762</v>
-      </c>
-      <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
+        <v>0</v>
+      </c>
+      <c r="H328" t="inlineStr"/>
+      <c r="I328" t="n">
         <v>1.779</v>
       </c>
-      <c r="K328" t="inlineStr">
+      <c r="J328" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>1</v>
+      </c>
+      <c r="L328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -11415,24 +10439,21 @@
         <v>277852.0791</v>
       </c>
       <c r="G329" t="n">
-        <v>-93792266.18194762</v>
-      </c>
-      <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
+        <v>0</v>
+      </c>
+      <c r="H329" t="inlineStr"/>
+      <c r="I329" t="n">
         <v>1.779</v>
       </c>
-      <c r="K329" t="inlineStr">
+      <c r="J329" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>1</v>
+      </c>
+      <c r="L329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -11454,24 +10475,21 @@
         <v>2966805</v>
       </c>
       <c r="G330" t="n">
-        <v>-90825461.18194762</v>
-      </c>
-      <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
+        <v>0</v>
+      </c>
+      <c r="H330" t="inlineStr"/>
+      <c r="I330" t="n">
         <v>1.779</v>
       </c>
-      <c r="K330" t="inlineStr">
+      <c r="J330" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>1</v>
+      </c>
+      <c r="L330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -11493,24 +10511,21 @@
         <v>675658</v>
       </c>
       <c r="G331" t="n">
-        <v>-90825461.18194762</v>
-      </c>
-      <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
+        <v>0</v>
+      </c>
+      <c r="H331" t="inlineStr"/>
+      <c r="I331" t="n">
         <v>1.779</v>
       </c>
-      <c r="K331" t="inlineStr">
+      <c r="J331" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L331" t="n">
-        <v>1</v>
-      </c>
-      <c r="M331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>1</v>
+      </c>
+      <c r="L331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -11532,24 +10547,21 @@
         <v>45000</v>
       </c>
       <c r="G332" t="n">
-        <v>-90780461.18194762</v>
-      </c>
-      <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
+        <v>0</v>
+      </c>
+      <c r="H332" t="inlineStr"/>
+      <c r="I332" t="n">
         <v>1.779</v>
       </c>
-      <c r="K332" t="inlineStr">
+      <c r="J332" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>1</v>
+      </c>
+      <c r="L332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -11571,24 +10583,21 @@
         <v>6484.3559</v>
       </c>
       <c r="G333" t="n">
-        <v>-90786945.53784762</v>
-      </c>
-      <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
+        <v>0</v>
+      </c>
+      <c r="H333" t="inlineStr"/>
+      <c r="I333" t="n">
         <v>1.779</v>
       </c>
-      <c r="K333" t="inlineStr">
+      <c r="J333" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L333" t="n">
-        <v>1</v>
-      </c>
-      <c r="M333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>1</v>
+      </c>
+      <c r="L333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -11610,24 +10619,21 @@
         <v>13250.8198</v>
       </c>
       <c r="G334" t="n">
-        <v>-90800196.35764763</v>
-      </c>
-      <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
+        <v>0</v>
+      </c>
+      <c r="H334" t="inlineStr"/>
+      <c r="I334" t="n">
         <v>1.779</v>
       </c>
-      <c r="K334" t="inlineStr">
+      <c r="J334" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L334" t="n">
-        <v>1</v>
-      </c>
-      <c r="M334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>1</v>
+      </c>
+      <c r="L334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -11649,24 +10655,21 @@
         <v>290751.928</v>
       </c>
       <c r="G335" t="n">
-        <v>-91090948.28564763</v>
-      </c>
-      <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
+        <v>0</v>
+      </c>
+      <c r="H335" t="inlineStr"/>
+      <c r="I335" t="n">
         <v>1.779</v>
       </c>
-      <c r="K335" t="inlineStr">
+      <c r="J335" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L335" t="n">
-        <v>1</v>
-      </c>
-      <c r="M335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>1</v>
+      </c>
+      <c r="L335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -11688,24 +10691,21 @@
         <v>1000000</v>
       </c>
       <c r="G336" t="n">
-        <v>-92090948.28564763</v>
-      </c>
-      <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
+        <v>0</v>
+      </c>
+      <c r="H336" t="inlineStr"/>
+      <c r="I336" t="n">
         <v>1.779</v>
       </c>
-      <c r="K336" t="inlineStr">
+      <c r="J336" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L336" t="n">
-        <v>1</v>
-      </c>
-      <c r="M336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>1</v>
+      </c>
+      <c r="L336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -11727,24 +10727,21 @@
         <v>938969.1135</v>
       </c>
       <c r="G337" t="n">
-        <v>-92090948.28564763</v>
-      </c>
-      <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
+        <v>0</v>
+      </c>
+      <c r="H337" t="inlineStr"/>
+      <c r="I337" t="n">
         <v>1.779</v>
       </c>
-      <c r="K337" t="inlineStr">
+      <c r="J337" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L337" t="n">
-        <v>1</v>
-      </c>
-      <c r="M337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>1</v>
+      </c>
+      <c r="L337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -11766,24 +10763,21 @@
         <v>806.8796</v>
       </c>
       <c r="G338" t="n">
-        <v>-92090948.28564763</v>
-      </c>
-      <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
+        <v>0</v>
+      </c>
+      <c r="H338" t="inlineStr"/>
+      <c r="I338" t="n">
         <v>1.779</v>
       </c>
-      <c r="K338" t="inlineStr">
+      <c r="J338" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L338" t="n">
-        <v>1</v>
-      </c>
-      <c r="M338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>1</v>
+      </c>
+      <c r="L338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -11805,26 +10799,21 @@
         <v>280</v>
       </c>
       <c r="G339" t="n">
-        <v>-92090668.28564763</v>
-      </c>
-      <c r="H339" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H339" t="inlineStr"/>
       <c r="I339" t="n">
         <v>1.779</v>
       </c>
-      <c r="J339" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="K339" t="inlineStr">
+      <c r="J339" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L339" t="n">
-        <v>1</v>
-      </c>
-      <c r="M339" t="inlineStr"/>
+      <c r="K339" t="n">
+        <v>1</v>
+      </c>
+      <c r="L339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -11846,26 +10835,21 @@
         <v>280</v>
       </c>
       <c r="G340" t="n">
-        <v>-92090948.28564763</v>
-      </c>
-      <c r="H340" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H340" t="inlineStr"/>
       <c r="I340" t="n">
-        <v>1.794</v>
-      </c>
-      <c r="J340" t="n">
         <v>1.779</v>
       </c>
-      <c r="K340" t="inlineStr">
+      <c r="J340" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L340" t="n">
-        <v>1</v>
-      </c>
-      <c r="M340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>1</v>
+      </c>
+      <c r="L340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -11887,26 +10871,21 @@
         <v>1364.185</v>
       </c>
       <c r="G341" t="n">
-        <v>-92092312.47064763</v>
-      </c>
-      <c r="H341" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H341" t="inlineStr"/>
       <c r="I341" t="n">
-        <v>1.793</v>
-      </c>
-      <c r="J341" t="n">
         <v>1.779</v>
       </c>
-      <c r="K341" t="inlineStr">
+      <c r="J341" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L341" t="n">
-        <v>1</v>
-      </c>
-      <c r="M341" t="inlineStr"/>
+      <c r="K341" t="n">
+        <v>1</v>
+      </c>
+      <c r="L341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -11928,26 +10907,21 @@
         <v>251839.974</v>
       </c>
       <c r="G342" t="n">
-        <v>-92092312.47064763</v>
-      </c>
-      <c r="H342" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H342" t="inlineStr"/>
       <c r="I342" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="J342" t="n">
         <v>1.779</v>
       </c>
-      <c r="K342" t="inlineStr">
+      <c r="J342" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L342" t="n">
-        <v>1</v>
-      </c>
-      <c r="M342" t="inlineStr"/>
+      <c r="K342" t="n">
+        <v>1</v>
+      </c>
+      <c r="L342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -11969,26 +10943,21 @@
         <v>251839.974</v>
       </c>
       <c r="G343" t="n">
-        <v>-92344152.44464764</v>
-      </c>
-      <c r="H343" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H343" t="inlineStr"/>
       <c r="I343" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="J343" t="n">
         <v>1.779</v>
       </c>
-      <c r="K343" t="inlineStr">
+      <c r="J343" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L343" t="n">
-        <v>1</v>
-      </c>
-      <c r="M343" t="inlineStr"/>
+      <c r="K343" t="n">
+        <v>1</v>
+      </c>
+      <c r="L343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -12010,26 +10979,21 @@
         <v>98766.5726</v>
       </c>
       <c r="G344" t="n">
-        <v>-92344152.44464764</v>
-      </c>
-      <c r="H344" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H344" t="inlineStr"/>
       <c r="I344" t="n">
         <v>1.779</v>
       </c>
-      <c r="J344" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="K344" t="inlineStr">
+      <c r="J344" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L344" t="n">
-        <v>1</v>
-      </c>
-      <c r="M344" t="inlineStr"/>
+      <c r="K344" t="n">
+        <v>1</v>
+      </c>
+      <c r="L344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -12051,26 +11015,21 @@
         <v>15075.6635</v>
       </c>
       <c r="G345" t="n">
-        <v>-92359228.10814764</v>
-      </c>
-      <c r="H345" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H345" t="inlineStr"/>
       <c r="I345" t="n">
         <v>1.779</v>
       </c>
-      <c r="J345" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="K345" t="inlineStr">
+      <c r="J345" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L345" t="n">
-        <v>1</v>
-      </c>
-      <c r="M345" t="inlineStr"/>
+      <c r="K345" t="n">
+        <v>1</v>
+      </c>
+      <c r="L345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -12092,26 +11051,21 @@
         <v>78202.80160000001</v>
       </c>
       <c r="G346" t="n">
-        <v>-92281025.30654764</v>
-      </c>
-      <c r="H346" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H346" t="inlineStr"/>
       <c r="I346" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="J346" t="n">
         <v>1.779</v>
       </c>
-      <c r="K346" t="inlineStr">
+      <c r="J346" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L346" t="n">
-        <v>1</v>
-      </c>
-      <c r="M346" t="inlineStr"/>
+      <c r="K346" t="n">
+        <v>1</v>
+      </c>
+      <c r="L346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -12133,26 +11087,21 @@
         <v>9859.4136</v>
       </c>
       <c r="G347" t="n">
-        <v>-92271165.89294764</v>
-      </c>
-      <c r="H347" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H347" t="inlineStr"/>
       <c r="I347" t="n">
         <v>1.779</v>
       </c>
-      <c r="J347" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="K347" t="inlineStr">
+      <c r="J347" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L347" t="n">
-        <v>1</v>
-      </c>
-      <c r="M347" t="inlineStr"/>
+      <c r="K347" t="n">
+        <v>1</v>
+      </c>
+      <c r="L347" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
